--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072D767-E59E-4B8D-823C-49F5F7C8E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08ACBD6-6FA9-4102-A465-2E4E482B379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="608">
   <si>
     <t>TestCases</t>
   </si>
@@ -797,73 +797,1078 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>Chhaya</t>
-  </si>
-  <si>
-    <t>KoushtubhAcharya55708@example.net</t>
-  </si>
-  <si>
-    <t>1970-10-27</t>
-  </si>
-  <si>
-    <t>6796489035</t>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>OmarMorar70703@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-28</t>
+  </si>
+  <si>
+    <t>IDEP617285859149GLNE</t>
+  </si>
+  <si>
+    <t>IDEP7162845534141JFG</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>59999957965</t>
+  </si>
+  <si>
+    <t>CMQPQK</t>
+  </si>
+  <si>
+    <t>8083416732</t>
+  </si>
+  <si>
+    <t>Rakhi</t>
+  </si>
+  <si>
+    <t>SureshBedi89627@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-02</t>
+  </si>
+  <si>
+    <t>846152498784377</t>
+  </si>
+  <si>
+    <t>fc69fcf9c94617f8</t>
+  </si>
+  <si>
+    <t>788369626614868</t>
+  </si>
+  <si>
+    <t>7651882461</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>UsmanDas76134@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-03</t>
+  </si>
+  <si>
+    <t>255508168187403</t>
+  </si>
+  <si>
+    <t>e492aed4212cab5e</t>
+  </si>
+  <si>
+    <t>213263343164015</t>
+  </si>
+  <si>
+    <t>8525238470</t>
+  </si>
+  <si>
+    <t>8222837699</t>
+  </si>
+  <si>
+    <t>Vimala</t>
+  </si>
+  <si>
+    <t>GhalibMajumdar37631@example.net</t>
+  </si>
+  <si>
+    <t>1980-12-07</t>
+  </si>
+  <si>
+    <t>278464558366947</t>
+  </si>
+  <si>
+    <t>ccbfac8e05a2acba</t>
+  </si>
+  <si>
+    <t>918587660226330</t>
+  </si>
+  <si>
+    <t>IDEP721687499361JMEB</t>
+  </si>
+  <si>
+    <t>4215782</t>
+  </si>
+  <si>
+    <t>4215813.0</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>59999934705</t>
+  </si>
+  <si>
+    <t>HAGLBD</t>
+  </si>
+  <si>
+    <t>59999196697</t>
+  </si>
+  <si>
+    <t>TTFBAC</t>
+  </si>
+  <si>
+    <t>59999526784</t>
+  </si>
+  <si>
+    <t>QLMSBE</t>
+  </si>
+  <si>
+    <t>59999632660</t>
+  </si>
+  <si>
+    <t>BPTLQP</t>
+  </si>
+  <si>
+    <t>59999308989</t>
+  </si>
+  <si>
+    <t>UISHOQ</t>
+  </si>
+  <si>
+    <t>59999125752</t>
+  </si>
+  <si>
+    <t>EQEHDO</t>
+  </si>
+  <si>
+    <t>59999750475</t>
+  </si>
+  <si>
+    <t>KPNKOK</t>
+  </si>
+  <si>
+    <t>59999667112</t>
+  </si>
+  <si>
+    <t>OOULNB</t>
+  </si>
+  <si>
+    <t>59999913169</t>
+  </si>
+  <si>
+    <t>HBTIUG</t>
+  </si>
+  <si>
+    <t>59999510840</t>
+  </si>
+  <si>
+    <t>OMJLDU</t>
+  </si>
+  <si>
+    <t>7677950360</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>AmritNayak51563@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-18</t>
+  </si>
+  <si>
+    <t>035578414263818</t>
+  </si>
+  <si>
+    <t>700d482e42f8e49b</t>
+  </si>
+  <si>
+    <t>102561058362128</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>59999279103</t>
+  </si>
+  <si>
+    <t>EHKKIJ</t>
+  </si>
+  <si>
+    <t>BNPL2671971448153827</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6139982301</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>ZeeshanBehl87876@example.net</t>
+  </si>
+  <si>
+    <t>1980-09-23</t>
+  </si>
+  <si>
+    <t>227061456324317</t>
+  </si>
+  <si>
+    <t>1d8b4b54f7d95c1f</t>
+  </si>
+  <si>
+    <t>771648793816581</t>
+  </si>
+  <si>
+    <t>335577016139982301</t>
+  </si>
+  <si>
+    <t>ICIC84931021950</t>
+  </si>
+  <si>
+    <t>9464689691</t>
+  </si>
+  <si>
+    <t>Ragini</t>
+  </si>
+  <si>
+    <t>ZahirMinhas90521@example.net</t>
+  </si>
+  <si>
+    <t>1990-06-14</t>
+  </si>
+  <si>
+    <t>062296607416582</t>
+  </si>
+  <si>
+    <t>1c80ac4bba192958</t>
+  </si>
+  <si>
+    <t>303348452199190</t>
+  </si>
+  <si>
+    <t>335577019464689691</t>
+  </si>
+  <si>
+    <t>ICIC98167413309</t>
+  </si>
+  <si>
+    <t>7191490974</t>
+  </si>
+  <si>
+    <t>Urmi</t>
+  </si>
+  <si>
+    <t>FaisalDash90405@example.net</t>
+  </si>
+  <si>
+    <t>1974-08-01</t>
+  </si>
+  <si>
+    <t>792400658813674</t>
+  </si>
+  <si>
+    <t>cbe88c3b60038c87</t>
+  </si>
+  <si>
+    <t>759953455339948</t>
+  </si>
+  <si>
+    <t>IDEP716381321848N3AX</t>
+  </si>
+  <si>
+    <t>4215972.0</t>
+  </si>
+  <si>
+    <t>8159695029</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>YashChandran44392@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-15</t>
+  </si>
+  <si>
+    <t>971680379495850</t>
+  </si>
+  <si>
+    <t>def531d81735121c</t>
+  </si>
+  <si>
+    <t>073849454881790</t>
+  </si>
+  <si>
+    <t>IDEP731682612984BMCZ</t>
+  </si>
+  <si>
+    <t>4215981.0</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>59999300605</t>
+  </si>
+  <si>
+    <t>GPSENE</t>
+  </si>
+  <si>
+    <t>BNPL1673831676599126</t>
+  </si>
+  <si>
+    <t>59999683888</t>
+  </si>
+  <si>
+    <t>QLESBU</t>
+  </si>
+  <si>
+    <t>59999997795</t>
+  </si>
+  <si>
+    <t>ILUTEF</t>
+  </si>
+  <si>
+    <t>59999871565</t>
+  </si>
+  <si>
+    <t>RETFGK</t>
+  </si>
+  <si>
+    <t>59999461875</t>
+  </si>
+  <si>
+    <t>ARQAMA</t>
+  </si>
+  <si>
+    <t>59999490314</t>
+  </si>
+  <si>
+    <t>UBKSAH</t>
+  </si>
+  <si>
+    <t>59999752634</t>
+  </si>
+  <si>
+    <t>OPGDIE</t>
+  </si>
+  <si>
+    <t>59999684845</t>
+  </si>
+  <si>
+    <t>IDEJRE</t>
+  </si>
+  <si>
+    <t>59999013823</t>
+  </si>
+  <si>
+    <t>OGFEGR</t>
+  </si>
+  <si>
+    <t>59999752761</t>
+  </si>
+  <si>
+    <t>EUJRSE</t>
+  </si>
+  <si>
+    <t>198.0</t>
+  </si>
+  <si>
+    <t>6175047642</t>
+  </si>
+  <si>
+    <t>Preshita</t>
+  </si>
+  <si>
+    <t>RickyDin93367@example.net</t>
+  </si>
+  <si>
+    <t>1984-08-10</t>
+  </si>
+  <si>
+    <t>348723657101414</t>
+  </si>
+  <si>
+    <t>c11dc8425d6d91e2</t>
+  </si>
+  <si>
+    <t>679614482679998</t>
+  </si>
+  <si>
+    <t>335577016175047642</t>
+  </si>
+  <si>
+    <t>ICIC90321131249</t>
+  </si>
+  <si>
+    <t>9788664189</t>
+  </si>
+  <si>
+    <t>Ankita</t>
+  </si>
+  <si>
+    <t>ChitranjanMahadeo90086@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-19</t>
+  </si>
+  <si>
+    <t>765799541590438</t>
+  </si>
+  <si>
+    <t>90c200f782b3b603</t>
+  </si>
+  <si>
+    <t>581437245318002</t>
+  </si>
+  <si>
+    <t>335577019788664189</t>
+  </si>
+  <si>
+    <t>ICIC86239376071</t>
+  </si>
+  <si>
+    <t>6645774637</t>
+  </si>
+  <si>
+    <t>Nishi</t>
+  </si>
+  <si>
+    <t>AnimeshSwamy18399@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-19</t>
+  </si>
+  <si>
+    <t>677042423830003</t>
+  </si>
+  <si>
+    <t>ff3040d08b7f2c0a</t>
+  </si>
+  <si>
+    <t>957842831375488</t>
+  </si>
+  <si>
+    <t>IDEP763185428845KHDY</t>
+  </si>
+  <si>
+    <t>4216008.0</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>59999240936</t>
+  </si>
+  <si>
+    <t>JGBONK</t>
+  </si>
+  <si>
+    <t>BNPL7613868149657234</t>
+  </si>
+  <si>
+    <t>59999861429</t>
+  </si>
+  <si>
+    <t>KMSCCS</t>
+  </si>
+  <si>
+    <t>59999676267</t>
+  </si>
+  <si>
+    <t>OSOOMT</t>
+  </si>
+  <si>
+    <t>59999680841</t>
+  </si>
+  <si>
+    <t>CNBESU</t>
+  </si>
+  <si>
+    <t>59999640622</t>
+  </si>
+  <si>
+    <t>MCMPNS</t>
+  </si>
+  <si>
+    <t>59999156584</t>
+  </si>
+  <si>
+    <t>OURBGN</t>
+  </si>
+  <si>
+    <t>59999481658</t>
+  </si>
+  <si>
+    <t>MJOSFB</t>
+  </si>
+  <si>
+    <t>59999961180</t>
+  </si>
+  <si>
+    <t>SLKCGU</t>
+  </si>
+  <si>
+    <t>59999548863</t>
+  </si>
+  <si>
+    <t>KAFQPK</t>
+  </si>
+  <si>
+    <t>59999485578</t>
+  </si>
+  <si>
+    <t>SLILMS</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>7948028394</t>
+  </si>
+  <si>
+    <t>FardeenAggarwal16846@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-09</t>
+  </si>
+  <si>
+    <t>747045305034913</t>
+  </si>
+  <si>
+    <t>bff4c71756967649</t>
+  </si>
+  <si>
+    <t>661878043748036</t>
+  </si>
+  <si>
+    <t>335577017948028394</t>
+  </si>
+  <si>
+    <t>ICIC85935830408</t>
+  </si>
+  <si>
+    <t>9181886074</t>
+  </si>
+  <si>
+    <t>Alaknanda</t>
+  </si>
+  <si>
+    <t>ParveenBajwa52617@example.net</t>
+  </si>
+  <si>
+    <t>1995-10-13</t>
+  </si>
+  <si>
+    <t>520478354998642</t>
+  </si>
+  <si>
+    <t>95a9df89c953d0f2</t>
+  </si>
+  <si>
+    <t>785909881962602</t>
+  </si>
+  <si>
+    <t>335577019181886074</t>
+  </si>
+  <si>
+    <t>ICIC85587462455</t>
+  </si>
+  <si>
+    <t>9927480018</t>
+  </si>
+  <si>
+    <t>Jagruti</t>
+  </si>
+  <si>
+    <t>UmarKibe92067@example.net</t>
+  </si>
+  <si>
+    <t>1990-09-04</t>
+  </si>
+  <si>
+    <t>910509661707850</t>
+  </si>
+  <si>
+    <t>c3f7d00052d833df</t>
+  </si>
+  <si>
+    <t>030308224102229</t>
+  </si>
+  <si>
+    <t>IDEP163744432144N9WK</t>
+  </si>
+  <si>
+    <t>6636072322</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>PrasoonShah23727@example.net</t>
+  </si>
+  <si>
+    <t>1978-09-13</t>
+  </si>
+  <si>
+    <t>931576343083245</t>
+  </si>
+  <si>
+    <t>06a93decebc1951f</t>
+  </si>
+  <si>
+    <t>080541841950625</t>
+  </si>
+  <si>
+    <t>IDEP1376444698366QRL</t>
+  </si>
+  <si>
+    <t>4216154.0</t>
+  </si>
+  <si>
+    <t>4216156.0</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999708370</t>
+  </si>
+  <si>
+    <t>LUQLRL</t>
+  </si>
+  <si>
+    <t>BNPL7631447981842453</t>
+  </si>
+  <si>
+    <t>172.0</t>
+  </si>
+  <si>
+    <t>9407538930</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>AniruddhDara32445@example.net</t>
+  </si>
+  <si>
+    <t>1973-05-04</t>
+  </si>
+  <si>
+    <t>250725621919736</t>
+  </si>
+  <si>
+    <t>dc4ebdd16421d0d3</t>
+  </si>
+  <si>
+    <t>126770960196258</t>
+  </si>
+  <si>
+    <t>335577019407538930</t>
+  </si>
+  <si>
+    <t>ICIC83694600934</t>
+  </si>
+  <si>
+    <t>9150009609</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>HarpreetOm34957@example.net</t>
+  </si>
+  <si>
+    <t>1989-09-15</t>
+  </si>
+  <si>
+    <t>590019988844433</t>
+  </si>
+  <si>
+    <t>05d82ac9091a4fac</t>
+  </si>
+  <si>
+    <t>901154709237536</t>
+  </si>
+  <si>
+    <t>335577019150009609</t>
+  </si>
+  <si>
+    <t>ICIC82535475059</t>
+  </si>
+  <si>
+    <t>8556056800</t>
   </si>
   <si>
     <t>Payal</t>
   </si>
   <si>
-    <t>EkbalPant67574@example.net</t>
-  </si>
-  <si>
-    <t>1979-03-05</t>
-  </si>
-  <si>
-    <t>741880661635648</t>
-  </si>
-  <si>
-    <t>66c2361e59fbfed5</t>
-  </si>
-  <si>
-    <t>273747813671126</t>
-  </si>
-  <si>
-    <t>IDEP261784217538YRK3</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>59999524741</t>
-  </si>
-  <si>
-    <t>QQUGEP</t>
-  </si>
-  <si>
-    <t>6410996992</t>
-  </si>
-  <si>
-    <t>Niyati</t>
-  </si>
-  <si>
-    <t>OmarMorar70703@example.net</t>
-  </si>
-  <si>
-    <t>1978-06-28</t>
-  </si>
-  <si>
-    <t>706669600189202</t>
-  </si>
-  <si>
-    <t>671d100ffa28fb49</t>
-  </si>
-  <si>
-    <t>195412881686812</t>
-  </si>
-  <si>
-    <t>IDEP617285859149GLNE</t>
-  </si>
-  <si>
-    <t>4215434</t>
+    <t>BrockMital68409@example.net</t>
+  </si>
+  <si>
+    <t>1976-06-29</t>
+  </si>
+  <si>
+    <t>333702585579120</t>
+  </si>
+  <si>
+    <t>03618b50eb8c4447</t>
+  </si>
+  <si>
+    <t>158314167143135</t>
+  </si>
+  <si>
+    <t>IDEP763145814613C234</t>
+  </si>
+  <si>
+    <t>4216157.0</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>59999534685</t>
+  </si>
+  <si>
+    <t>DBPBLO</t>
+  </si>
+  <si>
+    <t>9432810375</t>
+  </si>
+  <si>
+    <t>Trishana</t>
+  </si>
+  <si>
+    <t>AjeetPalla31224@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-27</t>
+  </si>
+  <si>
+    <t>629933456594558</t>
+  </si>
+  <si>
+    <t>f7aa10c19698efb1</t>
+  </si>
+  <si>
+    <t>178526844849612</t>
+  </si>
+  <si>
+    <t>IDEP736146897272PYUS</t>
+  </si>
+  <si>
+    <t>4216167.0</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>59999794495</t>
+  </si>
+  <si>
+    <t>NULENE</t>
+  </si>
+  <si>
+    <t>BNPL1367464812659816</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>6468115617</t>
+  </si>
+  <si>
+    <t>Damini</t>
+  </si>
+  <si>
+    <t>HariPadmanabhan45420@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-07</t>
+  </si>
+  <si>
+    <t>708652927626633</t>
+  </si>
+  <si>
+    <t>e4f46df0f52bbae6</t>
+  </si>
+  <si>
+    <t>746315569577431</t>
+  </si>
+  <si>
+    <t>335577016468115617</t>
+  </si>
+  <si>
+    <t>ICIC89343947686</t>
+  </si>
+  <si>
+    <t>9402616802</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>IqbalBalasubramanian44500@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-24</t>
+  </si>
+  <si>
+    <t>098034672725886</t>
+  </si>
+  <si>
+    <t>7baab1c6f5e09577</t>
+  </si>
+  <si>
+    <t>145512804717692</t>
+  </si>
+  <si>
+    <t>335577019402616802</t>
+  </si>
+  <si>
+    <t>ICIC81917583840</t>
+  </si>
+  <si>
+    <t>8206284204</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>RahimGandhi89771@example.net</t>
+  </si>
+  <si>
+    <t>1970-06-28</t>
+  </si>
+  <si>
+    <t>310474539619090</t>
+  </si>
+  <si>
+    <t>01dbe0f1e4584054</t>
+  </si>
+  <si>
+    <t>701428097481068</t>
+  </si>
+  <si>
+    <t>IDEP713653358884VXAO</t>
+  </si>
+  <si>
+    <t>4216862.0</t>
+  </si>
+  <si>
+    <t>59999867399</t>
+  </si>
+  <si>
+    <t>ADDPLC</t>
+  </si>
+  <si>
+    <t>BNPL7361536788719856</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>6904792005</t>
+  </si>
+  <si>
+    <t>Runjhun</t>
+  </si>
+  <si>
+    <t>UdayPurohit60456@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-09</t>
+  </si>
+  <si>
+    <t>946634111110659</t>
+  </si>
+  <si>
+    <t>9b5b2ad1a284d222</t>
+  </si>
+  <si>
+    <t>569686195214217</t>
+  </si>
+  <si>
+    <t>335577016904792005</t>
+  </si>
+  <si>
+    <t>ICIC94550044676</t>
+  </si>
+  <si>
+    <t>7300540867</t>
+  </si>
+  <si>
+    <t>Urvashi</t>
+  </si>
+  <si>
+    <t>NatwarChad32900@example.net</t>
+  </si>
+  <si>
+    <t>1993-07-27</t>
+  </si>
+  <si>
+    <t>753727623843932</t>
+  </si>
+  <si>
+    <t>f8e929be670b5788</t>
+  </si>
+  <si>
+    <t>060049254369212</t>
+  </si>
+  <si>
+    <t>335577017300540867</t>
+  </si>
+  <si>
+    <t>ICIC85678881786</t>
+  </si>
+  <si>
+    <t>8031802337</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
+    <t>SaurabhRamroop13748@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-29</t>
+  </si>
+  <si>
+    <t>961791359130086</t>
+  </si>
+  <si>
+    <t>32881fde44f30129</t>
+  </si>
+  <si>
+    <t>127040251497560</t>
+  </si>
+  <si>
+    <t>IDEP361714431881ESWO</t>
+  </si>
+  <si>
+    <t>4217084.0</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>59999921249</t>
+  </si>
+  <si>
+    <t>RTBHFH</t>
+  </si>
+  <si>
+    <t>BNPL3617147585582843</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>9598958723</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>AayushmanNagy55024@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-07</t>
+  </si>
+  <si>
+    <t>462860594387175</t>
+  </si>
+  <si>
+    <t>34a272dfbfa46e0a</t>
+  </si>
+  <si>
+    <t>384236886963822</t>
+  </si>
+  <si>
+    <t>335577019598958723</t>
+  </si>
+  <si>
+    <t>ICIC80735647706</t>
+  </si>
+  <si>
+    <t>6219411694</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>DarpanBose97061@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-05</t>
+  </si>
+  <si>
+    <t>306024744742967</t>
+  </si>
+  <si>
+    <t>415dc49539a91044</t>
+  </si>
+  <si>
+    <t>459658143264175</t>
+  </si>
+  <si>
+    <t>335577016219411694</t>
+  </si>
+  <si>
+    <t>ICIC95780919500</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1483,22 +2488,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>585</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>587</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1833,6 +2838,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>588</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -1929,16 +2937,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>605</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2041,7 +3049,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>597</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2053,7 +3061,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>598</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2061,8 +3069,8 @@
       <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>169.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2091,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2E70B-D019-44E2-9FA6-52E79B5BD052}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2111,7 +3119,7 @@
     <col min="10" max="10" bestFit="true" customWidth="true" width="24.453125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2143,24 +3151,24 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>601</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>602</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2174,8 +3182,9 @@
       <c r="J2" s="16" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2207,7 +3216,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -2239,7 +3248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2271,7 +3280,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +3312,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2335,7 +3344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +3376,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +3408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +3443,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{1371E9D8-7DF8-49C3-908E-FB0F384ACE62}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{3CC06D27-3D54-4EC4-B701-18D4A7AF966B}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{F99F52A6-E3CE-4068-A50E-F6CCC23BD294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2446,7 +3455,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2509,13 +3518,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2824,13 +3833,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -2860,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2924,13 +3933,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3239,13 +4248,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3364,7 +4373,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>606</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3376,7 +4385,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>607</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3384,8 +4393,8 @@
       <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>169.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3512,10 +4521,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>601</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3527,7 +4536,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3536,10 +4545,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4215444.0</v>
+        <v>4217084.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3565,7 +4574,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>601</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3577,7 +4586,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3586,10 +4595,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4215444.0</v>
+        <v>4217084.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3649,7 +4658,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3666,7 +4675,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3683,7 +4692,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3700,7 +4709,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3717,7 +4726,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>599</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3886,7 +4895,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4130,7 +5139,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>603</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4345,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>600</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4428,7 +5437,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4726,7 +5735,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4746,7 +5755,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4766,7 +5775,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4786,7 +5795,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4806,7 +5815,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4826,7 +5835,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4846,7 +5855,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>583</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4905,7 +5914,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>585</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -4919,7 +5928,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>585</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08ACBD6-6FA9-4102-A465-2E4E482B379D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B51028-DB48-47A6-ACF6-BCA4C7E0E559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="371">
   <si>
     <t>TestCases</t>
   </si>
@@ -62,9 +62,6 @@
     <t>otp</t>
   </si>
   <si>
-    <t>auth_200</t>
-  </si>
-  <si>
     <t>IDEOPAY</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>approximate_sms</t>
   </si>
   <si>
-    <t>registeruser_200</t>
-  </si>
-  <si>
     <t>9.0.0</t>
   </si>
   <si>
@@ -776,18 +770,6 @@
     <t>room_number</t>
   </si>
   <si>
-    <t>335577017025042669</t>
-  </si>
-  <si>
-    <t>ICIC84482941142</t>
-  </si>
-  <si>
-    <t>335577016161535088</t>
-  </si>
-  <si>
-    <t>ICIC93202670782</t>
-  </si>
-  <si>
     <t>sunil Chatla</t>
   </si>
   <si>
@@ -809,1066 +791,373 @@
     <t>IDEP617285859149GLNE</t>
   </si>
   <si>
-    <t>IDEP7162845534141JFG</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>59999957965</t>
-  </si>
-  <si>
-    <t>CMQPQK</t>
-  </si>
-  <si>
-    <t>8083416732</t>
-  </si>
-  <si>
-    <t>Rakhi</t>
-  </si>
-  <si>
-    <t>SureshBedi89627@example.net</t>
-  </si>
-  <si>
-    <t>1993-07-02</t>
-  </si>
-  <si>
-    <t>846152498784377</t>
-  </si>
-  <si>
-    <t>fc69fcf9c94617f8</t>
-  </si>
-  <si>
-    <t>788369626614868</t>
-  </si>
-  <si>
-    <t>7651882461</t>
-  </si>
-  <si>
-    <t>Seema</t>
-  </si>
-  <si>
-    <t>UsmanDas76134@example.net</t>
-  </si>
-  <si>
-    <t>1992-10-03</t>
-  </si>
-  <si>
-    <t>255508168187403</t>
-  </si>
-  <si>
-    <t>e492aed4212cab5e</t>
-  </si>
-  <si>
-    <t>213263343164015</t>
-  </si>
-  <si>
-    <t>8525238470</t>
-  </si>
-  <si>
-    <t>8222837699</t>
-  </si>
-  <si>
-    <t>Vimala</t>
-  </si>
-  <si>
-    <t>GhalibMajumdar37631@example.net</t>
-  </si>
-  <si>
-    <t>1980-12-07</t>
-  </si>
-  <si>
-    <t>278464558366947</t>
-  </si>
-  <si>
-    <t>ccbfac8e05a2acba</t>
-  </si>
-  <si>
-    <t>918587660226330</t>
-  </si>
-  <si>
-    <t>IDEP721687499361JMEB</t>
-  </si>
-  <si>
-    <t>4215782</t>
-  </si>
-  <si>
-    <t>4215813.0</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>144</t>
+    <t>335577017475153363</t>
+  </si>
+  <si>
+    <t>ICIC95848663933</t>
+  </si>
+  <si>
+    <t>335577017313911882</t>
+  </si>
+  <si>
+    <t>ICIC83308914785</t>
+  </si>
+  <si>
+    <t>IDEP317627169852UF3B</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>59999131227</t>
+  </si>
+  <si>
+    <t>OEQFFT</t>
+  </si>
+  <si>
+    <t>IDEP716354622229QN71</t>
+  </si>
+  <si>
+    <t>7304301376</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>FarazThaker46144@example.net</t>
+  </si>
+  <si>
+    <t>1982-11-18</t>
+  </si>
+  <si>
+    <t>025854809689285</t>
+  </si>
+  <si>
+    <t>04ec5cff09184cb5</t>
+  </si>
+  <si>
+    <t>556346686579777</t>
+  </si>
+  <si>
+    <t>9650456182</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>GaneshAcharya38384@example.net</t>
+  </si>
+  <si>
+    <t>1989-06-24</t>
+  </si>
+  <si>
+    <t>710211411504438</t>
+  </si>
+  <si>
+    <t>06f533986e96a4d9</t>
+  </si>
+  <si>
+    <t>416330194714225</t>
+  </si>
+  <si>
+    <t>8515884979</t>
+  </si>
+  <si>
+    <t>Lalita</t>
+  </si>
+  <si>
+    <t>HarpreetMurthy34633@example.net</t>
+  </si>
+  <si>
+    <t>1983-06-29</t>
+  </si>
+  <si>
+    <t>590871371411638</t>
+  </si>
+  <si>
+    <t>5a0f5d36cae1b9dc</t>
+  </si>
+  <si>
+    <t>746924030162218</t>
+  </si>
+  <si>
+    <t>IDEP176357939658P142</t>
+  </si>
+  <si>
+    <t>7626152934</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>GhanshyamGrover51326@example.net</t>
+  </si>
+  <si>
+    <t>1973-02-15</t>
+  </si>
+  <si>
+    <t>593526763578884</t>
+  </si>
+  <si>
+    <t>249df05fc77733bc</t>
+  </si>
+  <si>
+    <t>952383372002525</t>
+  </si>
+  <si>
+    <t>IDEP763158359189QY89</t>
+  </si>
+  <si>
+    <t>9321828582</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>AnilMatthai39993@example.net</t>
+  </si>
+  <si>
+    <t>1992-08-03</t>
+  </si>
+  <si>
+    <t>078389344176528</t>
+  </si>
+  <si>
+    <t>2fec5e43ce332715</t>
+  </si>
+  <si>
+    <t>915847908818683</t>
+  </si>
+  <si>
+    <t>8821484834</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>PeterSahni31568@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-25</t>
+  </si>
+  <si>
+    <t>605119764995442</t>
+  </si>
+  <si>
+    <t>9e3df79267741da9</t>
+  </si>
+  <si>
+    <t>647078401756452</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>59999934705</t>
-  </si>
-  <si>
-    <t>HAGLBD</t>
-  </si>
-  <si>
-    <t>59999196697</t>
-  </si>
-  <si>
-    <t>TTFBAC</t>
-  </si>
-  <si>
-    <t>59999526784</t>
-  </si>
-  <si>
-    <t>QLMSBE</t>
-  </si>
-  <si>
-    <t>59999632660</t>
-  </si>
-  <si>
-    <t>BPTLQP</t>
-  </si>
-  <si>
-    <t>59999308989</t>
-  </si>
-  <si>
-    <t>UISHOQ</t>
-  </si>
-  <si>
-    <t>59999125752</t>
-  </si>
-  <si>
-    <t>EQEHDO</t>
-  </si>
-  <si>
-    <t>59999750475</t>
-  </si>
-  <si>
-    <t>KPNKOK</t>
-  </si>
-  <si>
-    <t>59999667112</t>
-  </si>
-  <si>
-    <t>OOULNB</t>
-  </si>
-  <si>
-    <t>59999913169</t>
-  </si>
-  <si>
-    <t>HBTIUG</t>
-  </si>
-  <si>
-    <t>59999510840</t>
-  </si>
-  <si>
-    <t>OMJLDU</t>
-  </si>
-  <si>
-    <t>7677950360</t>
-  </si>
-  <si>
-    <t>Parminder</t>
-  </si>
-  <si>
-    <t>AmritNayak51563@example.net</t>
-  </si>
-  <si>
-    <t>1992-06-18</t>
-  </si>
-  <si>
-    <t>035578414263818</t>
-  </si>
-  <si>
-    <t>700d482e42f8e49b</t>
-  </si>
-  <si>
-    <t>102561058362128</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>59999279103</t>
-  </si>
-  <si>
-    <t>EHKKIJ</t>
-  </si>
-  <si>
-    <t>BNPL2671971448153827</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6139982301</t>
-  </si>
-  <si>
-    <t>Jasmin</t>
-  </si>
-  <si>
-    <t>ZeeshanBehl87876@example.net</t>
-  </si>
-  <si>
-    <t>1980-09-23</t>
-  </si>
-  <si>
-    <t>227061456324317</t>
-  </si>
-  <si>
-    <t>1d8b4b54f7d95c1f</t>
-  </si>
-  <si>
-    <t>771648793816581</t>
-  </si>
-  <si>
-    <t>335577016139982301</t>
-  </si>
-  <si>
-    <t>ICIC84931021950</t>
-  </si>
-  <si>
-    <t>9464689691</t>
-  </si>
-  <si>
-    <t>Ragini</t>
-  </si>
-  <si>
-    <t>ZahirMinhas90521@example.net</t>
-  </si>
-  <si>
-    <t>1990-06-14</t>
-  </si>
-  <si>
-    <t>062296607416582</t>
-  </si>
-  <si>
-    <t>1c80ac4bba192958</t>
-  </si>
-  <si>
-    <t>303348452199190</t>
-  </si>
-  <si>
-    <t>335577019464689691</t>
-  </si>
-  <si>
-    <t>ICIC98167413309</t>
-  </si>
-  <si>
-    <t>7191490974</t>
-  </si>
-  <si>
-    <t>Urmi</t>
-  </si>
-  <si>
-    <t>FaisalDash90405@example.net</t>
-  </si>
-  <si>
-    <t>1974-08-01</t>
-  </si>
-  <si>
-    <t>792400658813674</t>
-  </si>
-  <si>
-    <t>cbe88c3b60038c87</t>
-  </si>
-  <si>
-    <t>759953455339948</t>
-  </si>
-  <si>
-    <t>IDEP716381321848N3AX</t>
-  </si>
-  <si>
-    <t>4215972.0</t>
-  </si>
-  <si>
-    <t>8159695029</t>
-  </si>
-  <si>
-    <t>Mukti</t>
-  </si>
-  <si>
-    <t>YashChandran44392@example.net</t>
-  </si>
-  <si>
-    <t>1990-04-15</t>
-  </si>
-  <si>
-    <t>971680379495850</t>
-  </si>
-  <si>
-    <t>def531d81735121c</t>
-  </si>
-  <si>
-    <t>073849454881790</t>
-  </si>
-  <si>
-    <t>IDEP731682612984BMCZ</t>
-  </si>
-  <si>
-    <t>4215981.0</t>
+    <t>196</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>59999819477</t>
+  </si>
+  <si>
+    <t>SOCJTL</t>
+  </si>
+  <si>
+    <t>BNPL3761588252239736</t>
+  </si>
+  <si>
+    <t>59999274824</t>
+  </si>
+  <si>
+    <t>ALKLNU</t>
+  </si>
+  <si>
+    <t>59999215890</t>
+  </si>
+  <si>
+    <t>PDQEFN</t>
+  </si>
+  <si>
+    <t>59999229424</t>
+  </si>
+  <si>
+    <t>KTCSCU</t>
+  </si>
+  <si>
+    <t>59999334902</t>
+  </si>
+  <si>
+    <t>FEDCCL</t>
+  </si>
+  <si>
+    <t>59999909935</t>
+  </si>
+  <si>
+    <t>ARAARL</t>
+  </si>
+  <si>
+    <t>59999957994</t>
+  </si>
+  <si>
+    <t>TTJGCR</t>
+  </si>
+  <si>
+    <t>59999325980</t>
+  </si>
+  <si>
+    <t>RHLKJS</t>
+  </si>
+  <si>
+    <t>59999477626</t>
+  </si>
+  <si>
+    <t>MFTQSQ</t>
+  </si>
+  <si>
+    <t>59999006891</t>
+  </si>
+  <si>
+    <t>SDFCCF</t>
+  </si>
+  <si>
+    <t>335577018821484834</t>
+  </si>
+  <si>
+    <t>ICIC91102595896</t>
+  </si>
+  <si>
+    <t>ICIC85902025841</t>
+  </si>
+  <si>
+    <t>6898902605</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>NavalNair84464@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-02</t>
+  </si>
+  <si>
+    <t>287521755108619</t>
+  </si>
+  <si>
+    <t>bf60ad0a44c8921a</t>
+  </si>
+  <si>
+    <t>882594591137604</t>
+  </si>
+  <si>
+    <t>IDEP361759179516EIX7</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>151</t>
   </si>
   <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>59999300605</t>
-  </si>
-  <si>
-    <t>GPSENE</t>
-  </si>
-  <si>
-    <t>BNPL1673831676599126</t>
-  </si>
-  <si>
-    <t>59999683888</t>
-  </si>
-  <si>
-    <t>QLESBU</t>
-  </si>
-  <si>
-    <t>59999997795</t>
-  </si>
-  <si>
-    <t>ILUTEF</t>
-  </si>
-  <si>
-    <t>59999871565</t>
-  </si>
-  <si>
-    <t>RETFGK</t>
-  </si>
-  <si>
-    <t>59999461875</t>
-  </si>
-  <si>
-    <t>ARQAMA</t>
-  </si>
-  <si>
-    <t>59999490314</t>
-  </si>
-  <si>
-    <t>UBKSAH</t>
-  </si>
-  <si>
-    <t>59999752634</t>
-  </si>
-  <si>
-    <t>OPGDIE</t>
-  </si>
-  <si>
-    <t>59999684845</t>
-  </si>
-  <si>
-    <t>IDEJRE</t>
-  </si>
-  <si>
-    <t>59999013823</t>
-  </si>
-  <si>
-    <t>OGFEGR</t>
-  </si>
-  <si>
-    <t>59999752761</t>
-  </si>
-  <si>
-    <t>EUJRSE</t>
-  </si>
-  <si>
-    <t>198.0</t>
-  </si>
-  <si>
-    <t>6175047642</t>
-  </si>
-  <si>
-    <t>Preshita</t>
-  </si>
-  <si>
-    <t>RickyDin93367@example.net</t>
-  </si>
-  <si>
-    <t>1984-08-10</t>
-  </si>
-  <si>
-    <t>348723657101414</t>
-  </si>
-  <si>
-    <t>c11dc8425d6d91e2</t>
-  </si>
-  <si>
-    <t>679614482679998</t>
-  </si>
-  <si>
-    <t>335577016175047642</t>
-  </si>
-  <si>
-    <t>ICIC90321131249</t>
-  </si>
-  <si>
-    <t>9788664189</t>
-  </si>
-  <si>
-    <t>Ankita</t>
-  </si>
-  <si>
-    <t>ChitranjanMahadeo90086@example.net</t>
-  </si>
-  <si>
-    <t>1978-02-19</t>
-  </si>
-  <si>
-    <t>765799541590438</t>
-  </si>
-  <si>
-    <t>90c200f782b3b603</t>
-  </si>
-  <si>
-    <t>581437245318002</t>
-  </si>
-  <si>
-    <t>335577019788664189</t>
-  </si>
-  <si>
-    <t>ICIC86239376071</t>
-  </si>
-  <si>
-    <t>6645774637</t>
-  </si>
-  <si>
-    <t>Nishi</t>
-  </si>
-  <si>
-    <t>AnimeshSwamy18399@example.net</t>
-  </si>
-  <si>
-    <t>1973-08-19</t>
-  </si>
-  <si>
-    <t>677042423830003</t>
-  </si>
-  <si>
-    <t>ff3040d08b7f2c0a</t>
-  </si>
-  <si>
-    <t>957842831375488</t>
-  </si>
-  <si>
-    <t>IDEP763185428845KHDY</t>
-  </si>
-  <si>
-    <t>4216008.0</t>
+    <t>139</t>
   </si>
   <si>
     <t>150</t>
   </si>
   <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>59999240936</t>
-  </si>
-  <si>
-    <t>JGBONK</t>
-  </si>
-  <si>
-    <t>BNPL7613868149657234</t>
-  </si>
-  <si>
-    <t>59999861429</t>
-  </si>
-  <si>
-    <t>KMSCCS</t>
-  </si>
-  <si>
-    <t>59999676267</t>
-  </si>
-  <si>
-    <t>OSOOMT</t>
-  </si>
-  <si>
-    <t>59999680841</t>
-  </si>
-  <si>
-    <t>CNBESU</t>
-  </si>
-  <si>
-    <t>59999640622</t>
-  </si>
-  <si>
-    <t>MCMPNS</t>
-  </si>
-  <si>
-    <t>59999156584</t>
-  </si>
-  <si>
-    <t>OURBGN</t>
-  </si>
-  <si>
-    <t>59999481658</t>
-  </si>
-  <si>
-    <t>MJOSFB</t>
-  </si>
-  <si>
-    <t>59999961180</t>
-  </si>
-  <si>
-    <t>SLKCGU</t>
-  </si>
-  <si>
-    <t>59999548863</t>
-  </si>
-  <si>
-    <t>KAFQPK</t>
-  </si>
-  <si>
-    <t>59999485578</t>
-  </si>
-  <si>
-    <t>SLILMS</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>7948028394</t>
-  </si>
-  <si>
-    <t>FardeenAggarwal16846@example.net</t>
-  </si>
-  <si>
-    <t>1995-04-09</t>
-  </si>
-  <si>
-    <t>747045305034913</t>
-  </si>
-  <si>
-    <t>bff4c71756967649</t>
-  </si>
-  <si>
-    <t>661878043748036</t>
-  </si>
-  <si>
-    <t>335577017948028394</t>
-  </si>
-  <si>
-    <t>ICIC85935830408</t>
-  </si>
-  <si>
-    <t>9181886074</t>
-  </si>
-  <si>
-    <t>Alaknanda</t>
-  </si>
-  <si>
-    <t>ParveenBajwa52617@example.net</t>
-  </si>
-  <si>
-    <t>1995-10-13</t>
-  </si>
-  <si>
-    <t>520478354998642</t>
-  </si>
-  <si>
-    <t>95a9df89c953d0f2</t>
-  </si>
-  <si>
-    <t>785909881962602</t>
-  </si>
-  <si>
-    <t>335577019181886074</t>
-  </si>
-  <si>
-    <t>ICIC85587462455</t>
-  </si>
-  <si>
-    <t>9927480018</t>
-  </si>
-  <si>
-    <t>Jagruti</t>
-  </si>
-  <si>
-    <t>UmarKibe92067@example.net</t>
-  </si>
-  <si>
-    <t>1990-09-04</t>
-  </si>
-  <si>
-    <t>910509661707850</t>
-  </si>
-  <si>
-    <t>c3f7d00052d833df</t>
-  </si>
-  <si>
-    <t>030308224102229</t>
-  </si>
-  <si>
-    <t>IDEP163744432144N9WK</t>
-  </si>
-  <si>
-    <t>6636072322</t>
-  </si>
-  <si>
-    <t>Richa</t>
-  </si>
-  <si>
-    <t>PrasoonShah23727@example.net</t>
-  </si>
-  <si>
-    <t>1978-09-13</t>
-  </si>
-  <si>
-    <t>931576343083245</t>
-  </si>
-  <si>
-    <t>06a93decebc1951f</t>
-  </si>
-  <si>
-    <t>080541841950625</t>
-  </si>
-  <si>
-    <t>IDEP1376444698366QRL</t>
-  </si>
-  <si>
-    <t>4216154.0</t>
-  </si>
-  <si>
-    <t>4216156.0</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>59999708370</t>
-  </si>
-  <si>
-    <t>LUQLRL</t>
-  </si>
-  <si>
-    <t>BNPL7631447981842453</t>
-  </si>
-  <si>
-    <t>172.0</t>
-  </si>
-  <si>
-    <t>9407538930</t>
-  </si>
-  <si>
-    <t>Hina</t>
-  </si>
-  <si>
-    <t>AniruddhDara32445@example.net</t>
-  </si>
-  <si>
-    <t>1973-05-04</t>
-  </si>
-  <si>
-    <t>250725621919736</t>
-  </si>
-  <si>
-    <t>dc4ebdd16421d0d3</t>
-  </si>
-  <si>
-    <t>126770960196258</t>
-  </si>
-  <si>
-    <t>335577019407538930</t>
-  </si>
-  <si>
-    <t>ICIC83694600934</t>
-  </si>
-  <si>
-    <t>9150009609</t>
-  </si>
-  <si>
-    <t>Usha</t>
-  </si>
-  <si>
-    <t>HarpreetOm34957@example.net</t>
-  </si>
-  <si>
-    <t>1989-09-15</t>
-  </si>
-  <si>
-    <t>590019988844433</t>
-  </si>
-  <si>
-    <t>05d82ac9091a4fac</t>
-  </si>
-  <si>
-    <t>901154709237536</t>
-  </si>
-  <si>
-    <t>335577019150009609</t>
-  </si>
-  <si>
-    <t>ICIC82535475059</t>
-  </si>
-  <si>
-    <t>8556056800</t>
-  </si>
-  <si>
-    <t>Payal</t>
-  </si>
-  <si>
-    <t>BrockMital68409@example.net</t>
-  </si>
-  <si>
-    <t>1976-06-29</t>
-  </si>
-  <si>
-    <t>333702585579120</t>
-  </si>
-  <si>
-    <t>03618b50eb8c4447</t>
-  </si>
-  <si>
-    <t>158314167143135</t>
-  </si>
-  <si>
-    <t>IDEP763145814613C234</t>
-  </si>
-  <si>
-    <t>4216157.0</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>59999534685</t>
-  </si>
-  <si>
-    <t>DBPBLO</t>
-  </si>
-  <si>
-    <t>9432810375</t>
-  </si>
-  <si>
-    <t>Trishana</t>
-  </si>
-  <si>
-    <t>AjeetPalla31224@example.net</t>
-  </si>
-  <si>
-    <t>1991-11-27</t>
-  </si>
-  <si>
-    <t>629933456594558</t>
-  </si>
-  <si>
-    <t>f7aa10c19698efb1</t>
-  </si>
-  <si>
-    <t>178526844849612</t>
-  </si>
-  <si>
-    <t>IDEP736146897272PYUS</t>
-  </si>
-  <si>
-    <t>4216167.0</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>59999794495</t>
-  </si>
-  <si>
-    <t>NULENE</t>
-  </si>
-  <si>
-    <t>BNPL1367464812659816</t>
-  </si>
-  <si>
-    <t>193.0</t>
-  </si>
-  <si>
-    <t>6468115617</t>
-  </si>
-  <si>
-    <t>Damini</t>
-  </si>
-  <si>
-    <t>HariPadmanabhan45420@example.net</t>
-  </si>
-  <si>
-    <t>1981-08-07</t>
-  </si>
-  <si>
-    <t>708652927626633</t>
-  </si>
-  <si>
-    <t>e4f46df0f52bbae6</t>
-  </si>
-  <si>
-    <t>746315569577431</t>
-  </si>
-  <si>
-    <t>335577016468115617</t>
-  </si>
-  <si>
-    <t>ICIC89343947686</t>
-  </si>
-  <si>
-    <t>9402616802</t>
-  </si>
-  <si>
-    <t>Kajal</t>
-  </si>
-  <si>
-    <t>IqbalBalasubramanian44500@example.net</t>
-  </si>
-  <si>
-    <t>1983-12-24</t>
-  </si>
-  <si>
-    <t>098034672725886</t>
-  </si>
-  <si>
-    <t>7baab1c6f5e09577</t>
-  </si>
-  <si>
-    <t>145512804717692</t>
-  </si>
-  <si>
-    <t>335577019402616802</t>
-  </si>
-  <si>
-    <t>ICIC81917583840</t>
-  </si>
-  <si>
-    <t>8206284204</t>
-  </si>
-  <si>
-    <t>Drishti</t>
-  </si>
-  <si>
-    <t>RahimGandhi89771@example.net</t>
-  </si>
-  <si>
-    <t>1970-06-28</t>
-  </si>
-  <si>
-    <t>310474539619090</t>
-  </si>
-  <si>
-    <t>01dbe0f1e4584054</t>
-  </si>
-  <si>
-    <t>701428097481068</t>
-  </si>
-  <si>
-    <t>IDEP713653358884VXAO</t>
-  </si>
-  <si>
-    <t>4216862.0</t>
-  </si>
-  <si>
-    <t>59999867399</t>
-  </si>
-  <si>
-    <t>ADDPLC</t>
-  </si>
-  <si>
-    <t>BNPL7361536788719856</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>6904792005</t>
-  </si>
-  <si>
-    <t>Runjhun</t>
-  </si>
-  <si>
-    <t>UdayPurohit60456@example.net</t>
-  </si>
-  <si>
-    <t>1992-04-09</t>
-  </si>
-  <si>
-    <t>946634111110659</t>
-  </si>
-  <si>
-    <t>9b5b2ad1a284d222</t>
-  </si>
-  <si>
-    <t>569686195214217</t>
-  </si>
-  <si>
-    <t>335577016904792005</t>
-  </si>
-  <si>
-    <t>ICIC94550044676</t>
-  </si>
-  <si>
-    <t>7300540867</t>
-  </si>
-  <si>
-    <t>Urvashi</t>
-  </si>
-  <si>
-    <t>NatwarChad32900@example.net</t>
-  </si>
-  <si>
-    <t>1993-07-27</t>
-  </si>
-  <si>
-    <t>753727623843932</t>
-  </si>
-  <si>
-    <t>f8e929be670b5788</t>
-  </si>
-  <si>
-    <t>060049254369212</t>
-  </si>
-  <si>
-    <t>335577017300540867</t>
-  </si>
-  <si>
-    <t>ICIC85678881786</t>
-  </si>
-  <si>
-    <t>8031802337</t>
-  </si>
-  <si>
-    <t>Tulsi</t>
-  </si>
-  <si>
-    <t>SaurabhRamroop13748@example.net</t>
-  </si>
-  <si>
-    <t>1990-07-29</t>
-  </si>
-  <si>
-    <t>961791359130086</t>
-  </si>
-  <si>
-    <t>32881fde44f30129</t>
-  </si>
-  <si>
-    <t>127040251497560</t>
-  </si>
-  <si>
-    <t>IDEP361714431881ESWO</t>
-  </si>
-  <si>
-    <t>4217084.0</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>59999921249</t>
-  </si>
-  <si>
-    <t>RTBHFH</t>
-  </si>
-  <si>
-    <t>BNPL3617147585582843</t>
-  </si>
-  <si>
-    <t>151.0</t>
-  </si>
-  <si>
-    <t>9598958723</t>
-  </si>
-  <si>
-    <t>Akhila</t>
-  </si>
-  <si>
-    <t>AayushmanNagy55024@example.net</t>
-  </si>
-  <si>
-    <t>1976-07-07</t>
-  </si>
-  <si>
-    <t>462860594387175</t>
-  </si>
-  <si>
-    <t>34a272dfbfa46e0a</t>
-  </si>
-  <si>
-    <t>384236886963822</t>
-  </si>
-  <si>
-    <t>335577019598958723</t>
-  </si>
-  <si>
-    <t>ICIC80735647706</t>
-  </si>
-  <si>
-    <t>6219411694</t>
-  </si>
-  <si>
-    <t>Binita</t>
-  </si>
-  <si>
-    <t>DarpanBose97061@example.net</t>
-  </si>
-  <si>
-    <t>1980-01-05</t>
-  </si>
-  <si>
-    <t>306024744742967</t>
-  </si>
-  <si>
-    <t>415dc49539a91044</t>
-  </si>
-  <si>
-    <t>459658143264175</t>
-  </si>
-  <si>
-    <t>335577016219411694</t>
-  </si>
-  <si>
-    <t>ICIC95780919500</t>
+    <t>59999981659</t>
+  </si>
+  <si>
+    <t>KJHRTA</t>
+  </si>
+  <si>
+    <t>BNPL6173593568877216</t>
+  </si>
+  <si>
+    <t>59999719255</t>
+  </si>
+  <si>
+    <t>NCQDPT</t>
+  </si>
+  <si>
+    <t>59999624990</t>
+  </si>
+  <si>
+    <t>ERUCSR</t>
+  </si>
+  <si>
+    <t>59999339518</t>
+  </si>
+  <si>
+    <t>PEUSRF</t>
+  </si>
+  <si>
+    <t>59999073364</t>
+  </si>
+  <si>
+    <t>JGBEPS</t>
+  </si>
+  <si>
+    <t>59999607673</t>
+  </si>
+  <si>
+    <t>EDIUAD</t>
+  </si>
+  <si>
+    <t>59999485109</t>
+  </si>
+  <si>
+    <t>LOBBFK</t>
+  </si>
+  <si>
+    <t>59999018616</t>
+  </si>
+  <si>
+    <t>PBIFEN</t>
+  </si>
+  <si>
+    <t>59999824775</t>
+  </si>
+  <si>
+    <t>IDFMBC</t>
+  </si>
+  <si>
+    <t>59999602792</t>
+  </si>
+  <si>
+    <t>UDRFAH</t>
+  </si>
+  <si>
+    <t>335577016898902605</t>
+  </si>
+  <si>
+    <t>ICIC88757567767</t>
+  </si>
+  <si>
+    <t>ICIC80046706751</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2023,15 +1312,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2362,21 +1647,21 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>599</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>989324</v>
@@ -2384,10 +1669,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>913749014423</v>
@@ -2395,32 +1680,32 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>9892189981</v>
@@ -2456,54 +1741,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>587</v>
+        <v>367</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2512,30 +1797,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2">
         <v>19.494599999999998</v>
@@ -2544,30 +1829,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" t="s">
         <v>137</v>
       </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
-      </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="2">
         <v>19.494599999999998</v>
@@ -2576,30 +1861,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" t="s">
         <v>138</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
       </c>
       <c r="H5" s="2">
         <v>19.494599999999998</v>
@@ -2608,30 +1893,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
         <v>137</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
       </c>
       <c r="H6" s="2">
         <v>19.494599999999998</v>
@@ -2640,30 +1925,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="2">
         <v>19.494599999999998</v>
@@ -2672,30 +1957,30 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
       </c>
       <c r="H8" s="2">
         <v>19.494599999999998</v>
@@ -2704,103 +1989,103 @@
         <v>72.860399999999998</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="I9" s="2">
         <v>72.860399999999998</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
         <v>137</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
         <v>138</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" t="s">
-        <v>140</v>
       </c>
       <c r="H10" s="2">
         <v>19.494599999999998</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
         <v>137</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" t="s">
-        <v>140</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2828,22 +2113,22 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>154</v>
+      <c r="B1" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2870,16 +2155,16 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>191</v>
+      <c r="B1" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2911,22 +2196,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -2934,19 +2219,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>605</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>603</v>
+        <v>336</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2955,7 +2240,7 @@
         <v>72.877700000000004</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2996,96 +2281,96 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>597</v>
+        <v>368</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="21">
+        <v>44798.630833333336</v>
+      </c>
+      <c r="I2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" t="s">
-        <v>598</v>
-      </c>
-      <c r="H2" s="23">
-        <v>44798.630833333336</v>
-      </c>
-      <c r="I2" t="s">
-        <v>176</v>
-      </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>150.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
       </c>
       <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N2" t="s">
         <v>177</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>178</v>
-      </c>
-      <c r="N2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O2" t="s">
-        <v>180</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -3101,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2E70B-D019-44E2-9FA6-52E79B5BD052}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3124,320 +2409,320 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
       <c r="D2" t="s">
-        <v>600</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>602</v>
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>335</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="16"/>
+      <c r="I2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
+      <c r="I3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
+      <c r="I4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
+      <c r="I5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
+      <c r="I6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
+      <c r="I7" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
+      <c r="I8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
+      <c r="I9" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
+      <c r="I10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3477,384 +2762,384 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>219</v>
+      <c r="I11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3892,384 +3177,384 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>219</v>
+        <v>242</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>219</v>
+        <v>226</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" t="s">
-        <v>235</v>
-      </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>219</v>
+        <v>242</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4311,122 +3596,122 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="G1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="2">
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>606</v>
+        <v>368</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" s="21">
+        <v>44798.630833333336</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H2" s="23">
-        <v>44798.630833333336</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>150.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R2" s="2">
         <v>5881300001186</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="21">
         <v>44756.771122685182</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4437,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4465,148 +3750,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4218265.0</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>4217084.0</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <v>49</v>
       </c>
-      <c r="P2" s="14">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>9892189981</v>
-      </c>
-      <c r="E3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>4217084.0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="14">
-        <v>49</v>
-      </c>
-      <c r="P3" s="14">
+      <c r="P2" s="13">
         <v>1210</v>
       </c>
     </row>
@@ -4618,10 +3853,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BBC0A-5573-4F9C-B1FA-FBD30A0E9E0D}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4652,104 +3887,87 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>888888</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>599</v>
+      <c r="C2" t="s">
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>125111</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>599</v>
+      <c r="C3" t="s">
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>555555</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>599</v>
+      <c r="C4" t="s">
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>599</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>789</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>599</v>
+      <c r="C6" t="s">
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7">
-        <v>888888</v>
-      </c>
-      <c r="C7" s="16">
-        <v>9892189981</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4776,21 +3994,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4819,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -4863,205 +4081,205 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="F2" s="16">
+        <v>72</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="E3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>37</v>
+      <c r="G4" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="16">
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="16">
+        <v>79</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="16">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="14">
         <v>18.939800000000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>37</v>
+      <c r="B8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G9" s="16">
+        <v>83</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="14">
         <v>72.835400000000007</v>
       </c>
     </row>
@@ -5095,143 +4313,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="18">
+        <v>86</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>77</v>
+      <c r="F2" t="s">
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>603</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>89</v>
+        <v>336</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="18">
+        <v>91</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>72.835400000000007</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="18">
+        <v>92</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>72.835400000000007</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>37</v>
+      <c r="F4" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="18">
+        <v>93</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="16">
         <v>18.939800000000002</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>72.835400000000007</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5258,33 +4476,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="13">
+        <v>888888</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="14">
-        <v>888888</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5319,63 +4537,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>104</v>
+        <v>333</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5405,287 +4623,287 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="D2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="20">
+      <c r="H2" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="18">
         <v>224123</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="J4" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="F5" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="20">
+      <c r="H6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="18">
         <v>224123</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="18">
+        <v>224123</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="20">
-        <v>224123</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5715,159 +4933,159 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C2">
         <v>303</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C4">
         <v>645</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C5">
         <v>668</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C6">
         <v>725</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C7">
         <v>800</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>583</v>
+        <v>339</v>
       </c>
       <c r="C8">
         <v>725</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5897,97 +5115,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>37</v>
+        <v>122</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>346</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="21" t="s">
         <v>123</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>121</v>
+      </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C5">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C6">
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="C7">
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="405">
   <si>
     <t>TestCases</t>
   </si>
@@ -1158,6 +1158,108 @@
   </si>
   <si>
     <t>ICIC80046706751</t>
+  </si>
+  <si>
+    <t>9920225449</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>AjeetKaul61900@example.net</t>
+  </si>
+  <si>
+    <t>1975-09-13</t>
+  </si>
+  <si>
+    <t>509382680580527</t>
+  </si>
+  <si>
+    <t>72196916be5a2faf</t>
+  </si>
+  <si>
+    <t>710340398217241</t>
+  </si>
+  <si>
+    <t>IDEP713662243276VQJ8</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>59999949542</t>
+  </si>
+  <si>
+    <t>OMRKUQ</t>
+  </si>
+  <si>
+    <t>59999640947</t>
+  </si>
+  <si>
+    <t>QFQCSM</t>
+  </si>
+  <si>
+    <t>59999693118</t>
+  </si>
+  <si>
+    <t>NPDUNT</t>
+  </si>
+  <si>
+    <t>59999095591</t>
+  </si>
+  <si>
+    <t>TLBIBB</t>
+  </si>
+  <si>
+    <t>59999258470</t>
+  </si>
+  <si>
+    <t>NKQTBP</t>
+  </si>
+  <si>
+    <t>59999165139</t>
+  </si>
+  <si>
+    <t>ICIPLR</t>
+  </si>
+  <si>
+    <t>59999638060</t>
+  </si>
+  <si>
+    <t>MTBGJP</t>
+  </si>
+  <si>
+    <t>59999367067</t>
+  </si>
+  <si>
+    <t>OLNBII</t>
+  </si>
+  <si>
+    <t>59999057344</t>
+  </si>
+  <si>
+    <t>NIHAFQ</t>
+  </si>
+  <si>
+    <t>59999679789</t>
+  </si>
+  <si>
+    <t>QNPJFF</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1755,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1773,22 +1875,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2124,9 +2226,7 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>349</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2222,16 +2322,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2447,13 +2547,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3806,10 +3906,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3821,7 +3921,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3830,10 +3930,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="M2" t="n">
-        <v>4218265.0</v>
+        <v>4218287.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -3893,7 +3993,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3910,7 +4010,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3927,7 +4027,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3944,7 +4044,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -3961,7 +4061,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4113,7 +4213,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4357,7 +4457,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4572,7 +4672,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -4953,7 +5053,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4973,7 +5073,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4993,7 +5093,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5013,7 +5113,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5033,7 +5133,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5053,7 +5153,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5073,7 +5173,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5132,7 +5232,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5146,7 +5246,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="412">
   <si>
     <t>TestCases</t>
   </si>
@@ -1260,6 +1260,27 @@
   </si>
   <si>
     <t>QNPJFF</t>
+  </si>
+  <si>
+    <t>9578899404</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>MohanGoel65307@example.net</t>
+  </si>
+  <si>
+    <t>1989-01-03</t>
+  </si>
+  <si>
+    <t>213609591593091</t>
+  </si>
+  <si>
+    <t>d7155c9135aa90ba</t>
+  </si>
+  <si>
+    <t>628866141588828</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2322,16 +2343,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2547,13 +2568,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="F2" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3906,10 +3927,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3921,7 +3942,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3993,7 +4014,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4010,7 +4031,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4027,7 +4048,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4044,7 +4065,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4061,7 +4082,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4213,7 +4234,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4457,7 +4478,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4672,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="485">
   <si>
     <t>TestCases</t>
   </si>
@@ -1281,6 +1281,225 @@
   </si>
   <si>
     <t>628866141588828</t>
+  </si>
+  <si>
+    <t>8594855886</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>SamirKant21816@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-01</t>
+  </si>
+  <si>
+    <t>150537313205584</t>
+  </si>
+  <si>
+    <t>6cfc45b30eb09767</t>
+  </si>
+  <si>
+    <t>606589509708038</t>
+  </si>
+  <si>
+    <t>IDEP376163285158I46X</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>59999321032</t>
+  </si>
+  <si>
+    <t>DKKJLC</t>
+  </si>
+  <si>
+    <t>BNPL1673634638438357</t>
+  </si>
+  <si>
+    <t>59999568934</t>
+  </si>
+  <si>
+    <t>UMQNEA</t>
+  </si>
+  <si>
+    <t>59999525808</t>
+  </si>
+  <si>
+    <t>KDBUKM</t>
+  </si>
+  <si>
+    <t>59999241300</t>
+  </si>
+  <si>
+    <t>ELBKKU</t>
+  </si>
+  <si>
+    <t>59999483860</t>
+  </si>
+  <si>
+    <t>SUCAEN</t>
+  </si>
+  <si>
+    <t>59999574275</t>
+  </si>
+  <si>
+    <t>NRMLPD</t>
+  </si>
+  <si>
+    <t>59999372856</t>
+  </si>
+  <si>
+    <t>KBOFCS</t>
+  </si>
+  <si>
+    <t>59999307748</t>
+  </si>
+  <si>
+    <t>HALQGQ</t>
+  </si>
+  <si>
+    <t>59999606309</t>
+  </si>
+  <si>
+    <t>MSOFCE</t>
+  </si>
+  <si>
+    <t>59999057338</t>
+  </si>
+  <si>
+    <t>UMLINN</t>
+  </si>
+  <si>
+    <t>335577018594855886</t>
+  </si>
+  <si>
+    <t>ICIC95176776058</t>
+  </si>
+  <si>
+    <t>ICIC83232557035</t>
+  </si>
+  <si>
+    <t>9937611482</t>
+  </si>
+  <si>
+    <t>Babita</t>
+  </si>
+  <si>
+    <t>AatifMutti17733@example.net</t>
+  </si>
+  <si>
+    <t>1994-11-28</t>
+  </si>
+  <si>
+    <t>297750490801398</t>
+  </si>
+  <si>
+    <t>5bbd7233f4655b59</t>
+  </si>
+  <si>
+    <t>559211372521417</t>
+  </si>
+  <si>
+    <t>IDEP716378245858IPS3</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>59999227493</t>
+  </si>
+  <si>
+    <t>UQGEEH</t>
+  </si>
+  <si>
+    <t>BNPL6713784187783146</t>
+  </si>
+  <si>
+    <t>59999149912</t>
+  </si>
+  <si>
+    <t>FLDKTD</t>
+  </si>
+  <si>
+    <t>59999699170</t>
+  </si>
+  <si>
+    <t>HBRCTG</t>
+  </si>
+  <si>
+    <t>59999063183</t>
+  </si>
+  <si>
+    <t>NDKABJ</t>
+  </si>
+  <si>
+    <t>59999528655</t>
+  </si>
+  <si>
+    <t>RRQNCR</t>
+  </si>
+  <si>
+    <t>59999344673</t>
+  </si>
+  <si>
+    <t>BATBNO</t>
+  </si>
+  <si>
+    <t>59999726127</t>
+  </si>
+  <si>
+    <t>IARAGB</t>
+  </si>
+  <si>
+    <t>59999450106</t>
+  </si>
+  <si>
+    <t>IBTQIT</t>
+  </si>
+  <si>
+    <t>59999505776</t>
+  </si>
+  <si>
+    <t>GOPNCF</t>
+  </si>
+  <si>
+    <t>59999191197</t>
+  </si>
+  <si>
+    <t>KBCKRR</t>
+  </si>
+  <si>
+    <t>335577019937611482</t>
+  </si>
+  <si>
+    <t>ICIC95011298680</t>
+  </si>
+  <si>
+    <t>ICIC82409113859</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1896,22 +2115,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2247,7 +2466,9 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>463</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2343,16 +2564,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2455,7 +2676,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2467,7 +2688,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2476,7 +2697,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0</v>
+        <v>196.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2568,13 +2789,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="F2" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3779,7 +4000,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3791,7 +4012,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>370</v>
+        <v>484</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3800,7 +4021,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0</v>
+        <v>196.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3927,10 +4148,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3942,7 +4163,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3951,10 +4172,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="M2" t="n">
-        <v>4218287.0</v>
+        <v>4218413.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4014,7 +4235,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4031,7 +4252,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4048,7 +4269,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4065,7 +4286,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4082,7 +4303,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4234,7 +4455,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4478,7 +4699,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4693,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5074,7 +5295,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5094,7 +5315,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5114,7 +5335,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5134,7 +5355,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5154,7 +5375,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5174,7 +5395,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5194,7 +5415,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>378</v>
+        <v>455</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5253,7 +5474,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5267,7 +5488,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>305</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="560">
   <si>
     <t>TestCases</t>
   </si>
@@ -1500,6 +1500,231 @@
   </si>
   <si>
     <t>ICIC82409113859</t>
+  </si>
+  <si>
+    <t>9877203812</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>SureshMohanty64038@example.net</t>
+  </si>
+  <si>
+    <t>1984-08-29</t>
+  </si>
+  <si>
+    <t>299992116504273</t>
+  </si>
+  <si>
+    <t>26c68613280a54b6</t>
+  </si>
+  <si>
+    <t>733929845901853</t>
+  </si>
+  <si>
+    <t>9511394851</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>JaswantVarughese27868@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-12</t>
+  </si>
+  <si>
+    <t>862592882830964</t>
+  </si>
+  <si>
+    <t>ed247a447708b07c</t>
+  </si>
+  <si>
+    <t>209535211016690</t>
+  </si>
+  <si>
+    <t>IDEP631745195849VS9C</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999925055</t>
+  </si>
+  <si>
+    <t>PBTCLT</t>
+  </si>
+  <si>
+    <t>59999315475</t>
+  </si>
+  <si>
+    <t>TEEGQI</t>
+  </si>
+  <si>
+    <t>59999258897</t>
+  </si>
+  <si>
+    <t>KUGPON</t>
+  </si>
+  <si>
+    <t>59999136663</t>
+  </si>
+  <si>
+    <t>LTSKAP</t>
+  </si>
+  <si>
+    <t>59999109300</t>
+  </si>
+  <si>
+    <t>OCFFFL</t>
+  </si>
+  <si>
+    <t>59999723807</t>
+  </si>
+  <si>
+    <t>OEQNRK</t>
+  </si>
+  <si>
+    <t>59999859483</t>
+  </si>
+  <si>
+    <t>EEKDBF</t>
+  </si>
+  <si>
+    <t>59999184248</t>
+  </si>
+  <si>
+    <t>KSHQTA</t>
+  </si>
+  <si>
+    <t>59999523075</t>
+  </si>
+  <si>
+    <t>MSOOMC</t>
+  </si>
+  <si>
+    <t>59999294882</t>
+  </si>
+  <si>
+    <t>DGGLRF</t>
+  </si>
+  <si>
+    <t>9585036611</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>NavalDeol25396@example.net</t>
+  </si>
+  <si>
+    <t>1986-03-16</t>
+  </si>
+  <si>
+    <t>693610504426402</t>
+  </si>
+  <si>
+    <t>0a0cc8c0c4f75d1d</t>
+  </si>
+  <si>
+    <t>130767671789540</t>
+  </si>
+  <si>
+    <t>IDEP761346878765FIQE</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>59999666370</t>
+  </si>
+  <si>
+    <t>PHPQUQ</t>
+  </si>
+  <si>
+    <t>BNPL3176462544739152</t>
+  </si>
+  <si>
+    <t>59999217907</t>
+  </si>
+  <si>
+    <t>OQJMFM</t>
+  </si>
+  <si>
+    <t>59999537799</t>
+  </si>
+  <si>
+    <t>OQTAQA</t>
+  </si>
+  <si>
+    <t>59999168433</t>
+  </si>
+  <si>
+    <t>BFEFAU</t>
+  </si>
+  <si>
+    <t>59999030608</t>
+  </si>
+  <si>
+    <t>HOEQIF</t>
+  </si>
+  <si>
+    <t>59999706319</t>
+  </si>
+  <si>
+    <t>AUJPCH</t>
+  </si>
+  <si>
+    <t>59999410407</t>
+  </si>
+  <si>
+    <t>PFHIMK</t>
+  </si>
+  <si>
+    <t>59999784685</t>
+  </si>
+  <si>
+    <t>FIAUBF</t>
+  </si>
+  <si>
+    <t>59999372718</t>
+  </si>
+  <si>
+    <t>LGUALF</t>
+  </si>
+  <si>
+    <t>59999544365</t>
+  </si>
+  <si>
+    <t>STCQNF</t>
+  </si>
+  <si>
+    <t>335577019585036611</t>
+  </si>
+  <si>
+    <t>ICIC97713556799</t>
+  </si>
+  <si>
+    <t>ICIC80239478154</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2115,22 +2340,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2467,7 +2692,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -2564,16 +2789,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="C2" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2676,7 +2901,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2688,7 +2913,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2697,7 +2922,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>196.0</v>
+        <v>141.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2789,13 +3014,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>528</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4000,7 +4225,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4012,7 +4237,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4021,7 +4246,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>196.0</v>
+        <v>141.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4148,10 +4373,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>527</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4163,7 +4388,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4172,10 +4397,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="M2" t="n">
-        <v>4218413.0</v>
+        <v>4219113.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4235,7 +4460,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4252,7 +4477,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4269,7 +4494,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4286,7 +4511,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4303,7 +4528,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4455,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4699,7 +4924,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4914,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5295,7 +5520,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5315,7 +5540,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5335,7 +5560,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5355,7 +5580,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5375,7 +5600,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5395,7 +5620,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5415,7 +5640,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5474,7 +5699,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>535</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5488,7 +5713,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>535</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="456">
   <si>
     <t>TestCases</t>
   </si>
@@ -1160,571 +1160,259 @@
     <t>ICIC80046706751</t>
   </si>
   <si>
-    <t>9920225449</t>
-  </si>
-  <si>
-    <t>Anjana</t>
-  </si>
-  <si>
-    <t>AjeetKaul61900@example.net</t>
-  </si>
-  <si>
-    <t>1975-09-13</t>
-  </si>
-  <si>
-    <t>509382680580527</t>
-  </si>
-  <si>
-    <t>72196916be5a2faf</t>
-  </si>
-  <si>
-    <t>710340398217241</t>
-  </si>
-  <si>
-    <t>IDEP713662243276VQJ8</t>
+    <t>9999792859</t>
+  </si>
+  <si>
+    <t>Bhaagyasree</t>
+  </si>
+  <si>
+    <t>SatishwarMalhotra63869@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-22</t>
+  </si>
+  <si>
+    <t>910526433457234</t>
+  </si>
+  <si>
+    <t>b97d7af6fe9993f2</t>
+  </si>
+  <si>
+    <t>942981052821669</t>
+  </si>
+  <si>
+    <t>IDEP631753981881N1WA</t>
+  </si>
+  <si>
+    <t>9707421538</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>RupeshDass35751@example.net</t>
+  </si>
+  <si>
+    <t>1973-02-06</t>
+  </si>
+  <si>
+    <t>324000207740480</t>
+  </si>
+  <si>
+    <t>b832d7c1eb5827a7</t>
+  </si>
+  <si>
+    <t>407536044071514</t>
+  </si>
+  <si>
+    <t>IDEP36715489148286VB</t>
   </si>
   <si>
     <t>154</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>59999949542</t>
-  </si>
-  <si>
-    <t>OMRKUQ</t>
-  </si>
-  <si>
-    <t>59999640947</t>
-  </si>
-  <si>
-    <t>QFQCSM</t>
-  </si>
-  <si>
-    <t>59999693118</t>
-  </si>
-  <si>
-    <t>NPDUNT</t>
-  </si>
-  <si>
-    <t>59999095591</t>
-  </si>
-  <si>
-    <t>TLBIBB</t>
-  </si>
-  <si>
-    <t>59999258470</t>
-  </si>
-  <si>
-    <t>NKQTBP</t>
-  </si>
-  <si>
-    <t>59999165139</t>
-  </si>
-  <si>
-    <t>ICIPLR</t>
-  </si>
-  <si>
-    <t>59999638060</t>
-  </si>
-  <si>
-    <t>MTBGJP</t>
-  </si>
-  <si>
-    <t>59999367067</t>
-  </si>
-  <si>
-    <t>OLNBII</t>
-  </si>
-  <si>
-    <t>59999057344</t>
-  </si>
-  <si>
-    <t>NIHAFQ</t>
-  </si>
-  <si>
-    <t>59999679789</t>
-  </si>
-  <si>
-    <t>QNPJFF</t>
-  </si>
-  <si>
-    <t>9578899404</t>
-  </si>
-  <si>
-    <t>Neela</t>
-  </si>
-  <si>
-    <t>MohanGoel65307@example.net</t>
-  </si>
-  <si>
-    <t>1989-01-03</t>
-  </si>
-  <si>
-    <t>213609591593091</t>
-  </si>
-  <si>
-    <t>d7155c9135aa90ba</t>
-  </si>
-  <si>
-    <t>628866141588828</t>
-  </si>
-  <si>
-    <t>8594855886</t>
-  </si>
-  <si>
-    <t>Bhanupriya</t>
-  </si>
-  <si>
-    <t>SamirKant21816@example.net</t>
-  </si>
-  <si>
-    <t>1995-04-01</t>
-  </si>
-  <si>
-    <t>150537313205584</t>
-  </si>
-  <si>
-    <t>6cfc45b30eb09767</t>
-  </si>
-  <si>
-    <t>606589509708038</t>
-  </si>
-  <si>
-    <t>IDEP376163285158I46X</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>59999321032</t>
-  </si>
-  <si>
-    <t>DKKJLC</t>
-  </si>
-  <si>
-    <t>BNPL1673634638438357</t>
-  </si>
-  <si>
-    <t>59999568934</t>
-  </si>
-  <si>
-    <t>UMQNEA</t>
-  </si>
-  <si>
-    <t>59999525808</t>
-  </si>
-  <si>
-    <t>KDBUKM</t>
-  </si>
-  <si>
-    <t>59999241300</t>
-  </si>
-  <si>
-    <t>ELBKKU</t>
-  </si>
-  <si>
-    <t>59999483860</t>
-  </si>
-  <si>
-    <t>SUCAEN</t>
-  </si>
-  <si>
-    <t>59999574275</t>
-  </si>
-  <si>
-    <t>NRMLPD</t>
-  </si>
-  <si>
-    <t>59999372856</t>
-  </si>
-  <si>
-    <t>KBOFCS</t>
-  </si>
-  <si>
-    <t>59999307748</t>
-  </si>
-  <si>
-    <t>HALQGQ</t>
-  </si>
-  <si>
-    <t>59999606309</t>
-  </si>
-  <si>
-    <t>MSOFCE</t>
-  </si>
-  <si>
-    <t>59999057338</t>
-  </si>
-  <si>
-    <t>UMLINN</t>
-  </si>
-  <si>
-    <t>335577018594855886</t>
-  </si>
-  <si>
-    <t>ICIC95176776058</t>
-  </si>
-  <si>
-    <t>ICIC83232557035</t>
-  </si>
-  <si>
-    <t>9937611482</t>
-  </si>
-  <si>
-    <t>Babita</t>
-  </si>
-  <si>
-    <t>AatifMutti17733@example.net</t>
-  </si>
-  <si>
-    <t>1994-11-28</t>
-  </si>
-  <si>
-    <t>297750490801398</t>
-  </si>
-  <si>
-    <t>5bbd7233f4655b59</t>
-  </si>
-  <si>
-    <t>559211372521417</t>
-  </si>
-  <si>
-    <t>IDEP716378245858IPS3</t>
+    <t>160</t>
+  </si>
+  <si>
+    <t>128</t>
   </si>
   <si>
     <t>146</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>59999227493</t>
-  </si>
-  <si>
-    <t>UQGEEH</t>
-  </si>
-  <si>
-    <t>BNPL6713784187783146</t>
-  </si>
-  <si>
-    <t>59999149912</t>
-  </si>
-  <si>
-    <t>FLDKTD</t>
-  </si>
-  <si>
-    <t>59999699170</t>
-  </si>
-  <si>
-    <t>HBRCTG</t>
-  </si>
-  <si>
-    <t>59999063183</t>
-  </si>
-  <si>
-    <t>NDKABJ</t>
-  </si>
-  <si>
-    <t>59999528655</t>
-  </si>
-  <si>
-    <t>RRQNCR</t>
-  </si>
-  <si>
-    <t>59999344673</t>
-  </si>
-  <si>
-    <t>BATBNO</t>
-  </si>
-  <si>
-    <t>59999726127</t>
-  </si>
-  <si>
-    <t>IARAGB</t>
-  </si>
-  <si>
-    <t>59999450106</t>
-  </si>
-  <si>
-    <t>IBTQIT</t>
-  </si>
-  <si>
-    <t>59999505776</t>
-  </si>
-  <si>
-    <t>GOPNCF</t>
-  </si>
-  <si>
-    <t>59999191197</t>
-  </si>
-  <si>
-    <t>KBCKRR</t>
-  </si>
-  <si>
-    <t>335577019937611482</t>
-  </si>
-  <si>
-    <t>ICIC95011298680</t>
-  </si>
-  <si>
-    <t>ICIC82409113859</t>
-  </si>
-  <si>
-    <t>9877203812</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>SureshMohanty64038@example.net</t>
-  </si>
-  <si>
-    <t>1984-08-29</t>
-  </si>
-  <si>
-    <t>299992116504273</t>
-  </si>
-  <si>
-    <t>26c68613280a54b6</t>
-  </si>
-  <si>
-    <t>733929845901853</t>
-  </si>
-  <si>
-    <t>9511394851</t>
-  </si>
-  <si>
-    <t>Savita</t>
-  </si>
-  <si>
-    <t>JaswantVarughese27868@example.net</t>
-  </si>
-  <si>
-    <t>1992-10-12</t>
-  </si>
-  <si>
-    <t>862592882830964</t>
-  </si>
-  <si>
-    <t>ed247a447708b07c</t>
-  </si>
-  <si>
-    <t>209535211016690</t>
-  </si>
-  <si>
-    <t>IDEP631745195849VS9C</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>138</t>
+    <t>142</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>59999042090</t>
+  </si>
+  <si>
+    <t>GSGKNT</t>
+  </si>
+  <si>
+    <t>BNPL3716551541468573</t>
+  </si>
+  <si>
+    <t>59999668756</t>
+  </si>
+  <si>
+    <t>RUNPCN</t>
+  </si>
+  <si>
+    <t>59999015192</t>
+  </si>
+  <si>
+    <t>UQARSH</t>
+  </si>
+  <si>
+    <t>59999755246</t>
+  </si>
+  <si>
+    <t>QSBIUM</t>
+  </si>
+  <si>
+    <t>59999905912</t>
+  </si>
+  <si>
+    <t>GNRLMK</t>
+  </si>
+  <si>
+    <t>59999338146</t>
+  </si>
+  <si>
+    <t>HPMHTK</t>
+  </si>
+  <si>
+    <t>59999939870</t>
+  </si>
+  <si>
+    <t>KBEOTN</t>
+  </si>
+  <si>
+    <t>59999694014</t>
+  </si>
+  <si>
+    <t>EHGRBM</t>
+  </si>
+  <si>
+    <t>59999577742</t>
+  </si>
+  <si>
+    <t>DILHBB</t>
+  </si>
+  <si>
+    <t>59999564183</t>
+  </si>
+  <si>
+    <t>KASTNK</t>
+  </si>
+  <si>
+    <t>335577019707421538</t>
+  </si>
+  <si>
+    <t>ICIC97593569778</t>
+  </si>
+  <si>
+    <t>ICIC89314710999</t>
+  </si>
+  <si>
+    <t>7332387089</t>
+  </si>
+  <si>
+    <t>Falguni</t>
+  </si>
+  <si>
+    <t>FardeenRamnarine83722@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-22</t>
+  </si>
+  <si>
+    <t>022567092216409</t>
+  </si>
+  <si>
+    <t>410f13f766180c0c</t>
+  </si>
+  <si>
+    <t>768987546349440</t>
+  </si>
+  <si>
+    <t>IDEP136757694264OK9S</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>173</t>
   </si>
   <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999925055</t>
-  </si>
-  <si>
-    <t>PBTCLT</t>
-  </si>
-  <si>
-    <t>59999315475</t>
-  </si>
-  <si>
-    <t>TEEGQI</t>
-  </si>
-  <si>
-    <t>59999258897</t>
-  </si>
-  <si>
-    <t>KUGPON</t>
-  </si>
-  <si>
-    <t>59999136663</t>
-  </si>
-  <si>
-    <t>LTSKAP</t>
-  </si>
-  <si>
-    <t>59999109300</t>
-  </si>
-  <si>
-    <t>OCFFFL</t>
-  </si>
-  <si>
-    <t>59999723807</t>
-  </si>
-  <si>
-    <t>OEQNRK</t>
-  </si>
-  <si>
-    <t>59999859483</t>
-  </si>
-  <si>
-    <t>EEKDBF</t>
-  </si>
-  <si>
-    <t>59999184248</t>
-  </si>
-  <si>
-    <t>KSHQTA</t>
-  </si>
-  <si>
-    <t>59999523075</t>
-  </si>
-  <si>
-    <t>MSOOMC</t>
-  </si>
-  <si>
-    <t>59999294882</t>
-  </si>
-  <si>
-    <t>DGGLRF</t>
-  </si>
-  <si>
-    <t>9585036611</t>
-  </si>
-  <si>
-    <t>Nutan</t>
-  </si>
-  <si>
-    <t>NavalDeol25396@example.net</t>
-  </si>
-  <si>
-    <t>1986-03-16</t>
-  </si>
-  <si>
-    <t>693610504426402</t>
-  </si>
-  <si>
-    <t>0a0cc8c0c4f75d1d</t>
-  </si>
-  <si>
-    <t>130767671789540</t>
-  </si>
-  <si>
-    <t>IDEP761346878765FIQE</t>
-  </si>
-  <si>
-    <t>141</t>
+    <t>193</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>112</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>59999666370</t>
-  </si>
-  <si>
-    <t>PHPQUQ</t>
-  </si>
-  <si>
-    <t>BNPL3176462544739152</t>
-  </si>
-  <si>
-    <t>59999217907</t>
-  </si>
-  <si>
-    <t>OQJMFM</t>
-  </si>
-  <si>
-    <t>59999537799</t>
-  </si>
-  <si>
-    <t>OQTAQA</t>
-  </si>
-  <si>
-    <t>59999168433</t>
-  </si>
-  <si>
-    <t>BFEFAU</t>
-  </si>
-  <si>
-    <t>59999030608</t>
-  </si>
-  <si>
-    <t>HOEQIF</t>
-  </si>
-  <si>
-    <t>59999706319</t>
-  </si>
-  <si>
-    <t>AUJPCH</t>
-  </si>
-  <si>
-    <t>59999410407</t>
-  </si>
-  <si>
-    <t>PFHIMK</t>
-  </si>
-  <si>
-    <t>59999784685</t>
-  </si>
-  <si>
-    <t>FIAUBF</t>
-  </si>
-  <si>
-    <t>59999372718</t>
-  </si>
-  <si>
-    <t>LGUALF</t>
-  </si>
-  <si>
-    <t>59999544365</t>
-  </si>
-  <si>
-    <t>STCQNF</t>
-  </si>
-  <si>
-    <t>335577019585036611</t>
-  </si>
-  <si>
-    <t>ICIC97713556799</t>
-  </si>
-  <si>
-    <t>ICIC80239478154</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999517083</t>
+  </si>
+  <si>
+    <t>JBMNKA</t>
+  </si>
+  <si>
+    <t>BNPL7316578779811427</t>
+  </si>
+  <si>
+    <t>59999146698</t>
+  </si>
+  <si>
+    <t>KKHKCJ</t>
+  </si>
+  <si>
+    <t>59999844323</t>
+  </si>
+  <si>
+    <t>JFHDNI</t>
+  </si>
+  <si>
+    <t>59999225778</t>
+  </si>
+  <si>
+    <t>QOLQJU</t>
+  </si>
+  <si>
+    <t>59999905635</t>
+  </si>
+  <si>
+    <t>NQTQFH</t>
+  </si>
+  <si>
+    <t>59999363907</t>
+  </si>
+  <si>
+    <t>SMIGDF</t>
+  </si>
+  <si>
+    <t>59999311156</t>
+  </si>
+  <si>
+    <t>GQIADB</t>
+  </si>
+  <si>
+    <t>59999752049</t>
+  </si>
+  <si>
+    <t>BRQDFL</t>
+  </si>
+  <si>
+    <t>59999554027</t>
+  </si>
+  <si>
+    <t>SRCOKI</t>
+  </si>
+  <si>
+    <t>59999784943</t>
+  </si>
+  <si>
+    <t>ULQNSC</t>
+  </si>
+  <si>
+    <t>335577017332387089</t>
+  </si>
+  <si>
+    <t>ICIC86555436913</t>
+  </si>
+  <si>
+    <t>ICIC80406761164</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2340,22 +2028,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>555</v>
+        <v>451</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>556</v>
+        <v>452</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2692,7 +2380,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>434</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -2789,16 +2477,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>421</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2901,7 +2589,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>453</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2913,7 +2601,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>558</v>
+        <v>454</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2922,7 +2610,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>141.0</v>
+        <v>124.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3014,13 +2702,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>418</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>419</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>420</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4225,7 +3913,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>453</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4237,7 +3925,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>559</v>
+        <v>455</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4246,7 +3934,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>141.0</v>
+        <v>124.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4373,10 +4061,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4388,7 +4076,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>529</v>
+        <v>421</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4397,10 +4085,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="M2" t="n">
-        <v>4219113.0</v>
+        <v>4219326.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4460,7 +4148,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4477,7 +4165,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4494,7 +4182,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4511,7 +4199,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4528,7 +4216,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4680,7 +4368,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>421</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4924,7 +4612,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>529</v>
+        <v>421</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -5139,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>418</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5520,7 +5208,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5540,7 +5228,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5560,7 +5248,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5580,7 +5268,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5600,7 +5288,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5620,7 +5308,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5640,7 +5328,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5699,7 +5387,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5713,7 +5401,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="559">
   <si>
     <t>TestCases</t>
   </si>
@@ -1413,6 +1413,315 @@
   </si>
   <si>
     <t>ICIC80406761164</t>
+  </si>
+  <si>
+    <t>6683046761</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>YadunandanKothari62561@example.net</t>
+  </si>
+  <si>
+    <t>1983-10-05</t>
+  </si>
+  <si>
+    <t>767357079065014</t>
+  </si>
+  <si>
+    <t>7baeec637127005f</t>
+  </si>
+  <si>
+    <t>092603600594956</t>
+  </si>
+  <si>
+    <t>IDEP674136248383NMED</t>
+  </si>
+  <si>
+    <t>7084617681</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>GaneshDave27687@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-19</t>
+  </si>
+  <si>
+    <t>774384054491511</t>
+  </si>
+  <si>
+    <t>84eaeb8ec1f8f104</t>
+  </si>
+  <si>
+    <t>479417194190391</t>
+  </si>
+  <si>
+    <t>IDEP4176392298128BUO</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>59999309673</t>
+  </si>
+  <si>
+    <t>ULMIPU</t>
+  </si>
+  <si>
+    <t>59999210960</t>
+  </si>
+  <si>
+    <t>AIGLER</t>
+  </si>
+  <si>
+    <t>59999124159</t>
+  </si>
+  <si>
+    <t>JTMODJ</t>
+  </si>
+  <si>
+    <t>59999424323</t>
+  </si>
+  <si>
+    <t>MODCCF</t>
+  </si>
+  <si>
+    <t>59999207736</t>
+  </si>
+  <si>
+    <t>CBULNU</t>
+  </si>
+  <si>
+    <t>59999661780</t>
+  </si>
+  <si>
+    <t>AOQRLJ</t>
+  </si>
+  <si>
+    <t>59999137341</t>
+  </si>
+  <si>
+    <t>ILBIOH</t>
+  </si>
+  <si>
+    <t>59999592334</t>
+  </si>
+  <si>
+    <t>RKUNCO</t>
+  </si>
+  <si>
+    <t>59999092380</t>
+  </si>
+  <si>
+    <t>GLOPQE</t>
+  </si>
+  <si>
+    <t>59999372913</t>
+  </si>
+  <si>
+    <t>TEPGJE</t>
+  </si>
+  <si>
+    <t>7901225054</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>SureshMeka14091@example.net</t>
+  </si>
+  <si>
+    <t>1975-05-25</t>
+  </si>
+  <si>
+    <t>135096379166487</t>
+  </si>
+  <si>
+    <t>a06b31e5db7b000b</t>
+  </si>
+  <si>
+    <t>460532995192866</t>
+  </si>
+  <si>
+    <t>IDEP647148425565VMIQ</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>59999748134</t>
+  </si>
+  <si>
+    <t>EBKAJH</t>
+  </si>
+  <si>
+    <t>59999677446</t>
+  </si>
+  <si>
+    <t>HQRTFS</t>
+  </si>
+  <si>
+    <t>59999845372</t>
+  </si>
+  <si>
+    <t>NCKLTO</t>
+  </si>
+  <si>
+    <t>59999313253</t>
+  </si>
+  <si>
+    <t>AKFKUE</t>
+  </si>
+  <si>
+    <t>59999046257</t>
+  </si>
+  <si>
+    <t>QHODGO</t>
+  </si>
+  <si>
+    <t>59999555225</t>
+  </si>
+  <si>
+    <t>LSEMUE</t>
+  </si>
+  <si>
+    <t>59999820555</t>
+  </si>
+  <si>
+    <t>SCLEHO</t>
+  </si>
+  <si>
+    <t>59999776156</t>
+  </si>
+  <si>
+    <t>LQOSKA</t>
+  </si>
+  <si>
+    <t>59999289337</t>
+  </si>
+  <si>
+    <t>FPOLEC</t>
+  </si>
+  <si>
+    <t>59999137894</t>
+  </si>
+  <si>
+    <t>BBNMFK</t>
+  </si>
+  <si>
+    <t>8442694922</t>
+  </si>
+  <si>
+    <t>Nitika</t>
+  </si>
+  <si>
+    <t>VivekRajan33857@example.net</t>
+  </si>
+  <si>
+    <t>1970-01-11</t>
+  </si>
+  <si>
+    <t>290895296196407</t>
+  </si>
+  <si>
+    <t>ccb54f0ba5fe7491</t>
+  </si>
+  <si>
+    <t>027112560230718</t>
+  </si>
+  <si>
+    <t>IDEP614742379698A4SN</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>59999998893</t>
+  </si>
+  <si>
+    <t>BLMMLT</t>
+  </si>
+  <si>
+    <t>59999051556</t>
+  </si>
+  <si>
+    <t>EPMSLJ</t>
+  </si>
+  <si>
+    <t>59999429053</t>
+  </si>
+  <si>
+    <t>CONBQQ</t>
+  </si>
+  <si>
+    <t>59999545904</t>
+  </si>
+  <si>
+    <t>OQKKSS</t>
+  </si>
+  <si>
+    <t>59999478975</t>
+  </si>
+  <si>
+    <t>KSBIPP</t>
+  </si>
+  <si>
+    <t>59999991147</t>
+  </si>
+  <si>
+    <t>ICUSRS</t>
+  </si>
+  <si>
+    <t>59999783615</t>
+  </si>
+  <si>
+    <t>CDISUJ</t>
+  </si>
+  <si>
+    <t>59999359340</t>
+  </si>
+  <si>
+    <t>QAQARJ</t>
+  </si>
+  <si>
+    <t>59999978709</t>
+  </si>
+  <si>
+    <t>ISGMHU</t>
+  </si>
+  <si>
+    <t>59999187223</t>
+  </si>
+  <si>
+    <t>MJHDER</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +2217,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2028,22 +2337,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>451</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2379,9 +2688,7 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>434</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2477,16 +2784,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2702,13 +3009,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4061,10 +4368,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4076,7 +4383,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4085,10 +4392,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="M2" t="n">
-        <v>4219326.0</v>
+        <v>4219742.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4148,7 +4455,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4165,7 +4472,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4182,7 +4489,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4199,7 +4506,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4216,7 +4523,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4368,7 +4675,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4612,7 +4919,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>533</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4827,7 +5134,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5208,7 +5515,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5228,7 +5535,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5248,7 +5555,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5268,7 +5575,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5288,7 +5595,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5308,7 +5615,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5328,7 +5635,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5387,7 +5694,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5401,7 +5708,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>538</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="705">
   <si>
     <t>TestCases</t>
   </si>
@@ -1722,6 +1722,444 @@
   </si>
   <si>
     <t>MJHDER</t>
+  </si>
+  <si>
+    <t>9369162311</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>PreetChakraborty28746@example.net</t>
+  </si>
+  <si>
+    <t>1987-01-15</t>
+  </si>
+  <si>
+    <t>404054419171730</t>
+  </si>
+  <si>
+    <t>97be56313cbf8ba0</t>
+  </si>
+  <si>
+    <t>847283120782007</t>
+  </si>
+  <si>
+    <t>IDEP4167292394574Q25</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>59999957081</t>
+  </si>
+  <si>
+    <t>TIKMJP</t>
+  </si>
+  <si>
+    <t>59999918974</t>
+  </si>
+  <si>
+    <t>KFQULS</t>
+  </si>
+  <si>
+    <t>59999388658</t>
+  </si>
+  <si>
+    <t>GTDEIU</t>
+  </si>
+  <si>
+    <t>59999791867</t>
+  </si>
+  <si>
+    <t>UFUKIU</t>
+  </si>
+  <si>
+    <t>59999660326</t>
+  </si>
+  <si>
+    <t>ABNDLH</t>
+  </si>
+  <si>
+    <t>59999937364</t>
+  </si>
+  <si>
+    <t>CBMKDO</t>
+  </si>
+  <si>
+    <t>59999486272</t>
+  </si>
+  <si>
+    <t>HFHAGO</t>
+  </si>
+  <si>
+    <t>59999759382</t>
+  </si>
+  <si>
+    <t>IBJDUT</t>
+  </si>
+  <si>
+    <t>59999475910</t>
+  </si>
+  <si>
+    <t>AEHIRC</t>
+  </si>
+  <si>
+    <t>59999414359</t>
+  </si>
+  <si>
+    <t>PGIBBJ</t>
+  </si>
+  <si>
+    <t>9790506320</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>SumitKadakia61420@example.net</t>
+  </si>
+  <si>
+    <t>1981-09-04</t>
+  </si>
+  <si>
+    <t>199231079135002</t>
+  </si>
+  <si>
+    <t>cbe6e7e3e726d0ad</t>
+  </si>
+  <si>
+    <t>060805932194334</t>
+  </si>
+  <si>
+    <t>6950935749</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>AdityaMody60907@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-11</t>
+  </si>
+  <si>
+    <t>205544424435394</t>
+  </si>
+  <si>
+    <t>929988e2fa22112d</t>
+  </si>
+  <si>
+    <t>669119506417450</t>
+  </si>
+  <si>
+    <t>7835022030</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>MohanlalBora23816@example.net</t>
+  </si>
+  <si>
+    <t>1979-12-21</t>
+  </si>
+  <si>
+    <t>157407761215589</t>
+  </si>
+  <si>
+    <t>ee24a2c6d9be8324</t>
+  </si>
+  <si>
+    <t>136860116361621</t>
+  </si>
+  <si>
+    <t>9545939043</t>
+  </si>
+  <si>
+    <t>Farah</t>
+  </si>
+  <si>
+    <t>WafaGoel35967@example.net</t>
+  </si>
+  <si>
+    <t>1980-07-15</t>
+  </si>
+  <si>
+    <t>105990329922401</t>
+  </si>
+  <si>
+    <t>f265e33abc44744b</t>
+  </si>
+  <si>
+    <t>890889534274286</t>
+  </si>
+  <si>
+    <t>IDEP716491965858YTMH</t>
+  </si>
+  <si>
+    <t>6894496965</t>
+  </si>
+  <si>
+    <t>RahimInani43164@example.net</t>
+  </si>
+  <si>
+    <t>1970-04-25</t>
+  </si>
+  <si>
+    <t>248943616011105</t>
+  </si>
+  <si>
+    <t>2b66dca8c9749de4</t>
+  </si>
+  <si>
+    <t>167835952187563</t>
+  </si>
+  <si>
+    <t>IDEP746192833589AQCU</t>
+  </si>
+  <si>
+    <t>6823576266</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>SumitDevan87712@example.net</t>
+  </si>
+  <si>
+    <t>1983-01-27</t>
+  </si>
+  <si>
+    <t>091251336017206</t>
+  </si>
+  <si>
+    <t>c112c1f52e96866d</t>
+  </si>
+  <si>
+    <t>289361334726872</t>
+  </si>
+  <si>
+    <t>IDEP674114218436DMZE</t>
+  </si>
+  <si>
+    <t>7050725736</t>
+  </si>
+  <si>
+    <t>Aarushi</t>
+  </si>
+  <si>
+    <t>UjwalMittal30937@example.net</t>
+  </si>
+  <si>
+    <t>1987-08-24</t>
+  </si>
+  <si>
+    <t>783826054923538</t>
+  </si>
+  <si>
+    <t>b1fc75256c9171d2</t>
+  </si>
+  <si>
+    <t>824566513791305</t>
+  </si>
+  <si>
+    <t>IDEP6174739747883P6M</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>59999902738</t>
+  </si>
+  <si>
+    <t>GINJRU</t>
+  </si>
+  <si>
+    <t>BNPL4167741494721542</t>
+  </si>
+  <si>
+    <t>59999427003</t>
+  </si>
+  <si>
+    <t>NGJDMF</t>
+  </si>
+  <si>
+    <t>59999351443</t>
+  </si>
+  <si>
+    <t>CURHSP</t>
+  </si>
+  <si>
+    <t>59999757483</t>
+  </si>
+  <si>
+    <t>BPNPMN</t>
+  </si>
+  <si>
+    <t>59999789786</t>
+  </si>
+  <si>
+    <t>QRCTLN</t>
+  </si>
+  <si>
+    <t>59999674172</t>
+  </si>
+  <si>
+    <t>QMEMUB</t>
+  </si>
+  <si>
+    <t>59999763932</t>
+  </si>
+  <si>
+    <t>NEGTQP</t>
+  </si>
+  <si>
+    <t>59999575909</t>
+  </si>
+  <si>
+    <t>ULBTFR</t>
+  </si>
+  <si>
+    <t>59999615331</t>
+  </si>
+  <si>
+    <t>UOTSSP</t>
+  </si>
+  <si>
+    <t>59999378500</t>
+  </si>
+  <si>
+    <t>KHLMMG</t>
+  </si>
+  <si>
+    <t>335577017050725736</t>
+  </si>
+  <si>
+    <t>ICIC82231681480</t>
+  </si>
+  <si>
+    <t>ICIC95537745228</t>
+  </si>
+  <si>
+    <t>6084990179</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>ArjunWalla26851@example.net</t>
+  </si>
+  <si>
+    <t>1980-08-04</t>
+  </si>
+  <si>
+    <t>302108427606096</t>
+  </si>
+  <si>
+    <t>e7a3f995313a0d43</t>
+  </si>
+  <si>
+    <t>772117250954045</t>
+  </si>
+  <si>
+    <t>IDEP761475145991BXDE</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>59999541841</t>
+  </si>
+  <si>
+    <t>SCJBGH</t>
+  </si>
+  <si>
+    <t>BNPL7416753239579457</t>
+  </si>
+  <si>
+    <t>59999154431</t>
+  </si>
+  <si>
+    <t>HQOKKM</t>
+  </si>
+  <si>
+    <t>59999347672</t>
+  </si>
+  <si>
+    <t>GUFRKN</t>
+  </si>
+  <si>
+    <t>59999927810</t>
+  </si>
+  <si>
+    <t>CTSHSH</t>
+  </si>
+  <si>
+    <t>59999633078</t>
+  </si>
+  <si>
+    <t>JLRQAI</t>
+  </si>
+  <si>
+    <t>59999880874</t>
+  </si>
+  <si>
+    <t>MSTDAO</t>
+  </si>
+  <si>
+    <t>59999862446</t>
+  </si>
+  <si>
+    <t>MBILMB</t>
+  </si>
+  <si>
+    <t>59999957963</t>
+  </si>
+  <si>
+    <t>JERJBT</t>
+  </si>
+  <si>
+    <t>59999042328</t>
+  </si>
+  <si>
+    <t>UQTBTE</t>
+  </si>
+  <si>
+    <t>59999322847</t>
+  </si>
+  <si>
+    <t>EPEENN</t>
+  </si>
+  <si>
+    <t>335577016084990179</t>
+  </si>
+  <si>
+    <t>ICIC85059039576</t>
+  </si>
+  <si>
+    <t>ICIC84904936906</t>
   </si>
 </sst>
 </file>
@@ -2217,7 +2655,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2337,22 +2775,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>700</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>558</v>
+        <v>701</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2688,7 +3126,9 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>683</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2784,16 +3224,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>674</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2896,7 +3336,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>702</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2908,7 +3348,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>454</v>
+        <v>703</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2917,7 +3357,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>124.0</v>
+        <v>107.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3009,13 +3449,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>670</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>672</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4220,7 +4660,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>702</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4232,7 +4672,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>704</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4241,7 +4681,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>124.0</v>
+        <v>107.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4368,10 +4808,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>671</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4383,7 +4823,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4392,10 +4832,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="M2" t="n">
-        <v>4219742.0</v>
+        <v>4220811.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4455,7 +4895,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4472,7 +4912,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4489,7 +4929,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4506,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4523,7 +4963,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
+        <v>669</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4675,7 +5115,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4919,7 +5359,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>533</v>
+        <v>673</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -5134,7 +5574,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>530</v>
+        <v>670</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5515,7 +5955,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5535,7 +5975,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5555,7 +5995,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5575,7 +6015,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5595,7 +6035,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5615,7 +6055,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5635,7 +6075,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>676</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5694,7 +6134,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5708,7 +6148,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>680</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1109">
   <si>
     <t>TestCases</t>
   </si>
@@ -2160,6 +2160,1218 @@
   </si>
   <si>
     <t>ICIC84904936906</t>
+  </si>
+  <si>
+    <t>9654732977</t>
+  </si>
+  <si>
+    <t>Tejaswani</t>
+  </si>
+  <si>
+    <t>VijayNatarajan65125@example.net</t>
+  </si>
+  <si>
+    <t>1971-10-18</t>
+  </si>
+  <si>
+    <t>962491829542593</t>
+  </si>
+  <si>
+    <t>6b506bbd8ede20ff</t>
+  </si>
+  <si>
+    <t>837642856095888</t>
+  </si>
+  <si>
+    <t>IDEP176468221939P29Q</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999115454</t>
+  </si>
+  <si>
+    <t>LIBDSQ</t>
+  </si>
+  <si>
+    <t>59999987282</t>
+  </si>
+  <si>
+    <t>IHQBTF</t>
+  </si>
+  <si>
+    <t>59999113504</t>
+  </si>
+  <si>
+    <t>MFKMNQ</t>
+  </si>
+  <si>
+    <t>59999138331</t>
+  </si>
+  <si>
+    <t>JDRKKA</t>
+  </si>
+  <si>
+    <t>59999613542</t>
+  </si>
+  <si>
+    <t>JEGSAK</t>
+  </si>
+  <si>
+    <t>59999490100</t>
+  </si>
+  <si>
+    <t>EICGQF</t>
+  </si>
+  <si>
+    <t>59999347424</t>
+  </si>
+  <si>
+    <t>PDSFDI</t>
+  </si>
+  <si>
+    <t>59999934354</t>
+  </si>
+  <si>
+    <t>QEBJIK</t>
+  </si>
+  <si>
+    <t>59999453502</t>
+  </si>
+  <si>
+    <t>DLUHMM</t>
+  </si>
+  <si>
+    <t>59999226949</t>
+  </si>
+  <si>
+    <t>OETSKR</t>
+  </si>
+  <si>
+    <t>8013971321</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>HimanshuBhandari88586@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-05</t>
+  </si>
+  <si>
+    <t>265665031025810</t>
+  </si>
+  <si>
+    <t>1566c93af4253de0</t>
+  </si>
+  <si>
+    <t>865070089959990</t>
+  </si>
+  <si>
+    <t>IDEP6417621663589N48</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999320745</t>
+  </si>
+  <si>
+    <t>RPCRGD</t>
+  </si>
+  <si>
+    <t>BNPL7641623422866492</t>
+  </si>
+  <si>
+    <t>59999770138</t>
+  </si>
+  <si>
+    <t>AORRNT</t>
+  </si>
+  <si>
+    <t>59999352143</t>
+  </si>
+  <si>
+    <t>NOPAIJ</t>
+  </si>
+  <si>
+    <t>59999664123</t>
+  </si>
+  <si>
+    <t>BRPLTU</t>
+  </si>
+  <si>
+    <t>59999053570</t>
+  </si>
+  <si>
+    <t>FOKDKD</t>
+  </si>
+  <si>
+    <t>59999003282</t>
+  </si>
+  <si>
+    <t>EUNIHM</t>
+  </si>
+  <si>
+    <t>59999236624</t>
+  </si>
+  <si>
+    <t>RCPLAP</t>
+  </si>
+  <si>
+    <t>59999980259</t>
+  </si>
+  <si>
+    <t>SOJLKU</t>
+  </si>
+  <si>
+    <t>59999589557</t>
+  </si>
+  <si>
+    <t>QKKTSB</t>
+  </si>
+  <si>
+    <t>59999614470</t>
+  </si>
+  <si>
+    <t>ILPRID</t>
+  </si>
+  <si>
+    <t>335577018013971321</t>
+  </si>
+  <si>
+    <t>ICIC82974174412</t>
+  </si>
+  <si>
+    <t>ICIC83666090801</t>
+  </si>
+  <si>
+    <t>6759427363</t>
+  </si>
+  <si>
+    <t>Binita</t>
+  </si>
+  <si>
+    <t>BholaDevan84099@example.net</t>
+  </si>
+  <si>
+    <t>1992-07-14</t>
+  </si>
+  <si>
+    <t>077900454311720</t>
+  </si>
+  <si>
+    <t>b84ba08a7d81e839</t>
+  </si>
+  <si>
+    <t>160339985451564</t>
+  </si>
+  <si>
+    <t>IDEP176433833221S6EG</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>59999599925</t>
+  </si>
+  <si>
+    <t>JABOJO</t>
+  </si>
+  <si>
+    <t>BNPL7614332486879642</t>
+  </si>
+  <si>
+    <t>59999975147</t>
+  </si>
+  <si>
+    <t>QEARUH</t>
+  </si>
+  <si>
+    <t>59999502048</t>
+  </si>
+  <si>
+    <t>OJHMDB</t>
+  </si>
+  <si>
+    <t>59999754065</t>
+  </si>
+  <si>
+    <t>CGGJQS</t>
+  </si>
+  <si>
+    <t>59999372287</t>
+  </si>
+  <si>
+    <t>LQFCPT</t>
+  </si>
+  <si>
+    <t>59999500763</t>
+  </si>
+  <si>
+    <t>HRLSFS</t>
+  </si>
+  <si>
+    <t>59999609921</t>
+  </si>
+  <si>
+    <t>GJLPFN</t>
+  </si>
+  <si>
+    <t>59999478058</t>
+  </si>
+  <si>
+    <t>TPFHEH</t>
+  </si>
+  <si>
+    <t>59999578560</t>
+  </si>
+  <si>
+    <t>ALOPFR</t>
+  </si>
+  <si>
+    <t>59999180599</t>
+  </si>
+  <si>
+    <t>UMCCCE</t>
+  </si>
+  <si>
+    <t>335577016759427363</t>
+  </si>
+  <si>
+    <t>ICIC92504731192</t>
+  </si>
+  <si>
+    <t>ICIC90447975652</t>
+  </si>
+  <si>
+    <t>6988113671</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>AnandTak38761@example.net</t>
+  </si>
+  <si>
+    <t>1972-03-06</t>
+  </si>
+  <si>
+    <t>490918545758484</t>
+  </si>
+  <si>
+    <t>410576cbb3e83ea8</t>
+  </si>
+  <si>
+    <t>737528569084312</t>
+  </si>
+  <si>
+    <t>IDEP147637888763M7NL</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>59999098818</t>
+  </si>
+  <si>
+    <t>HKGPQN</t>
+  </si>
+  <si>
+    <t>BNPL6147388933595368</t>
+  </si>
+  <si>
+    <t>59999647057</t>
+  </si>
+  <si>
+    <t>AFPQDH</t>
+  </si>
+  <si>
+    <t>59999671054</t>
+  </si>
+  <si>
+    <t>OLUUSG</t>
+  </si>
+  <si>
+    <t>59999514803</t>
+  </si>
+  <si>
+    <t>OBMADT</t>
+  </si>
+  <si>
+    <t>59999939208</t>
+  </si>
+  <si>
+    <t>HLPAFQ</t>
+  </si>
+  <si>
+    <t>59999404532</t>
+  </si>
+  <si>
+    <t>MMTPSL</t>
+  </si>
+  <si>
+    <t>59999328997</t>
+  </si>
+  <si>
+    <t>BTHTUG</t>
+  </si>
+  <si>
+    <t>59999256449</t>
+  </si>
+  <si>
+    <t>INRIHA</t>
+  </si>
+  <si>
+    <t>59999721436</t>
+  </si>
+  <si>
+    <t>KTDBMF</t>
+  </si>
+  <si>
+    <t>59999063494</t>
+  </si>
+  <si>
+    <t>SPMDIP</t>
+  </si>
+  <si>
+    <t>335577016988113671</t>
+  </si>
+  <si>
+    <t>ICIC86189378167</t>
+  </si>
+  <si>
+    <t>ICIC82731588007</t>
+  </si>
+  <si>
+    <t>7023210604</t>
+  </si>
+  <si>
+    <t>Prerna</t>
+  </si>
+  <si>
+    <t>HetanWalla35240@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-30</t>
+  </si>
+  <si>
+    <t>798825746710934</t>
+  </si>
+  <si>
+    <t>a3924c052a898b0a</t>
+  </si>
+  <si>
+    <t>787135419443075</t>
+  </si>
+  <si>
+    <t>IDEP461743485478SY2J</t>
+  </si>
+  <si>
+    <t>7843052765</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>AniruddhDeshpande66271@example.net</t>
+  </si>
+  <si>
+    <t>1983-05-27</t>
+  </si>
+  <si>
+    <t>478595359608256</t>
+  </si>
+  <si>
+    <t>665f7a6362a5d962</t>
+  </si>
+  <si>
+    <t>011259023828782</t>
+  </si>
+  <si>
+    <t>6509404934</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>SaiKannan29880@example.net</t>
+  </si>
+  <si>
+    <t>1991-02-05</t>
+  </si>
+  <si>
+    <t>381081423483634</t>
+  </si>
+  <si>
+    <t>5006040288f26e68</t>
+  </si>
+  <si>
+    <t>632226967178044</t>
+  </si>
+  <si>
+    <t>IDEP671444127884T2GV</t>
+  </si>
+  <si>
+    <t>8915037322</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>ArvindDubey80761@example.net</t>
+  </si>
+  <si>
+    <t>1990-10-16</t>
+  </si>
+  <si>
+    <t>405869335225495</t>
+  </si>
+  <si>
+    <t>84bb330a14295a1b</t>
+  </si>
+  <si>
+    <t>184413198143557</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>59999119014</t>
+  </si>
+  <si>
+    <t>AGSCHR</t>
+  </si>
+  <si>
+    <t>BNPL6714453838642458</t>
+  </si>
+  <si>
+    <t>59999413287</t>
+  </si>
+  <si>
+    <t>HOQGOE</t>
+  </si>
+  <si>
+    <t>59999306105</t>
+  </si>
+  <si>
+    <t>SJJKBM</t>
+  </si>
+  <si>
+    <t>59999630208</t>
+  </si>
+  <si>
+    <t>ITCKOP</t>
+  </si>
+  <si>
+    <t>59999576531</t>
+  </si>
+  <si>
+    <t>CMBHTG</t>
+  </si>
+  <si>
+    <t>59999352785</t>
+  </si>
+  <si>
+    <t>PGTFGP</t>
+  </si>
+  <si>
+    <t>59999234450</t>
+  </si>
+  <si>
+    <t>JEMOUO</t>
+  </si>
+  <si>
+    <t>59999795152</t>
+  </si>
+  <si>
+    <t>DUQFHU</t>
+  </si>
+  <si>
+    <t>59999749972</t>
+  </si>
+  <si>
+    <t>BMNUTO</t>
+  </si>
+  <si>
+    <t>59999862638</t>
+  </si>
+  <si>
+    <t>NJMAQS</t>
+  </si>
+  <si>
+    <t>335577018915037322</t>
+  </si>
+  <si>
+    <t>ICIC83198500931</t>
+  </si>
+  <si>
+    <t>ICIC88782839976</t>
+  </si>
+  <si>
+    <t>7051443803</t>
+  </si>
+  <si>
+    <t>SaiMathur58261@example.net</t>
+  </si>
+  <si>
+    <t>1977-12-07</t>
+  </si>
+  <si>
+    <t>424265736194611</t>
+  </si>
+  <si>
+    <t>fa93d317e8b544f6</t>
+  </si>
+  <si>
+    <t>846154714434829</t>
+  </si>
+  <si>
+    <t>IDEP617448857698TS9P</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>59999878976</t>
+  </si>
+  <si>
+    <t>HIBPNF</t>
+  </si>
+  <si>
+    <t>BNPL7164482388589745</t>
+  </si>
+  <si>
+    <t>59999338966</t>
+  </si>
+  <si>
+    <t>KNTOCG</t>
+  </si>
+  <si>
+    <t>59999132475</t>
+  </si>
+  <si>
+    <t>UMKLTO</t>
+  </si>
+  <si>
+    <t>59999819660</t>
+  </si>
+  <si>
+    <t>NBRADC</t>
+  </si>
+  <si>
+    <t>59999905689</t>
+  </si>
+  <si>
+    <t>GGQTKL</t>
+  </si>
+  <si>
+    <t>59999602397</t>
+  </si>
+  <si>
+    <t>TSFFEU</t>
+  </si>
+  <si>
+    <t>59999762281</t>
+  </si>
+  <si>
+    <t>OBHKOC</t>
+  </si>
+  <si>
+    <t>59999982011</t>
+  </si>
+  <si>
+    <t>SGNMDA</t>
+  </si>
+  <si>
+    <t>59999629401</t>
+  </si>
+  <si>
+    <t>NISGLF</t>
+  </si>
+  <si>
+    <t>59999293839</t>
+  </si>
+  <si>
+    <t>HFECCB</t>
+  </si>
+  <si>
+    <t>335577017051443803</t>
+  </si>
+  <si>
+    <t>ICIC85841552712</t>
+  </si>
+  <si>
+    <t>ICIC96543609110</t>
+  </si>
+  <si>
+    <t>8387346389</t>
+  </si>
+  <si>
+    <t>Runjhun</t>
+  </si>
+  <si>
+    <t>UsmanYogi12453@example.net</t>
+  </si>
+  <si>
+    <t>1989-04-24</t>
+  </si>
+  <si>
+    <t>707372017989954</t>
+  </si>
+  <si>
+    <t>8e72702a8a38d210</t>
+  </si>
+  <si>
+    <t>412365358612132</t>
+  </si>
+  <si>
+    <t>IDEP647158473149D519</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>59999489842</t>
+  </si>
+  <si>
+    <t>QMHHAF</t>
+  </si>
+  <si>
+    <t>BNPL1746586595649132</t>
+  </si>
+  <si>
+    <t>59999654006</t>
+  </si>
+  <si>
+    <t>OBMRCT</t>
+  </si>
+  <si>
+    <t>59999293535</t>
+  </si>
+  <si>
+    <t>FHESNC</t>
+  </si>
+  <si>
+    <t>59999010528</t>
+  </si>
+  <si>
+    <t>GITAJC</t>
+  </si>
+  <si>
+    <t>59999281162</t>
+  </si>
+  <si>
+    <t>TGORHH</t>
+  </si>
+  <si>
+    <t>59999765281</t>
+  </si>
+  <si>
+    <t>ABBUJP</t>
+  </si>
+  <si>
+    <t>59999742319</t>
+  </si>
+  <si>
+    <t>THGHUR</t>
+  </si>
+  <si>
+    <t>59999112077</t>
+  </si>
+  <si>
+    <t>HKDGDL</t>
+  </si>
+  <si>
+    <t>59999851660</t>
+  </si>
+  <si>
+    <t>CMHGOR</t>
+  </si>
+  <si>
+    <t>59999410169</t>
+  </si>
+  <si>
+    <t>AULMAB</t>
+  </si>
+  <si>
+    <t>335577018387346389</t>
+  </si>
+  <si>
+    <t>ICIC89656638170</t>
+  </si>
+  <si>
+    <t>ICIC81632459741</t>
+  </si>
+  <si>
+    <t>7486151894</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>WafaRau41906@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-03</t>
+  </si>
+  <si>
+    <t>035113643203771</t>
+  </si>
+  <si>
+    <t>cbfed5e485a2f3ac</t>
+  </si>
+  <si>
+    <t>674136898283996</t>
+  </si>
+  <si>
+    <t>IDEP147687431888JMIS</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999940779</t>
+  </si>
+  <si>
+    <t>KFOQNQ</t>
+  </si>
+  <si>
+    <t>BNPL7416876381868392</t>
+  </si>
+  <si>
+    <t>59999313904</t>
+  </si>
+  <si>
+    <t>JPMQGG</t>
+  </si>
+  <si>
+    <t>59999944314</t>
+  </si>
+  <si>
+    <t>LDLEOJ</t>
+  </si>
+  <si>
+    <t>59999236144</t>
+  </si>
+  <si>
+    <t>ONIUAU</t>
+  </si>
+  <si>
+    <t>59999402981</t>
+  </si>
+  <si>
+    <t>TDRFKD</t>
+  </si>
+  <si>
+    <t>59999846074</t>
+  </si>
+  <si>
+    <t>BGBFNE</t>
+  </si>
+  <si>
+    <t>59999290292</t>
+  </si>
+  <si>
+    <t>AHGCUT</t>
+  </si>
+  <si>
+    <t>59999204928</t>
+  </si>
+  <si>
+    <t>JKRPLS</t>
+  </si>
+  <si>
+    <t>59999733798</t>
+  </si>
+  <si>
+    <t>TJCTPP</t>
+  </si>
+  <si>
+    <t>59999914618</t>
+  </si>
+  <si>
+    <t>RHRTIP</t>
+  </si>
+  <si>
+    <t>335577017486151894</t>
+  </si>
+  <si>
+    <t>ICIC97691445794</t>
+  </si>
+  <si>
+    <t>ICIC84761964087</t>
+  </si>
+  <si>
+    <t>9013760767</t>
+  </si>
+  <si>
+    <t>LalitBhavsar43933@example.net</t>
+  </si>
+  <si>
+    <t>1985-12-08</t>
+  </si>
+  <si>
+    <t>271750308677741</t>
+  </si>
+  <si>
+    <t>fa7e8b3cb42def4c</t>
+  </si>
+  <si>
+    <t>995662780862417</t>
+  </si>
+  <si>
+    <t>7150217466</t>
+  </si>
+  <si>
+    <t>VikrantSane96887@example.net</t>
+  </si>
+  <si>
+    <t>1989-05-24</t>
+  </si>
+  <si>
+    <t>771503319168712</t>
+  </si>
+  <si>
+    <t>5e60d3651a77554a</t>
+  </si>
+  <si>
+    <t>918926496339307</t>
+  </si>
+  <si>
+    <t>IDEP6471184916879G4N</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>59999357476</t>
+  </si>
+  <si>
+    <t>OENTET</t>
+  </si>
+  <si>
+    <t>BNPL4617187814376231</t>
+  </si>
+  <si>
+    <t>59999805161</t>
+  </si>
+  <si>
+    <t>ELHDCD</t>
+  </si>
+  <si>
+    <t>59999794603</t>
+  </si>
+  <si>
+    <t>BCCSJJ</t>
+  </si>
+  <si>
+    <t>59999799488</t>
+  </si>
+  <si>
+    <t>QNIIOJ</t>
+  </si>
+  <si>
+    <t>59999922962</t>
+  </si>
+  <si>
+    <t>EEJOON</t>
+  </si>
+  <si>
+    <t>59999140198</t>
+  </si>
+  <si>
+    <t>RBMHMU</t>
+  </si>
+  <si>
+    <t>59999178160</t>
+  </si>
+  <si>
+    <t>MBPOMJ</t>
+  </si>
+  <si>
+    <t>59999482316</t>
+  </si>
+  <si>
+    <t>GONPJJ</t>
+  </si>
+  <si>
+    <t>59999189592</t>
+  </si>
+  <si>
+    <t>GRBAEH</t>
+  </si>
+  <si>
+    <t>59999746147</t>
+  </si>
+  <si>
+    <t>CDLJQC</t>
+  </si>
+  <si>
+    <t>335577017150217466</t>
+  </si>
+  <si>
+    <t>ICIC89455459804</t>
+  </si>
+  <si>
+    <t>ICIC80313436119</t>
+  </si>
+  <si>
+    <t>6314971609</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>AayushmanSanghvi35934@example.net</t>
+  </si>
+  <si>
+    <t>1974-05-22</t>
+  </si>
+  <si>
+    <t>991933843292882</t>
+  </si>
+  <si>
+    <t>a3915d62db20da16</t>
+  </si>
+  <si>
+    <t>873278237598848</t>
+  </si>
+  <si>
+    <t>IDEP147622637854STGN</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>59999453282</t>
+  </si>
+  <si>
+    <t>NHLSLQ</t>
+  </si>
+  <si>
+    <t>BNPL1476228394697345</t>
+  </si>
+  <si>
+    <t>59999423688</t>
+  </si>
+  <si>
+    <t>HJDPMH</t>
+  </si>
+  <si>
+    <t>59999537535</t>
+  </si>
+  <si>
+    <t>SUJIUT</t>
+  </si>
+  <si>
+    <t>59999531159</t>
+  </si>
+  <si>
+    <t>RDHTCH</t>
+  </si>
+  <si>
+    <t>59999781723</t>
+  </si>
+  <si>
+    <t>NRHQAR</t>
+  </si>
+  <si>
+    <t>59999520652</t>
+  </si>
+  <si>
+    <t>JFOBGS</t>
+  </si>
+  <si>
+    <t>59999820938</t>
+  </si>
+  <si>
+    <t>LIIELG</t>
+  </si>
+  <si>
+    <t>59999225286</t>
+  </si>
+  <si>
+    <t>CEHUPE</t>
+  </si>
+  <si>
+    <t>59999304515</t>
+  </si>
+  <si>
+    <t>DJHAJI</t>
+  </si>
+  <si>
+    <t>59999365632</t>
+  </si>
+  <si>
+    <t>JJSHFP</t>
+  </si>
+  <si>
+    <t>335577016314971609</t>
+  </si>
+  <si>
+    <t>ICIC98444790474</t>
+  </si>
+  <si>
+    <t>ICIC89179614039</t>
+  </si>
+  <si>
+    <t>6455630082</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>SubhashKapoor22469@example.net</t>
+  </si>
+  <si>
+    <t>1974-01-29</t>
+  </si>
+  <si>
+    <t>485689180987012</t>
+  </si>
+  <si>
+    <t>d45d796834d66ea9</t>
+  </si>
+  <si>
+    <t>994943301516232</t>
+  </si>
+  <si>
+    <t>IDEP167564315523XL2G</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>59999835682</t>
+  </si>
+  <si>
+    <t>BNHMNS</t>
+  </si>
+  <si>
+    <t>BNPL7516644835827458</t>
+  </si>
+  <si>
+    <t>59999418628</t>
+  </si>
+  <si>
+    <t>QDOPOC</t>
+  </si>
+  <si>
+    <t>59999434039</t>
+  </si>
+  <si>
+    <t>AHFQIG</t>
+  </si>
+  <si>
+    <t>59999211428</t>
+  </si>
+  <si>
+    <t>BGABKG</t>
+  </si>
+  <si>
+    <t>59999060682</t>
+  </si>
+  <si>
+    <t>PCRUHP</t>
+  </si>
+  <si>
+    <t>59999000477</t>
+  </si>
+  <si>
+    <t>DPUBEA</t>
+  </si>
+  <si>
+    <t>59999036623</t>
+  </si>
+  <si>
+    <t>AGPLQP</t>
+  </si>
+  <si>
+    <t>59999687427</t>
+  </si>
+  <si>
+    <t>FSKOCK</t>
+  </si>
+  <si>
+    <t>59999916883</t>
+  </si>
+  <si>
+    <t>IDGHID</t>
+  </si>
+  <si>
+    <t>59999446802</t>
+  </si>
+  <si>
+    <t>LRFBBK</t>
+  </si>
+  <si>
+    <t>335577016455630082</t>
+  </si>
+  <si>
+    <t>ICIC94452835098</t>
+  </si>
+  <si>
+    <t>ICIC94011921380</t>
   </si>
 </sst>
 </file>
@@ -2655,7 +3867,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2775,22 +3987,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>700</v>
+        <v>1104</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>701</v>
+        <v>1105</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3127,7 +4339,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>683</v>
+        <v>1087</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -3224,16 +4436,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>674</v>
+        <v>1080</v>
       </c>
       <c r="C2" t="s">
-        <v>675</v>
+        <v>1081</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>1079</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3336,7 +4548,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>702</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3348,7 +4560,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>703</v>
+        <v>1107</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3357,7 +4569,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>107.0</v>
+        <v>169.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3449,13 +4661,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>670</v>
+        <v>1076</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>1077</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4660,7 +5872,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>702</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4672,7 +5884,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>704</v>
+        <v>1108</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4681,7 +5893,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>107.0</v>
+        <v>169.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4808,10 +6020,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>1077</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4823,7 +6035,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>673</v>
+        <v>1079</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4832,10 +6044,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="M2" t="n">
-        <v>4220811.0</v>
+        <v>4224446.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4895,7 +6107,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4912,7 +6124,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4929,7 +6141,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4946,7 +6158,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4963,7 +6175,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>669</v>
+        <v>1075</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5115,7 +6327,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>1079</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5359,7 +6571,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>673</v>
+        <v>1079</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -5574,7 +6786,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>1076</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5955,7 +7167,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5975,7 +7187,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5995,7 +7207,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6015,7 +7227,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6035,7 +7247,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6055,7 +7267,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6075,7 +7287,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>1082</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6134,7 +7346,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -6148,7 +7360,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -3986,9 +3986,7 @@
       <c r="A2" t="s">
         <v>127</v>
       </c>
-      <c r="B2" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>714</v>
       </c>
@@ -6043,9 +6041,7 @@
       <c r="K2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L2" t="s">
-        <v>1082</v>
-      </c>
+      <c r="L2"/>
       <c r="M2" t="n">
         <v>4224446.0</v>
       </c>
@@ -7166,9 +7162,7 @@
       <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B2"/>
       <c r="C2">
         <v>303</v>
       </c>
@@ -7186,9 +7180,7 @@
       <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B3"/>
       <c r="C3">
         <v>563</v>
       </c>
@@ -7206,9 +7198,7 @@
       <c r="A4" t="s">
         <v>221</v>
       </c>
-      <c r="B4" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B4"/>
       <c r="C4">
         <v>645</v>
       </c>
@@ -7226,9 +7216,7 @@
       <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B5"/>
       <c r="C5">
         <v>668</v>
       </c>
@@ -7246,9 +7234,7 @@
       <c r="A6" t="s">
         <v>223</v>
       </c>
-      <c r="B6" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B6"/>
       <c r="C6">
         <v>725</v>
       </c>
@@ -7266,9 +7252,7 @@
       <c r="A7" t="s">
         <v>224</v>
       </c>
-      <c r="B7" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B7"/>
       <c r="C7">
         <v>800</v>
       </c>
@@ -7286,9 +7270,7 @@
       <c r="A8" t="s">
         <v>228</v>
       </c>
-      <c r="B8" t="s">
-        <v>1082</v>
-      </c>
+      <c r="B8"/>
       <c r="C8">
         <v>725</v>
       </c>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B51028-DB48-47A6-ACF6-BCA4C7E0E559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B941992-6B1C-4923-A5DC-621C14B157A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="299">
   <si>
     <t>TestCases</t>
   </si>
@@ -791,2587 +791,157 @@
     <t>IDEP617285859149GLNE</t>
   </si>
   <si>
-    <t>335577017475153363</t>
-  </si>
-  <si>
-    <t>ICIC95848663933</t>
-  </si>
-  <si>
-    <t>335577017313911882</t>
-  </si>
-  <si>
-    <t>ICIC83308914785</t>
-  </si>
-  <si>
-    <t>IDEP317627169852UF3B</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>59999131227</t>
-  </si>
-  <si>
-    <t>OEQFFT</t>
-  </si>
-  <si>
-    <t>IDEP716354622229QN71</t>
-  </si>
-  <si>
-    <t>7304301376</t>
-  </si>
-  <si>
-    <t>Naina</t>
-  </si>
-  <si>
-    <t>FarazThaker46144@example.net</t>
-  </si>
-  <si>
-    <t>1982-11-18</t>
-  </si>
-  <si>
-    <t>025854809689285</t>
-  </si>
-  <si>
-    <t>04ec5cff09184cb5</t>
-  </si>
-  <si>
-    <t>556346686579777</t>
-  </si>
-  <si>
-    <t>9650456182</t>
-  </si>
-  <si>
-    <t>Kunti</t>
-  </si>
-  <si>
-    <t>GaneshAcharya38384@example.net</t>
-  </si>
-  <si>
-    <t>1989-06-24</t>
-  </si>
-  <si>
-    <t>710211411504438</t>
-  </si>
-  <si>
-    <t>06f533986e96a4d9</t>
-  </si>
-  <si>
-    <t>416330194714225</t>
-  </si>
-  <si>
-    <t>8515884979</t>
-  </si>
-  <si>
-    <t>Lalita</t>
-  </si>
-  <si>
-    <t>HarpreetMurthy34633@example.net</t>
-  </si>
-  <si>
-    <t>1983-06-29</t>
-  </si>
-  <si>
-    <t>590871371411638</t>
-  </si>
-  <si>
-    <t>5a0f5d36cae1b9dc</t>
-  </si>
-  <si>
-    <t>746924030162218</t>
-  </si>
-  <si>
-    <t>IDEP176357939658P142</t>
-  </si>
-  <si>
-    <t>7626152934</t>
-  </si>
-  <si>
-    <t>Alka</t>
-  </si>
-  <si>
-    <t>GhanshyamGrover51326@example.net</t>
-  </si>
-  <si>
-    <t>1973-02-15</t>
-  </si>
-  <si>
-    <t>593526763578884</t>
-  </si>
-  <si>
-    <t>249df05fc77733bc</t>
-  </si>
-  <si>
-    <t>952383372002525</t>
-  </si>
-  <si>
-    <t>IDEP763158359189QY89</t>
-  </si>
-  <si>
-    <t>9321828582</t>
-  </si>
-  <si>
-    <t>Poonam</t>
-  </si>
-  <si>
-    <t>AnilMatthai39993@example.net</t>
-  </si>
-  <si>
-    <t>1992-08-03</t>
-  </si>
-  <si>
-    <t>078389344176528</t>
-  </si>
-  <si>
-    <t>2fec5e43ce332715</t>
-  </si>
-  <si>
-    <t>915847908818683</t>
-  </si>
-  <si>
-    <t>8821484834</t>
-  </si>
-  <si>
-    <t>Nishita</t>
-  </si>
-  <si>
-    <t>PeterSahni31568@example.net</t>
-  </si>
-  <si>
-    <t>1977-12-25</t>
-  </si>
-  <si>
-    <t>605119764995442</t>
-  </si>
-  <si>
-    <t>9e3df79267741da9</t>
-  </si>
-  <si>
-    <t>647078401756452</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>59999819477</t>
-  </si>
-  <si>
-    <t>SOCJTL</t>
-  </si>
-  <si>
-    <t>BNPL3761588252239736</t>
-  </si>
-  <si>
-    <t>59999274824</t>
-  </si>
-  <si>
-    <t>ALKLNU</t>
-  </si>
-  <si>
-    <t>59999215890</t>
-  </si>
-  <si>
-    <t>PDQEFN</t>
-  </si>
-  <si>
-    <t>59999229424</t>
-  </si>
-  <si>
-    <t>KTCSCU</t>
-  </si>
-  <si>
-    <t>59999334902</t>
-  </si>
-  <si>
-    <t>FEDCCL</t>
-  </si>
-  <si>
-    <t>59999909935</t>
-  </si>
-  <si>
-    <t>ARAARL</t>
-  </si>
-  <si>
-    <t>59999957994</t>
-  </si>
-  <si>
-    <t>TTJGCR</t>
-  </si>
-  <si>
-    <t>59999325980</t>
-  </si>
-  <si>
-    <t>RHLKJS</t>
-  </si>
-  <si>
-    <t>59999477626</t>
-  </si>
-  <si>
-    <t>MFTQSQ</t>
-  </si>
-  <si>
-    <t>59999006891</t>
-  </si>
-  <si>
-    <t>SDFCCF</t>
-  </si>
-  <si>
-    <t>335577018821484834</t>
-  </si>
-  <si>
-    <t>ICIC91102595896</t>
-  </si>
-  <si>
-    <t>ICIC85902025841</t>
-  </si>
-  <si>
-    <t>6898902605</t>
-  </si>
-  <si>
-    <t>Sunita</t>
-  </si>
-  <si>
-    <t>NavalNair84464@example.net</t>
-  </si>
-  <si>
-    <t>1995-02-02</t>
-  </si>
-  <si>
-    <t>287521755108619</t>
-  </si>
-  <si>
-    <t>bf60ad0a44c8921a</t>
-  </si>
-  <si>
-    <t>882594591137604</t>
-  </si>
-  <si>
-    <t>IDEP361759179516EIX7</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>59999981659</t>
-  </si>
-  <si>
-    <t>KJHRTA</t>
-  </si>
-  <si>
-    <t>BNPL6173593568877216</t>
-  </si>
-  <si>
-    <t>59999719255</t>
-  </si>
-  <si>
-    <t>NCQDPT</t>
-  </si>
-  <si>
-    <t>59999624990</t>
-  </si>
-  <si>
-    <t>ERUCSR</t>
-  </si>
-  <si>
-    <t>59999339518</t>
-  </si>
-  <si>
-    <t>PEUSRF</t>
-  </si>
-  <si>
-    <t>59999073364</t>
-  </si>
-  <si>
-    <t>JGBEPS</t>
-  </si>
-  <si>
-    <t>59999607673</t>
-  </si>
-  <si>
-    <t>EDIUAD</t>
-  </si>
-  <si>
-    <t>59999485109</t>
-  </si>
-  <si>
-    <t>LOBBFK</t>
-  </si>
-  <si>
-    <t>59999018616</t>
-  </si>
-  <si>
-    <t>PBIFEN</t>
-  </si>
-  <si>
-    <t>59999824775</t>
-  </si>
-  <si>
-    <t>IDFMBC</t>
-  </si>
-  <si>
-    <t>59999602792</t>
-  </si>
-  <si>
-    <t>UDRFAH</t>
-  </si>
-  <si>
-    <t>335577016898902605</t>
-  </si>
-  <si>
-    <t>ICIC88757567767</t>
-  </si>
-  <si>
-    <t>ICIC80046706751</t>
-  </si>
-  <si>
-    <t>9999792859</t>
-  </si>
-  <si>
     <t>Bhaagyasree</t>
   </si>
   <si>
-    <t>SatishwarMalhotra63869@example.net</t>
-  </si>
-  <si>
-    <t>1972-05-22</t>
-  </si>
-  <si>
-    <t>910526433457234</t>
-  </si>
-  <si>
-    <t>b97d7af6fe9993f2</t>
-  </si>
-  <si>
-    <t>942981052821669</t>
-  </si>
-  <si>
-    <t>IDEP631753981881N1WA</t>
-  </si>
-  <si>
-    <t>9707421538</t>
-  </si>
-  <si>
-    <t>Amrita</t>
-  </si>
-  <si>
-    <t>RupeshDass35751@example.net</t>
-  </si>
-  <si>
-    <t>1973-02-06</t>
-  </si>
-  <si>
-    <t>324000207740480</t>
-  </si>
-  <si>
-    <t>b832d7c1eb5827a7</t>
-  </si>
-  <si>
-    <t>407536044071514</t>
-  </si>
-  <si>
-    <t>IDEP36715489148286VB</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>59999042090</t>
-  </si>
-  <si>
-    <t>GSGKNT</t>
-  </si>
-  <si>
-    <t>BNPL3716551541468573</t>
-  </si>
-  <si>
-    <t>59999668756</t>
-  </si>
-  <si>
-    <t>RUNPCN</t>
-  </si>
-  <si>
-    <t>59999015192</t>
-  </si>
-  <si>
-    <t>UQARSH</t>
-  </si>
-  <si>
-    <t>59999755246</t>
-  </si>
-  <si>
-    <t>QSBIUM</t>
-  </si>
-  <si>
-    <t>59999905912</t>
-  </si>
-  <si>
-    <t>GNRLMK</t>
-  </si>
-  <si>
-    <t>59999338146</t>
-  </si>
-  <si>
-    <t>HPMHTK</t>
-  </si>
-  <si>
-    <t>59999939870</t>
-  </si>
-  <si>
-    <t>KBEOTN</t>
-  </si>
-  <si>
-    <t>59999694014</t>
-  </si>
-  <si>
-    <t>EHGRBM</t>
-  </si>
-  <si>
-    <t>59999577742</t>
-  </si>
-  <si>
-    <t>DILHBB</t>
-  </si>
-  <si>
-    <t>59999564183</t>
-  </si>
-  <si>
-    <t>KASTNK</t>
-  </si>
-  <si>
-    <t>335577019707421538</t>
-  </si>
-  <si>
-    <t>ICIC97593569778</t>
-  </si>
-  <si>
-    <t>ICIC89314710999</t>
-  </si>
-  <si>
-    <t>7332387089</t>
-  </si>
-  <si>
-    <t>Falguni</t>
-  </si>
-  <si>
-    <t>FardeenRamnarine83722@example.net</t>
-  </si>
-  <si>
-    <t>1990-04-22</t>
-  </si>
-  <si>
-    <t>022567092216409</t>
-  </si>
-  <si>
-    <t>410f13f766180c0c</t>
-  </si>
-  <si>
-    <t>768987546349440</t>
-  </si>
-  <si>
-    <t>IDEP136757694264OK9S</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>59999517083</t>
-  </si>
-  <si>
-    <t>JBMNKA</t>
-  </si>
-  <si>
-    <t>BNPL7316578779811427</t>
-  </si>
-  <si>
-    <t>59999146698</t>
-  </si>
-  <si>
-    <t>KKHKCJ</t>
-  </si>
-  <si>
-    <t>59999844323</t>
-  </si>
-  <si>
-    <t>JFHDNI</t>
-  </si>
-  <si>
-    <t>59999225778</t>
-  </si>
-  <si>
-    <t>QOLQJU</t>
-  </si>
-  <si>
-    <t>59999905635</t>
-  </si>
-  <si>
-    <t>NQTQFH</t>
-  </si>
-  <si>
-    <t>59999363907</t>
-  </si>
-  <si>
-    <t>SMIGDF</t>
-  </si>
-  <si>
-    <t>59999311156</t>
-  </si>
-  <si>
-    <t>GQIADB</t>
-  </si>
-  <si>
-    <t>59999752049</t>
-  </si>
-  <si>
-    <t>BRQDFL</t>
-  </si>
-  <si>
-    <t>59999554027</t>
-  </si>
-  <si>
-    <t>SRCOKI</t>
-  </si>
-  <si>
-    <t>59999784943</t>
-  </si>
-  <si>
-    <t>ULQNSC</t>
-  </si>
-  <si>
-    <t>335577017332387089</t>
-  </si>
-  <si>
-    <t>ICIC86555436913</t>
-  </si>
-  <si>
-    <t>ICIC80406761164</t>
-  </si>
-  <si>
-    <t>6683046761</t>
-  </si>
-  <si>
-    <t>Bagwati</t>
-  </si>
-  <si>
-    <t>YadunandanKothari62561@example.net</t>
-  </si>
-  <si>
-    <t>1983-10-05</t>
-  </si>
-  <si>
-    <t>767357079065014</t>
-  </si>
-  <si>
-    <t>7baeec637127005f</t>
-  </si>
-  <si>
-    <t>092603600594956</t>
-  </si>
-  <si>
-    <t>IDEP674136248383NMED</t>
-  </si>
-  <si>
-    <t>7084617681</t>
-  </si>
-  <si>
-    <t>Madhu</t>
-  </si>
-  <si>
-    <t>GaneshDave27687@example.net</t>
-  </si>
-  <si>
-    <t>1976-11-19</t>
-  </si>
-  <si>
-    <t>774384054491511</t>
-  </si>
-  <si>
-    <t>84eaeb8ec1f8f104</t>
-  </si>
-  <si>
-    <t>479417194190391</t>
-  </si>
-  <si>
-    <t>IDEP4176392298128BUO</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>59999309673</t>
-  </si>
-  <si>
-    <t>ULMIPU</t>
-  </si>
-  <si>
-    <t>59999210960</t>
-  </si>
-  <si>
-    <t>AIGLER</t>
-  </si>
-  <si>
-    <t>59999124159</t>
-  </si>
-  <si>
-    <t>JTMODJ</t>
-  </si>
-  <si>
-    <t>59999424323</t>
-  </si>
-  <si>
-    <t>MODCCF</t>
-  </si>
-  <si>
-    <t>59999207736</t>
-  </si>
-  <si>
-    <t>CBULNU</t>
-  </si>
-  <si>
-    <t>59999661780</t>
-  </si>
-  <si>
-    <t>AOQRLJ</t>
-  </si>
-  <si>
-    <t>59999137341</t>
-  </si>
-  <si>
-    <t>ILBIOH</t>
-  </si>
-  <si>
-    <t>59999592334</t>
-  </si>
-  <si>
-    <t>RKUNCO</t>
-  </si>
-  <si>
-    <t>59999092380</t>
-  </si>
-  <si>
-    <t>GLOPQE</t>
-  </si>
-  <si>
-    <t>59999372913</t>
-  </si>
-  <si>
-    <t>TEPGJE</t>
-  </si>
-  <si>
-    <t>7901225054</t>
-  </si>
-  <si>
-    <t>Uma</t>
-  </si>
-  <si>
-    <t>SureshMeka14091@example.net</t>
-  </si>
-  <si>
-    <t>1975-05-25</t>
-  </si>
-  <si>
-    <t>135096379166487</t>
-  </si>
-  <si>
-    <t>a06b31e5db7b000b</t>
-  </si>
-  <si>
-    <t>460532995192866</t>
-  </si>
-  <si>
-    <t>IDEP647148425565VMIQ</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>59999748134</t>
-  </si>
-  <si>
-    <t>EBKAJH</t>
-  </si>
-  <si>
-    <t>59999677446</t>
-  </si>
-  <si>
-    <t>HQRTFS</t>
-  </si>
-  <si>
-    <t>59999845372</t>
-  </si>
-  <si>
-    <t>NCKLTO</t>
-  </si>
-  <si>
-    <t>59999313253</t>
-  </si>
-  <si>
-    <t>AKFKUE</t>
-  </si>
-  <si>
-    <t>59999046257</t>
-  </si>
-  <si>
-    <t>QHODGO</t>
-  </si>
-  <si>
-    <t>59999555225</t>
-  </si>
-  <si>
-    <t>LSEMUE</t>
-  </si>
-  <si>
-    <t>59999820555</t>
-  </si>
-  <si>
-    <t>SCLEHO</t>
-  </si>
-  <si>
-    <t>59999776156</t>
-  </si>
-  <si>
-    <t>LQOSKA</t>
-  </si>
-  <si>
-    <t>59999289337</t>
-  </si>
-  <si>
-    <t>FPOLEC</t>
-  </si>
-  <si>
-    <t>59999137894</t>
-  </si>
-  <si>
-    <t>BBNMFK</t>
-  </si>
-  <si>
-    <t>8442694922</t>
-  </si>
-  <si>
-    <t>Nitika</t>
-  </si>
-  <si>
-    <t>VivekRajan33857@example.net</t>
-  </si>
-  <si>
-    <t>1970-01-11</t>
-  </si>
-  <si>
-    <t>290895296196407</t>
-  </si>
-  <si>
-    <t>ccb54f0ba5fe7491</t>
-  </si>
-  <si>
-    <t>027112560230718</t>
-  </si>
-  <si>
-    <t>IDEP614742379698A4SN</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>59999998893</t>
-  </si>
-  <si>
-    <t>BLMMLT</t>
-  </si>
-  <si>
-    <t>59999051556</t>
-  </si>
-  <si>
-    <t>EPMSLJ</t>
-  </si>
-  <si>
-    <t>59999429053</t>
-  </si>
-  <si>
-    <t>CONBQQ</t>
-  </si>
-  <si>
-    <t>59999545904</t>
-  </si>
-  <si>
-    <t>OQKKSS</t>
-  </si>
-  <si>
-    <t>59999478975</t>
-  </si>
-  <si>
-    <t>KSBIPP</t>
-  </si>
-  <si>
-    <t>59999991147</t>
-  </si>
-  <si>
-    <t>ICUSRS</t>
-  </si>
-  <si>
-    <t>59999783615</t>
-  </si>
-  <si>
-    <t>CDISUJ</t>
-  </si>
-  <si>
-    <t>59999359340</t>
-  </si>
-  <si>
-    <t>QAQARJ</t>
-  </si>
-  <si>
-    <t>59999978709</t>
-  </si>
-  <si>
-    <t>ISGMHU</t>
-  </si>
-  <si>
-    <t>59999187223</t>
-  </si>
-  <si>
-    <t>MJHDER</t>
-  </si>
-  <si>
-    <t>9369162311</t>
-  </si>
-  <si>
-    <t>Nishtha</t>
-  </si>
-  <si>
-    <t>PreetChakraborty28746@example.net</t>
-  </si>
-  <si>
-    <t>1987-01-15</t>
-  </si>
-  <si>
-    <t>404054419171730</t>
-  </si>
-  <si>
-    <t>97be56313cbf8ba0</t>
-  </si>
-  <si>
-    <t>847283120782007</t>
-  </si>
-  <si>
-    <t>IDEP4167292394574Q25</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>59999957081</t>
-  </si>
-  <si>
-    <t>TIKMJP</t>
-  </si>
-  <si>
-    <t>59999918974</t>
-  </si>
-  <si>
-    <t>KFQULS</t>
-  </si>
-  <si>
-    <t>59999388658</t>
-  </si>
-  <si>
-    <t>GTDEIU</t>
-  </si>
-  <si>
-    <t>59999791867</t>
-  </si>
-  <si>
-    <t>UFUKIU</t>
-  </si>
-  <si>
-    <t>59999660326</t>
-  </si>
-  <si>
-    <t>ABNDLH</t>
-  </si>
-  <si>
-    <t>59999937364</t>
-  </si>
-  <si>
-    <t>CBMKDO</t>
-  </si>
-  <si>
-    <t>59999486272</t>
-  </si>
-  <si>
-    <t>HFHAGO</t>
-  </si>
-  <si>
-    <t>59999759382</t>
-  </si>
-  <si>
-    <t>IBJDUT</t>
-  </si>
-  <si>
-    <t>59999475910</t>
-  </si>
-  <si>
-    <t>AEHIRC</t>
-  </si>
-  <si>
-    <t>59999414359</t>
-  </si>
-  <si>
-    <t>PGIBBJ</t>
-  </si>
-  <si>
-    <t>9790506320</t>
-  </si>
-  <si>
-    <t>Kusum</t>
-  </si>
-  <si>
-    <t>SumitKadakia61420@example.net</t>
-  </si>
-  <si>
-    <t>1981-09-04</t>
-  </si>
-  <si>
-    <t>199231079135002</t>
-  </si>
-  <si>
-    <t>cbe6e7e3e726d0ad</t>
-  </si>
-  <si>
-    <t>060805932194334</t>
-  </si>
-  <si>
-    <t>6950935749</t>
-  </si>
-  <si>
-    <t>Leela</t>
-  </si>
-  <si>
-    <t>AdityaMody60907@example.net</t>
-  </si>
-  <si>
-    <t>1985-08-11</t>
-  </si>
-  <si>
-    <t>205544424435394</t>
-  </si>
-  <si>
-    <t>929988e2fa22112d</t>
-  </si>
-  <si>
-    <t>669119506417450</t>
-  </si>
-  <si>
-    <t>7835022030</t>
-  </si>
-  <si>
-    <t>Akanksha</t>
-  </si>
-  <si>
-    <t>MohanlalBora23816@example.net</t>
-  </si>
-  <si>
-    <t>1979-12-21</t>
-  </si>
-  <si>
-    <t>157407761215589</t>
-  </si>
-  <si>
-    <t>ee24a2c6d9be8324</t>
-  </si>
-  <si>
-    <t>136860116361621</t>
-  </si>
-  <si>
-    <t>9545939043</t>
-  </si>
-  <si>
-    <t>Farah</t>
-  </si>
-  <si>
-    <t>WafaGoel35967@example.net</t>
-  </si>
-  <si>
-    <t>1980-07-15</t>
-  </si>
-  <si>
-    <t>105990329922401</t>
-  </si>
-  <si>
-    <t>f265e33abc44744b</t>
-  </si>
-  <si>
-    <t>890889534274286</t>
-  </si>
-  <si>
-    <t>IDEP716491965858YTMH</t>
-  </si>
-  <si>
-    <t>6894496965</t>
-  </si>
-  <si>
-    <t>RahimInani43164@example.net</t>
-  </si>
-  <si>
-    <t>1970-04-25</t>
-  </si>
-  <si>
-    <t>248943616011105</t>
-  </si>
-  <si>
-    <t>2b66dca8c9749de4</t>
-  </si>
-  <si>
-    <t>167835952187563</t>
-  </si>
-  <si>
-    <t>IDEP746192833589AQCU</t>
-  </si>
-  <si>
-    <t>6823576266</t>
-  </si>
-  <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>SumitDevan87712@example.net</t>
-  </si>
-  <si>
-    <t>1983-01-27</t>
-  </si>
-  <si>
-    <t>091251336017206</t>
-  </si>
-  <si>
-    <t>c112c1f52e96866d</t>
-  </si>
-  <si>
-    <t>289361334726872</t>
-  </si>
-  <si>
-    <t>IDEP674114218436DMZE</t>
-  </si>
-  <si>
-    <t>7050725736</t>
-  </si>
-  <si>
-    <t>Aarushi</t>
-  </si>
-  <si>
-    <t>UjwalMittal30937@example.net</t>
-  </si>
-  <si>
-    <t>1987-08-24</t>
-  </si>
-  <si>
-    <t>783826054923538</t>
-  </si>
-  <si>
-    <t>b1fc75256c9171d2</t>
-  </si>
-  <si>
-    <t>824566513791305</t>
-  </si>
-  <si>
-    <t>IDEP6174739747883P6M</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>109</t>
+    <t>335577016455630082</t>
+  </si>
+  <si>
+    <t>ICIC94452835098</t>
+  </si>
+  <si>
+    <t>ICIC94011921380</t>
+  </si>
+  <si>
+    <t>9444881456</t>
+  </si>
+  <si>
+    <t>KarimMani28166@example.net</t>
+  </si>
+  <si>
+    <t>1987-08-04</t>
+  </si>
+  <si>
+    <t>226143690435173</t>
+  </si>
+  <si>
+    <t>61fa1ed65a48cebd</t>
+  </si>
+  <si>
+    <t>969561323763433</t>
+  </si>
+  <si>
+    <t>IDEP765186687615Q1H4</t>
+  </si>
+  <si>
+    <t>59999565260</t>
+  </si>
+  <si>
+    <t>UUETKL</t>
+  </si>
+  <si>
+    <t>7143269217</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>HassanDesai79430@example.net</t>
+  </si>
+  <si>
+    <t>1970-08-26</t>
+  </si>
+  <si>
+    <t>733451382965696</t>
+  </si>
+  <si>
+    <t>1f62597c441fc1b0</t>
+  </si>
+  <si>
+    <t>343191301717685</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
   <si>
     <t>197</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>59999902738</t>
-  </si>
-  <si>
-    <t>GINJRU</t>
-  </si>
-  <si>
-    <t>BNPL4167741494721542</t>
-  </si>
-  <si>
-    <t>59999427003</t>
-  </si>
-  <si>
-    <t>NGJDMF</t>
-  </si>
-  <si>
-    <t>59999351443</t>
-  </si>
-  <si>
-    <t>CURHSP</t>
-  </si>
-  <si>
-    <t>59999757483</t>
-  </si>
-  <si>
-    <t>BPNPMN</t>
-  </si>
-  <si>
-    <t>59999789786</t>
-  </si>
-  <si>
-    <t>QRCTLN</t>
-  </si>
-  <si>
-    <t>59999674172</t>
-  </si>
-  <si>
-    <t>QMEMUB</t>
-  </si>
-  <si>
-    <t>59999763932</t>
-  </si>
-  <si>
-    <t>NEGTQP</t>
-  </si>
-  <si>
-    <t>59999575909</t>
-  </si>
-  <si>
-    <t>ULBTFR</t>
-  </si>
-  <si>
-    <t>59999615331</t>
-  </si>
-  <si>
-    <t>UOTSSP</t>
-  </si>
-  <si>
-    <t>59999378500</t>
-  </si>
-  <si>
-    <t>KHLMMG</t>
-  </si>
-  <si>
-    <t>335577017050725736</t>
-  </si>
-  <si>
-    <t>ICIC82231681480</t>
-  </si>
-  <si>
-    <t>ICIC95537745228</t>
-  </si>
-  <si>
-    <t>6084990179</t>
-  </si>
-  <si>
-    <t>Laveena</t>
-  </si>
-  <si>
-    <t>ArjunWalla26851@example.net</t>
-  </si>
-  <si>
-    <t>1980-08-04</t>
-  </si>
-  <si>
-    <t>302108427606096</t>
-  </si>
-  <si>
-    <t>e7a3f995313a0d43</t>
-  </si>
-  <si>
-    <t>772117250954045</t>
-  </si>
-  <si>
-    <t>IDEP761475145991BXDE</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>59999541841</t>
-  </si>
-  <si>
-    <t>SCJBGH</t>
-  </si>
-  <si>
-    <t>BNPL7416753239579457</t>
-  </si>
-  <si>
-    <t>59999154431</t>
-  </si>
-  <si>
-    <t>HQOKKM</t>
-  </si>
-  <si>
-    <t>59999347672</t>
-  </si>
-  <si>
-    <t>GUFRKN</t>
-  </si>
-  <si>
-    <t>59999927810</t>
-  </si>
-  <si>
-    <t>CTSHSH</t>
-  </si>
-  <si>
-    <t>59999633078</t>
-  </si>
-  <si>
-    <t>JLRQAI</t>
-  </si>
-  <si>
-    <t>59999880874</t>
-  </si>
-  <si>
-    <t>MSTDAO</t>
-  </si>
-  <si>
-    <t>59999862446</t>
-  </si>
-  <si>
-    <t>MBILMB</t>
-  </si>
-  <si>
-    <t>59999957963</t>
-  </si>
-  <si>
-    <t>JERJBT</t>
-  </si>
-  <si>
-    <t>59999042328</t>
-  </si>
-  <si>
-    <t>UQTBTE</t>
-  </si>
-  <si>
-    <t>59999322847</t>
-  </si>
-  <si>
-    <t>EPEENN</t>
-  </si>
-  <si>
-    <t>335577016084990179</t>
-  </si>
-  <si>
-    <t>ICIC85059039576</t>
-  </si>
-  <si>
-    <t>ICIC84904936906</t>
-  </si>
-  <si>
-    <t>9654732977</t>
-  </si>
-  <si>
-    <t>Tejaswani</t>
-  </si>
-  <si>
-    <t>VijayNatarajan65125@example.net</t>
-  </si>
-  <si>
-    <t>1971-10-18</t>
-  </si>
-  <si>
-    <t>962491829542593</t>
-  </si>
-  <si>
-    <t>6b506bbd8ede20ff</t>
-  </si>
-  <si>
-    <t>837642856095888</t>
-  </si>
-  <si>
-    <t>IDEP176468221939P29Q</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999115454</t>
-  </si>
-  <si>
-    <t>LIBDSQ</t>
-  </si>
-  <si>
-    <t>59999987282</t>
-  </si>
-  <si>
-    <t>IHQBTF</t>
-  </si>
-  <si>
-    <t>59999113504</t>
-  </si>
-  <si>
-    <t>MFKMNQ</t>
-  </si>
-  <si>
-    <t>59999138331</t>
-  </si>
-  <si>
-    <t>JDRKKA</t>
-  </si>
-  <si>
-    <t>59999613542</t>
-  </si>
-  <si>
-    <t>JEGSAK</t>
-  </si>
-  <si>
-    <t>59999490100</t>
-  </si>
-  <si>
-    <t>EICGQF</t>
-  </si>
-  <si>
-    <t>59999347424</t>
-  </si>
-  <si>
-    <t>PDSFDI</t>
-  </si>
-  <si>
-    <t>59999934354</t>
-  </si>
-  <si>
-    <t>QEBJIK</t>
-  </si>
-  <si>
-    <t>59999453502</t>
-  </si>
-  <si>
-    <t>DLUHMM</t>
-  </si>
-  <si>
-    <t>59999226949</t>
-  </si>
-  <si>
-    <t>OETSKR</t>
-  </si>
-  <si>
-    <t>8013971321</t>
-  </si>
-  <si>
-    <t>Nilam</t>
-  </si>
-  <si>
-    <t>HimanshuBhandari88586@example.net</t>
-  </si>
-  <si>
-    <t>1971-01-05</t>
-  </si>
-  <si>
-    <t>265665031025810</t>
-  </si>
-  <si>
-    <t>1566c93af4253de0</t>
-  </si>
-  <si>
-    <t>865070089959990</t>
-  </si>
-  <si>
-    <t>IDEP6417621663589N48</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>59999320745</t>
-  </si>
-  <si>
-    <t>RPCRGD</t>
-  </si>
-  <si>
-    <t>BNPL7641623422866492</t>
-  </si>
-  <si>
-    <t>59999770138</t>
-  </si>
-  <si>
-    <t>AORRNT</t>
-  </si>
-  <si>
-    <t>59999352143</t>
-  </si>
-  <si>
-    <t>NOPAIJ</t>
-  </si>
-  <si>
-    <t>59999664123</t>
-  </si>
-  <si>
-    <t>BRPLTU</t>
-  </si>
-  <si>
-    <t>59999053570</t>
-  </si>
-  <si>
-    <t>FOKDKD</t>
-  </si>
-  <si>
-    <t>59999003282</t>
-  </si>
-  <si>
-    <t>EUNIHM</t>
-  </si>
-  <si>
-    <t>59999236624</t>
-  </si>
-  <si>
-    <t>RCPLAP</t>
-  </si>
-  <si>
-    <t>59999980259</t>
-  </si>
-  <si>
-    <t>SOJLKU</t>
-  </si>
-  <si>
-    <t>59999589557</t>
-  </si>
-  <si>
-    <t>QKKTSB</t>
-  </si>
-  <si>
-    <t>59999614470</t>
-  </si>
-  <si>
-    <t>ILPRID</t>
-  </si>
-  <si>
-    <t>335577018013971321</t>
-  </si>
-  <si>
-    <t>ICIC82974174412</t>
-  </si>
-  <si>
-    <t>ICIC83666090801</t>
-  </si>
-  <si>
-    <t>6759427363</t>
-  </si>
-  <si>
-    <t>Binita</t>
-  </si>
-  <si>
-    <t>BholaDevan84099@example.net</t>
-  </si>
-  <si>
-    <t>1992-07-14</t>
-  </si>
-  <si>
-    <t>077900454311720</t>
-  </si>
-  <si>
-    <t>b84ba08a7d81e839</t>
-  </si>
-  <si>
-    <t>160339985451564</t>
-  </si>
-  <si>
-    <t>IDEP176433833221S6EG</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>59999599925</t>
-  </si>
-  <si>
-    <t>JABOJO</t>
-  </si>
-  <si>
-    <t>BNPL7614332486879642</t>
-  </si>
-  <si>
-    <t>59999975147</t>
-  </si>
-  <si>
-    <t>QEARUH</t>
-  </si>
-  <si>
-    <t>59999502048</t>
-  </si>
-  <si>
-    <t>OJHMDB</t>
-  </si>
-  <si>
-    <t>59999754065</t>
-  </si>
-  <si>
-    <t>CGGJQS</t>
-  </si>
-  <si>
-    <t>59999372287</t>
-  </si>
-  <si>
-    <t>LQFCPT</t>
-  </si>
-  <si>
-    <t>59999500763</t>
-  </si>
-  <si>
-    <t>HRLSFS</t>
-  </si>
-  <si>
-    <t>59999609921</t>
-  </si>
-  <si>
-    <t>GJLPFN</t>
-  </si>
-  <si>
-    <t>59999478058</t>
-  </si>
-  <si>
-    <t>TPFHEH</t>
-  </si>
-  <si>
-    <t>59999578560</t>
-  </si>
-  <si>
-    <t>ALOPFR</t>
-  </si>
-  <si>
-    <t>59999180599</t>
-  </si>
-  <si>
-    <t>UMCCCE</t>
-  </si>
-  <si>
-    <t>335577016759427363</t>
-  </si>
-  <si>
-    <t>ICIC92504731192</t>
-  </si>
-  <si>
-    <t>ICIC90447975652</t>
-  </si>
-  <si>
-    <t>6988113671</t>
-  </si>
-  <si>
-    <t>Afreen</t>
-  </si>
-  <si>
-    <t>AnandTak38761@example.net</t>
-  </si>
-  <si>
-    <t>1972-03-06</t>
-  </si>
-  <si>
-    <t>490918545758484</t>
-  </si>
-  <si>
-    <t>410576cbb3e83ea8</t>
-  </si>
-  <si>
-    <t>737528569084312</t>
-  </si>
-  <si>
-    <t>IDEP147637888763M7NL</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>59999098818</t>
-  </si>
-  <si>
-    <t>HKGPQN</t>
-  </si>
-  <si>
-    <t>BNPL6147388933595368</t>
-  </si>
-  <si>
-    <t>59999647057</t>
-  </si>
-  <si>
-    <t>AFPQDH</t>
-  </si>
-  <si>
-    <t>59999671054</t>
-  </si>
-  <si>
-    <t>OLUUSG</t>
-  </si>
-  <si>
-    <t>59999514803</t>
-  </si>
-  <si>
-    <t>OBMADT</t>
-  </si>
-  <si>
-    <t>59999939208</t>
-  </si>
-  <si>
-    <t>HLPAFQ</t>
-  </si>
-  <si>
-    <t>59999404532</t>
-  </si>
-  <si>
-    <t>MMTPSL</t>
-  </si>
-  <si>
-    <t>59999328997</t>
-  </si>
-  <si>
-    <t>BTHTUG</t>
-  </si>
-  <si>
-    <t>59999256449</t>
-  </si>
-  <si>
-    <t>INRIHA</t>
-  </si>
-  <si>
-    <t>59999721436</t>
-  </si>
-  <si>
-    <t>KTDBMF</t>
-  </si>
-  <si>
-    <t>59999063494</t>
-  </si>
-  <si>
-    <t>SPMDIP</t>
-  </si>
-  <si>
-    <t>335577016988113671</t>
-  </si>
-  <si>
-    <t>ICIC86189378167</t>
-  </si>
-  <si>
-    <t>ICIC82731588007</t>
-  </si>
-  <si>
-    <t>7023210604</t>
-  </si>
-  <si>
-    <t>Prerna</t>
-  </si>
-  <si>
-    <t>HetanWalla35240@example.net</t>
-  </si>
-  <si>
-    <t>1984-09-30</t>
-  </si>
-  <si>
-    <t>798825746710934</t>
-  </si>
-  <si>
-    <t>a3924c052a898b0a</t>
-  </si>
-  <si>
-    <t>787135419443075</t>
-  </si>
-  <si>
-    <t>IDEP461743485478SY2J</t>
-  </si>
-  <si>
-    <t>7843052765</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>AniruddhDeshpande66271@example.net</t>
-  </si>
-  <si>
-    <t>1983-05-27</t>
-  </si>
-  <si>
-    <t>478595359608256</t>
-  </si>
-  <si>
-    <t>665f7a6362a5d962</t>
-  </si>
-  <si>
-    <t>011259023828782</t>
-  </si>
-  <si>
-    <t>6509404934</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>SaiKannan29880@example.net</t>
-  </si>
-  <si>
-    <t>1991-02-05</t>
-  </si>
-  <si>
-    <t>381081423483634</t>
-  </si>
-  <si>
-    <t>5006040288f26e68</t>
-  </si>
-  <si>
-    <t>632226967178044</t>
-  </si>
-  <si>
-    <t>IDEP671444127884T2GV</t>
-  </si>
-  <si>
-    <t>8915037322</t>
-  </si>
-  <si>
-    <t>Shanti</t>
-  </si>
-  <si>
-    <t>ArvindDubey80761@example.net</t>
-  </si>
-  <si>
-    <t>1990-10-16</t>
-  </si>
-  <si>
-    <t>405869335225495</t>
-  </si>
-  <si>
-    <t>84bb330a14295a1b</t>
-  </si>
-  <si>
-    <t>184413198143557</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>59999119014</t>
-  </si>
-  <si>
-    <t>AGSCHR</t>
-  </si>
-  <si>
-    <t>BNPL6714453838642458</t>
-  </si>
-  <si>
-    <t>59999413287</t>
-  </si>
-  <si>
-    <t>HOQGOE</t>
-  </si>
-  <si>
-    <t>59999306105</t>
-  </si>
-  <si>
-    <t>SJJKBM</t>
-  </si>
-  <si>
-    <t>59999630208</t>
-  </si>
-  <si>
-    <t>ITCKOP</t>
-  </si>
-  <si>
-    <t>59999576531</t>
-  </si>
-  <si>
-    <t>CMBHTG</t>
-  </si>
-  <si>
-    <t>59999352785</t>
-  </si>
-  <si>
-    <t>PGTFGP</t>
-  </si>
-  <si>
-    <t>59999234450</t>
-  </si>
-  <si>
-    <t>JEMOUO</t>
-  </si>
-  <si>
-    <t>59999795152</t>
-  </si>
-  <si>
-    <t>DUQFHU</t>
-  </si>
-  <si>
-    <t>59999749972</t>
-  </si>
-  <si>
-    <t>BMNUTO</t>
-  </si>
-  <si>
-    <t>59999862638</t>
-  </si>
-  <si>
-    <t>NJMAQS</t>
-  </si>
-  <si>
-    <t>335577018915037322</t>
-  </si>
-  <si>
-    <t>ICIC83198500931</t>
-  </si>
-  <si>
-    <t>ICIC88782839976</t>
-  </si>
-  <si>
-    <t>7051443803</t>
-  </si>
-  <si>
-    <t>SaiMathur58261@example.net</t>
-  </si>
-  <si>
-    <t>1977-12-07</t>
-  </si>
-  <si>
-    <t>424265736194611</t>
-  </si>
-  <si>
-    <t>fa93d317e8b544f6</t>
-  </si>
-  <si>
-    <t>846154714434829</t>
-  </si>
-  <si>
-    <t>IDEP617448857698TS9P</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>59999878976</t>
-  </si>
-  <si>
-    <t>HIBPNF</t>
-  </si>
-  <si>
-    <t>BNPL7164482388589745</t>
-  </si>
-  <si>
-    <t>59999338966</t>
-  </si>
-  <si>
-    <t>KNTOCG</t>
-  </si>
-  <si>
-    <t>59999132475</t>
-  </si>
-  <si>
-    <t>UMKLTO</t>
-  </si>
-  <si>
-    <t>59999819660</t>
-  </si>
-  <si>
-    <t>NBRADC</t>
-  </si>
-  <si>
-    <t>59999905689</t>
-  </si>
-  <si>
-    <t>GGQTKL</t>
-  </si>
-  <si>
-    <t>59999602397</t>
-  </si>
-  <si>
-    <t>TSFFEU</t>
-  </si>
-  <si>
-    <t>59999762281</t>
-  </si>
-  <si>
-    <t>OBHKOC</t>
-  </si>
-  <si>
-    <t>59999982011</t>
-  </si>
-  <si>
-    <t>SGNMDA</t>
-  </si>
-  <si>
-    <t>59999629401</t>
-  </si>
-  <si>
-    <t>NISGLF</t>
-  </si>
-  <si>
-    <t>59999293839</t>
-  </si>
-  <si>
-    <t>HFECCB</t>
-  </si>
-  <si>
-    <t>335577017051443803</t>
-  </si>
-  <si>
-    <t>ICIC85841552712</t>
-  </si>
-  <si>
-    <t>ICIC96543609110</t>
-  </si>
-  <si>
-    <t>8387346389</t>
-  </si>
-  <si>
-    <t>Runjhun</t>
-  </si>
-  <si>
-    <t>UsmanYogi12453@example.net</t>
-  </si>
-  <si>
-    <t>1989-04-24</t>
-  </si>
-  <si>
-    <t>707372017989954</t>
-  </si>
-  <si>
-    <t>8e72702a8a38d210</t>
-  </si>
-  <si>
-    <t>412365358612132</t>
-  </si>
-  <si>
-    <t>IDEP647158473149D519</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
     <t>192</t>
   </si>
   <si>
-    <t>59999489842</t>
-  </si>
-  <si>
-    <t>QMHHAF</t>
-  </si>
-  <si>
-    <t>BNPL1746586595649132</t>
-  </si>
-  <si>
-    <t>59999654006</t>
-  </si>
-  <si>
-    <t>OBMRCT</t>
-  </si>
-  <si>
-    <t>59999293535</t>
-  </si>
-  <si>
-    <t>FHESNC</t>
-  </si>
-  <si>
-    <t>59999010528</t>
-  </si>
-  <si>
-    <t>GITAJC</t>
-  </si>
-  <si>
-    <t>59999281162</t>
-  </si>
-  <si>
-    <t>TGORHH</t>
-  </si>
-  <si>
-    <t>59999765281</t>
-  </si>
-  <si>
-    <t>ABBUJP</t>
-  </si>
-  <si>
-    <t>59999742319</t>
-  </si>
-  <si>
-    <t>THGHUR</t>
-  </si>
-  <si>
-    <t>59999112077</t>
-  </si>
-  <si>
-    <t>HKDGDL</t>
-  </si>
-  <si>
-    <t>59999851660</t>
-  </si>
-  <si>
-    <t>CMHGOR</t>
-  </si>
-  <si>
-    <t>59999410169</t>
-  </si>
-  <si>
-    <t>AULMAB</t>
-  </si>
-  <si>
-    <t>335577018387346389</t>
-  </si>
-  <si>
-    <t>ICIC89656638170</t>
-  </si>
-  <si>
-    <t>ICIC81632459741</t>
-  </si>
-  <si>
-    <t>7486151894</t>
-  </si>
-  <si>
-    <t>Vaishali</t>
-  </si>
-  <si>
-    <t>WafaRau41906@example.net</t>
-  </si>
-  <si>
-    <t>1986-06-03</t>
-  </si>
-  <si>
-    <t>035113643203771</t>
-  </si>
-  <si>
-    <t>cbfed5e485a2f3ac</t>
-  </si>
-  <si>
-    <t>674136898283996</t>
-  </si>
-  <si>
-    <t>IDEP147687431888JMIS</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>59999940779</t>
-  </si>
-  <si>
-    <t>KFOQNQ</t>
-  </si>
-  <si>
-    <t>BNPL7416876381868392</t>
-  </si>
-  <si>
-    <t>59999313904</t>
-  </si>
-  <si>
-    <t>JPMQGG</t>
-  </si>
-  <si>
-    <t>59999944314</t>
-  </si>
-  <si>
-    <t>LDLEOJ</t>
-  </si>
-  <si>
-    <t>59999236144</t>
-  </si>
-  <si>
-    <t>ONIUAU</t>
-  </si>
-  <si>
-    <t>59999402981</t>
-  </si>
-  <si>
-    <t>TDRFKD</t>
-  </si>
-  <si>
-    <t>59999846074</t>
-  </si>
-  <si>
-    <t>BGBFNE</t>
-  </si>
-  <si>
-    <t>59999290292</t>
-  </si>
-  <si>
-    <t>AHGCUT</t>
-  </si>
-  <si>
-    <t>59999204928</t>
-  </si>
-  <si>
-    <t>JKRPLS</t>
-  </si>
-  <si>
-    <t>59999733798</t>
-  </si>
-  <si>
-    <t>TJCTPP</t>
-  </si>
-  <si>
-    <t>59999914618</t>
-  </si>
-  <si>
-    <t>RHRTIP</t>
-  </si>
-  <si>
-    <t>335577017486151894</t>
-  </si>
-  <si>
-    <t>ICIC97691445794</t>
-  </si>
-  <si>
-    <t>ICIC84761964087</t>
-  </si>
-  <si>
-    <t>9013760767</t>
-  </si>
-  <si>
-    <t>LalitBhavsar43933@example.net</t>
-  </si>
-  <si>
-    <t>1985-12-08</t>
-  </si>
-  <si>
-    <t>271750308677741</t>
-  </si>
-  <si>
-    <t>fa7e8b3cb42def4c</t>
-  </si>
-  <si>
-    <t>995662780862417</t>
-  </si>
-  <si>
-    <t>7150217466</t>
-  </si>
-  <si>
-    <t>VikrantSane96887@example.net</t>
-  </si>
-  <si>
-    <t>1989-05-24</t>
-  </si>
-  <si>
-    <t>771503319168712</t>
-  </si>
-  <si>
-    <t>5e60d3651a77554a</t>
-  </si>
-  <si>
-    <t>918926496339307</t>
-  </si>
-  <si>
-    <t>IDEP6471184916879G4N</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>59999357476</t>
-  </si>
-  <si>
-    <t>OENTET</t>
-  </si>
-  <si>
-    <t>BNPL4617187814376231</t>
-  </si>
-  <si>
-    <t>59999805161</t>
-  </si>
-  <si>
-    <t>ELHDCD</t>
-  </si>
-  <si>
-    <t>59999794603</t>
-  </si>
-  <si>
-    <t>BCCSJJ</t>
-  </si>
-  <si>
-    <t>59999799488</t>
-  </si>
-  <si>
-    <t>QNIIOJ</t>
-  </si>
-  <si>
-    <t>59999922962</t>
-  </si>
-  <si>
-    <t>EEJOON</t>
-  </si>
-  <si>
-    <t>59999140198</t>
-  </si>
-  <si>
-    <t>RBMHMU</t>
-  </si>
-  <si>
-    <t>59999178160</t>
-  </si>
-  <si>
-    <t>MBPOMJ</t>
-  </si>
-  <si>
-    <t>59999482316</t>
-  </si>
-  <si>
-    <t>GONPJJ</t>
-  </si>
-  <si>
-    <t>59999189592</t>
-  </si>
-  <si>
-    <t>GRBAEH</t>
-  </si>
-  <si>
-    <t>59999746147</t>
-  </si>
-  <si>
-    <t>CDLJQC</t>
-  </si>
-  <si>
-    <t>335577017150217466</t>
-  </si>
-  <si>
-    <t>ICIC89455459804</t>
-  </si>
-  <si>
-    <t>ICIC80313436119</t>
-  </si>
-  <si>
-    <t>6314971609</t>
-  </si>
-  <si>
-    <t>Vineeta</t>
-  </si>
-  <si>
-    <t>AayushmanSanghvi35934@example.net</t>
-  </si>
-  <si>
-    <t>1974-05-22</t>
-  </si>
-  <si>
-    <t>991933843292882</t>
-  </si>
-  <si>
-    <t>a3915d62db20da16</t>
-  </si>
-  <si>
-    <t>873278237598848</t>
-  </si>
-  <si>
-    <t>IDEP147622637854STGN</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>59999453282</t>
-  </si>
-  <si>
-    <t>NHLSLQ</t>
-  </si>
-  <si>
-    <t>BNPL1476228394697345</t>
-  </si>
-  <si>
-    <t>59999423688</t>
-  </si>
-  <si>
-    <t>HJDPMH</t>
-  </si>
-  <si>
-    <t>59999537535</t>
-  </si>
-  <si>
-    <t>SUJIUT</t>
-  </si>
-  <si>
-    <t>59999531159</t>
-  </si>
-  <si>
-    <t>RDHTCH</t>
-  </si>
-  <si>
-    <t>59999781723</t>
-  </si>
-  <si>
-    <t>NRHQAR</t>
-  </si>
-  <si>
-    <t>59999520652</t>
-  </si>
-  <si>
-    <t>JFOBGS</t>
-  </si>
-  <si>
-    <t>59999820938</t>
-  </si>
-  <si>
-    <t>LIIELG</t>
-  </si>
-  <si>
-    <t>59999225286</t>
-  </si>
-  <si>
-    <t>CEHUPE</t>
-  </si>
-  <si>
-    <t>59999304515</t>
-  </si>
-  <si>
-    <t>DJHAJI</t>
-  </si>
-  <si>
-    <t>59999365632</t>
-  </si>
-  <si>
-    <t>JJSHFP</t>
-  </si>
-  <si>
-    <t>335577016314971609</t>
-  </si>
-  <si>
-    <t>ICIC98444790474</t>
-  </si>
-  <si>
-    <t>ICIC89179614039</t>
-  </si>
-  <si>
-    <t>6455630082</t>
-  </si>
-  <si>
-    <t>Ruchi</t>
-  </si>
-  <si>
-    <t>SubhashKapoor22469@example.net</t>
-  </si>
-  <si>
-    <t>1974-01-29</t>
-  </si>
-  <si>
-    <t>485689180987012</t>
-  </si>
-  <si>
-    <t>d45d796834d66ea9</t>
-  </si>
-  <si>
-    <t>994943301516232</t>
-  </si>
-  <si>
-    <t>IDEP167564315523XL2G</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>59999835682</t>
-  </si>
-  <si>
-    <t>BNHMNS</t>
-  </si>
-  <si>
-    <t>BNPL7516644835827458</t>
-  </si>
-  <si>
-    <t>59999418628</t>
-  </si>
-  <si>
-    <t>QDOPOC</t>
-  </si>
-  <si>
-    <t>59999434039</t>
-  </si>
-  <si>
-    <t>AHFQIG</t>
-  </si>
-  <si>
-    <t>59999211428</t>
-  </si>
-  <si>
-    <t>BGABKG</t>
-  </si>
-  <si>
-    <t>59999060682</t>
-  </si>
-  <si>
-    <t>PCRUHP</t>
-  </si>
-  <si>
-    <t>59999000477</t>
-  </si>
-  <si>
-    <t>DPUBEA</t>
-  </si>
-  <si>
-    <t>59999036623</t>
-  </si>
-  <si>
-    <t>AGPLQP</t>
-  </si>
-  <si>
-    <t>59999687427</t>
-  </si>
-  <si>
-    <t>FSKOCK</t>
-  </si>
-  <si>
-    <t>59999916883</t>
-  </si>
-  <si>
-    <t>IDGHID</t>
-  </si>
-  <si>
-    <t>59999446802</t>
-  </si>
-  <si>
-    <t>LRFBBK</t>
-  </si>
-  <si>
-    <t>335577016455630082</t>
-  </si>
-  <si>
-    <t>ICIC94452835098</t>
-  </si>
-  <si>
-    <t>ICIC94011921380</t>
+    <t>59999510148</t>
+  </si>
+  <si>
+    <t>AOBFEL</t>
+  </si>
+  <si>
+    <t>BNPL6571884291585243</t>
+  </si>
+  <si>
+    <t>59999573082</t>
+  </si>
+  <si>
+    <t>RNAGES</t>
+  </si>
+  <si>
+    <t>59999498157</t>
+  </si>
+  <si>
+    <t>PGTGJK</t>
+  </si>
+  <si>
+    <t>59999911881</t>
+  </si>
+  <si>
+    <t>LNGNOG</t>
+  </si>
+  <si>
+    <t>59999554293</t>
+  </si>
+  <si>
+    <t>UFPKPI</t>
+  </si>
+  <si>
+    <t>59999611039</t>
+  </si>
+  <si>
+    <t>CHOTFT</t>
+  </si>
+  <si>
+    <t>59999657100</t>
+  </si>
+  <si>
+    <t>RSIFLK</t>
+  </si>
+  <si>
+    <t>59999954419</t>
+  </si>
+  <si>
+    <t>BPKRMQ</t>
+  </si>
+  <si>
+    <t>59999024767</t>
+  </si>
+  <si>
+    <t>HISCSQ</t>
+  </si>
+  <si>
+    <t>59999169985</t>
+  </si>
+  <si>
+    <t>FKKIJC</t>
+  </si>
+  <si>
+    <t>335577017143269217</t>
+  </si>
+  <si>
+    <t>ICIC84973503356</t>
+  </si>
+  <si>
+    <t>ICIC85105571103</t>
   </si>
 </sst>
 </file>
@@ -3867,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3934,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3986,21 +1556,23 @@
       <c r="A2" t="s">
         <v>127</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
       <c r="C2" t="s">
-        <v>714</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>1104</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>1105</v>
+        <v>295</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4337,7 +1909,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>1087</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -4434,16 +2006,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>1080</v>
+        <v>267</v>
       </c>
       <c r="C2" t="s">
-        <v>1081</v>
+        <v>268</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1079</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4546,7 +2118,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1106</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4558,7 +2130,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>1107</v>
+        <v>297</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4567,7 +2139,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>192.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4659,13 +2231,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>1076</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>1077</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>1078</v>
+        <v>265</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -5870,7 +3442,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1106</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -5882,7 +3454,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>1108</v>
+        <v>298</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -5891,7 +3463,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>192.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6018,10 +3590,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>1077</v>
+        <v>264</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -6033,7 +3605,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>1079</v>
+        <v>266</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -6041,9 +3613,11 @@
       <c r="K2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>259</v>
+      </c>
       <c r="M2" t="n">
-        <v>4224446.0</v>
+        <v>4224829.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -6065,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750BBC0A-5573-4F9C-B1FA-FBD30A0E9E0D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6103,7 +3677,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -6120,7 +3694,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -6137,7 +3711,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -6154,7 +3728,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -6171,7 +3745,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>1075</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -6323,7 +3897,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>1079</v>
+        <v>266</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -6567,7 +4141,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>1079</v>
+        <v>266</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -6782,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1076</v>
+        <v>263</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -7162,7 +4736,9 @@
       <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
       <c r="C2">
         <v>303</v>
       </c>
@@ -7180,7 +4756,9 @@
       <c r="A3" t="s">
         <v>214</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
       <c r="C3">
         <v>563</v>
       </c>
@@ -7198,7 +4776,9 @@
       <c r="A4" t="s">
         <v>221</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
       <c r="C4">
         <v>645</v>
       </c>
@@ -7216,7 +4796,9 @@
       <c r="A5" t="s">
         <v>222</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
       <c r="C5">
         <v>668</v>
       </c>
@@ -7234,7 +4816,9 @@
       <c r="A6" t="s">
         <v>223</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
       <c r="C6">
         <v>725</v>
       </c>
@@ -7252,7 +4836,9 @@
       <c r="A7" t="s">
         <v>224</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>259</v>
+      </c>
       <c r="C7">
         <v>800</v>
       </c>
@@ -7270,7 +4856,9 @@
       <c r="A8" t="s">
         <v>228</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
       <c r="C8">
         <v>725</v>
       </c>
@@ -7328,7 +4916,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>714</v>
+        <v>274</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -7342,7 +4930,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>714</v>
+        <v>274</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="333">
   <si>
     <t>TestCases</t>
   </si>
@@ -942,6 +942,108 @@
   </si>
   <si>
     <t>ICIC85105571103</t>
+  </si>
+  <si>
+    <t>9163533347</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>RashidSheth95661@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-18</t>
+  </si>
+  <si>
+    <t>463066861803139</t>
+  </si>
+  <si>
+    <t>6e4f75dbbbe4da00</t>
+  </si>
+  <si>
+    <t>196802730437665</t>
+  </si>
+  <si>
+    <t>IDEP561798113793OV7J</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>59999046725</t>
+  </si>
+  <si>
+    <t>CBCGDF</t>
+  </si>
+  <si>
+    <t>59999637588</t>
+  </si>
+  <si>
+    <t>LLKTMJ</t>
+  </si>
+  <si>
+    <t>59999868528</t>
+  </si>
+  <si>
+    <t>HMIMCD</t>
+  </si>
+  <si>
+    <t>59999375336</t>
+  </si>
+  <si>
+    <t>GDCLSH</t>
+  </si>
+  <si>
+    <t>59999750282</t>
+  </si>
+  <si>
+    <t>GBSIBC</t>
+  </si>
+  <si>
+    <t>59999114055</t>
+  </si>
+  <si>
+    <t>TSEGTQ</t>
+  </si>
+  <si>
+    <t>59999407101</t>
+  </si>
+  <si>
+    <t>IEGLHK</t>
+  </si>
+  <si>
+    <t>59999494487</t>
+  </si>
+  <si>
+    <t>NNUQFD</t>
+  </si>
+  <si>
+    <t>59999183466</t>
+  </si>
+  <si>
+    <t>JNAPRI</t>
+  </si>
+  <si>
+    <t>59999535967</t>
+  </si>
+  <si>
+    <t>GNDLTR</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1557,22 +1659,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1908,9 +2010,7 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>277</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2006,16 +2106,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2231,13 +2331,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3590,10 +3690,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3605,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3614,10 +3714,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="M2" t="n">
-        <v>4224829.0</v>
+        <v>4224869.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -3677,7 +3777,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3694,7 +3794,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3711,7 +3811,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3728,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -3745,7 +3845,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3897,7 +3997,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4141,7 +4241,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4356,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -4737,7 +4837,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4757,7 +4857,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4777,7 +4877,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4797,7 +4897,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4817,7 +4917,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4837,7 +4937,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4857,7 +4957,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4916,7 +5016,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -4930,7 +5030,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B941992-6B1C-4923-A5DC-621C14B157A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDEAFD7-8B73-4460-B7B5-F430A20B5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="316">
   <si>
     <t>TestCases</t>
   </si>
@@ -791,259 +791,208 @@
     <t>IDEP617285859149GLNE</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Bhaagyasree</t>
-  </si>
-  <si>
-    <t>335577016455630082</t>
-  </si>
-  <si>
-    <t>ICIC94452835098</t>
-  </si>
-  <si>
-    <t>ICIC94011921380</t>
-  </si>
-  <si>
-    <t>9444881456</t>
-  </si>
-  <si>
-    <t>KarimMani28166@example.net</t>
-  </si>
-  <si>
-    <t>1987-08-04</t>
-  </si>
-  <si>
-    <t>226143690435173</t>
-  </si>
-  <si>
-    <t>61fa1ed65a48cebd</t>
-  </si>
-  <si>
-    <t>969561323763433</t>
-  </si>
-  <si>
-    <t>IDEP765186687615Q1H4</t>
-  </si>
-  <si>
-    <t>59999565260</t>
-  </si>
-  <si>
-    <t>UUETKL</t>
-  </si>
-  <si>
-    <t>7143269217</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>HassanDesai79430@example.net</t>
-  </si>
-  <si>
-    <t>1970-08-26</t>
-  </si>
-  <si>
-    <t>733451382965696</t>
-  </si>
-  <si>
-    <t>1f62597c441fc1b0</t>
-  </si>
-  <si>
-    <t>343191301717685</t>
+    <t>335577017143269217</t>
+  </si>
+  <si>
+    <t>ICIC84973503356</t>
+  </si>
+  <si>
+    <t>ICIC85105571103</t>
+  </si>
+  <si>
+    <t>6096387774</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>ZahirRamaswamy18697@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-16</t>
+  </si>
+  <si>
+    <t>039935608257350</t>
+  </si>
+  <si>
+    <t>6969f098b1574e33</t>
+  </si>
+  <si>
+    <t>129894164105662</t>
+  </si>
+  <si>
+    <t>IDEP61574322667943JU</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>KBQSOM</t>
+  </si>
+  <si>
+    <t>6287037597</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>NawabGuha48694@example.net</t>
+  </si>
+  <si>
+    <t>1985-09-27</t>
+  </si>
+  <si>
+    <t>788898292143331</t>
+  </si>
+  <si>
+    <t>dd853b647da8b85f</t>
+  </si>
+  <si>
+    <t>225807923167909</t>
+  </si>
+  <si>
+    <t>IDEP567143621248IR6L</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
   <si>
     <t>145</t>
   </si>
   <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>59999510148</t>
-  </si>
-  <si>
-    <t>AOBFEL</t>
-  </si>
-  <si>
-    <t>BNPL6571884291585243</t>
-  </si>
-  <si>
-    <t>59999573082</t>
-  </si>
-  <si>
-    <t>RNAGES</t>
-  </si>
-  <si>
-    <t>59999498157</t>
-  </si>
-  <si>
-    <t>PGTGJK</t>
-  </si>
-  <si>
-    <t>59999911881</t>
-  </si>
-  <si>
-    <t>LNGNOG</t>
-  </si>
-  <si>
-    <t>59999554293</t>
-  </si>
-  <si>
-    <t>UFPKPI</t>
-  </si>
-  <si>
-    <t>59999611039</t>
-  </si>
-  <si>
-    <t>CHOTFT</t>
-  </si>
-  <si>
-    <t>59999657100</t>
-  </si>
-  <si>
-    <t>RSIFLK</t>
-  </si>
-  <si>
-    <t>59999954419</t>
-  </si>
-  <si>
-    <t>BPKRMQ</t>
-  </si>
-  <si>
-    <t>59999024767</t>
-  </si>
-  <si>
-    <t>HISCSQ</t>
-  </si>
-  <si>
-    <t>59999169985</t>
-  </si>
-  <si>
-    <t>FKKIJC</t>
-  </si>
-  <si>
-    <t>335577017143269217</t>
-  </si>
-  <si>
-    <t>ICIC84973503356</t>
-  </si>
-  <si>
-    <t>ICIC85105571103</t>
-  </si>
-  <si>
-    <t>9163533347</t>
-  </si>
-  <si>
-    <t>Alpa</t>
-  </si>
-  <si>
-    <t>RashidSheth95661@example.net</t>
-  </si>
-  <si>
-    <t>1972-08-18</t>
-  </si>
-  <si>
-    <t>463066861803139</t>
-  </si>
-  <si>
-    <t>6e4f75dbbbe4da00</t>
-  </si>
-  <si>
-    <t>196802730437665</t>
-  </si>
-  <si>
-    <t>IDEP561798113793OV7J</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>59999046725</t>
-  </si>
-  <si>
-    <t>CBCGDF</t>
-  </si>
-  <si>
-    <t>59999637588</t>
-  </si>
-  <si>
-    <t>LLKTMJ</t>
-  </si>
-  <si>
-    <t>59999868528</t>
-  </si>
-  <si>
-    <t>HMIMCD</t>
-  </si>
-  <si>
-    <t>59999375336</t>
-  </si>
-  <si>
-    <t>GDCLSH</t>
-  </si>
-  <si>
-    <t>59999750282</t>
-  </si>
-  <si>
-    <t>GBSIBC</t>
-  </si>
-  <si>
-    <t>59999114055</t>
-  </si>
-  <si>
-    <t>TSEGTQ</t>
-  </si>
-  <si>
-    <t>59999407101</t>
-  </si>
-  <si>
-    <t>IEGLHK</t>
-  </si>
-  <si>
-    <t>59999494487</t>
-  </si>
-  <si>
-    <t>NNUQFD</t>
-  </si>
-  <si>
-    <t>59999183466</t>
-  </si>
-  <si>
-    <t>JNAPRI</t>
-  </si>
-  <si>
-    <t>59999535967</t>
-  </si>
-  <si>
-    <t>GNDLTR</t>
+    <t>191</t>
+  </si>
+  <si>
+    <t>59999431828</t>
+  </si>
+  <si>
+    <t>DKGCNL</t>
+  </si>
+  <si>
+    <t>8416934020</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>KrishnaBhattacharyya32580@example.net</t>
+  </si>
+  <si>
+    <t>1977-01-21</t>
+  </si>
+  <si>
+    <t>951217846504008</t>
+  </si>
+  <si>
+    <t>cf4a69b4209faabe</t>
+  </si>
+  <si>
+    <t>459726671630131</t>
+  </si>
+  <si>
+    <t>IDEP715643848637UNTK</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>59999657598</t>
+  </si>
+  <si>
+    <t>TRMLOK</t>
+  </si>
+  <si>
+    <t>BNPL5671448324818264</t>
+  </si>
+  <si>
+    <t>59999001591</t>
+  </si>
+  <si>
+    <t>EJSQSS</t>
+  </si>
+  <si>
+    <t>59999012367</t>
+  </si>
+  <si>
+    <t>SSOHBQ</t>
+  </si>
+  <si>
+    <t>59999615375</t>
+  </si>
+  <si>
+    <t>NHLGDL</t>
+  </si>
+  <si>
+    <t>59999468406</t>
+  </si>
+  <si>
+    <t>NAFMIM</t>
+  </si>
+  <si>
+    <t>59999856405</t>
+  </si>
+  <si>
+    <t>IPBAOM</t>
+  </si>
+  <si>
+    <t>59999247233</t>
+  </si>
+  <si>
+    <t>EDTNNS</t>
+  </si>
+  <si>
+    <t>59999347455</t>
+  </si>
+  <si>
+    <t>LEUJQT</t>
+  </si>
+  <si>
+    <t>59999793365</t>
+  </si>
+  <si>
+    <t>BUMQSB</t>
+  </si>
+  <si>
+    <t>59999187883</t>
+  </si>
+  <si>
+    <t>IDNIGT</t>
+  </si>
+  <si>
+    <t>335577018416934020</t>
+  </si>
+  <si>
+    <t>ICIC85870806264</t>
+  </si>
+  <si>
+    <t>ICIC89909217032</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1607,7 +1556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,22 +1608,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2010,7 +1959,9 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2106,16 +2057,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2218,7 +2169,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2230,7 +2181,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2239,7 +2190,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>192.0</v>
+        <v>158.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2331,13 +2282,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3542,7 +3493,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3554,7 +3505,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3563,7 +3514,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>192.0</v>
+        <v>158.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3690,10 +3641,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3705,7 +3656,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3714,10 +3665,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="M2" t="n">
-        <v>4224869.0</v>
+        <v>4225067.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -3777,7 +3728,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3794,7 +3745,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3811,7 +3762,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3828,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -3845,7 +3796,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3997,7 +3948,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4241,7 +4192,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4456,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -4837,7 +4788,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4857,7 +4808,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4877,7 +4828,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4897,7 +4848,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4917,7 +4868,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4937,7 +4888,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4957,7 +4908,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5016,7 +4967,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5030,7 +4981,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="424">
   <si>
     <t>TestCases</t>
   </si>
@@ -993,6 +993,330 @@
   </si>
   <si>
     <t>ICIC89909217032</t>
+  </si>
+  <si>
+    <t>9401701220</t>
+  </si>
+  <si>
+    <t>Anshula</t>
+  </si>
+  <si>
+    <t>RickyRaju96235@example.net</t>
+  </si>
+  <si>
+    <t>1989-02-15</t>
+  </si>
+  <si>
+    <t>276538498302120</t>
+  </si>
+  <si>
+    <t>86c487d0b062e2b7</t>
+  </si>
+  <si>
+    <t>400749531838686</t>
+  </si>
+  <si>
+    <t>IDEP671546434213A9EV</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>59999552847</t>
+  </si>
+  <si>
+    <t>PJCFIS</t>
+  </si>
+  <si>
+    <t>59999172977</t>
+  </si>
+  <si>
+    <t>NFSTFT</t>
+  </si>
+  <si>
+    <t>59999180492</t>
+  </si>
+  <si>
+    <t>DJMPFQ</t>
+  </si>
+  <si>
+    <t>59999560157</t>
+  </si>
+  <si>
+    <t>UPQMTP</t>
+  </si>
+  <si>
+    <t>59999657714</t>
+  </si>
+  <si>
+    <t>NPJHQH</t>
+  </si>
+  <si>
+    <t>59999927143</t>
+  </si>
+  <si>
+    <t>EICCUC</t>
+  </si>
+  <si>
+    <t>59999327767</t>
+  </si>
+  <si>
+    <t>NTGHTB</t>
+  </si>
+  <si>
+    <t>59999806075</t>
+  </si>
+  <si>
+    <t>NELQIU</t>
+  </si>
+  <si>
+    <t>59999522193</t>
+  </si>
+  <si>
+    <t>RRFLNB</t>
+  </si>
+  <si>
+    <t>59999671315</t>
+  </si>
+  <si>
+    <t>IITLSL</t>
+  </si>
+  <si>
+    <t>6747419377</t>
+  </si>
+  <si>
+    <t>Chandni</t>
+  </si>
+  <si>
+    <t>CharandeepGoswami23367@example.net</t>
+  </si>
+  <si>
+    <t>1987-09-28</t>
+  </si>
+  <si>
+    <t>231054555231461</t>
+  </si>
+  <si>
+    <t>b8650e6a7d07152a</t>
+  </si>
+  <si>
+    <t>941123523588830</t>
+  </si>
+  <si>
+    <t>IDEP516747491954BZV2</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>59999216221</t>
+  </si>
+  <si>
+    <t>JREDGP</t>
+  </si>
+  <si>
+    <t>BNPL5167476753873657</t>
+  </si>
+  <si>
+    <t>59999835876</t>
+  </si>
+  <si>
+    <t>FDRGQF</t>
+  </si>
+  <si>
+    <t>59999184034</t>
+  </si>
+  <si>
+    <t>JHABNP</t>
+  </si>
+  <si>
+    <t>59999335500</t>
+  </si>
+  <si>
+    <t>QKGRIT</t>
+  </si>
+  <si>
+    <t>59999310849</t>
+  </si>
+  <si>
+    <t>PDTLII</t>
+  </si>
+  <si>
+    <t>59999130098</t>
+  </si>
+  <si>
+    <t>APDHHS</t>
+  </si>
+  <si>
+    <t>59999072789</t>
+  </si>
+  <si>
+    <t>PUIBOS</t>
+  </si>
+  <si>
+    <t>59999485818</t>
+  </si>
+  <si>
+    <t>HLLJRA</t>
+  </si>
+  <si>
+    <t>59999892376</t>
+  </si>
+  <si>
+    <t>MJJATF</t>
+  </si>
+  <si>
+    <t>59999426040</t>
+  </si>
+  <si>
+    <t>HIIPQT</t>
+  </si>
+  <si>
+    <t>335577016747419377</t>
+  </si>
+  <si>
+    <t>ICIC92443872568</t>
+  </si>
+  <si>
+    <t>ICIC89115581019</t>
+  </si>
+  <si>
+    <t>7327541465</t>
+  </si>
+  <si>
+    <t>Ritika</t>
+  </si>
+  <si>
+    <t>EhsaanSeshadri39256@example.net</t>
+  </si>
+  <si>
+    <t>1993-09-14</t>
+  </si>
+  <si>
+    <t>048941241527430</t>
+  </si>
+  <si>
+    <t>623fd6817320b269</t>
+  </si>
+  <si>
+    <t>714944836364204</t>
+  </si>
+  <si>
+    <t>IDEP671548333277G4KX</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>59999450272</t>
+  </si>
+  <si>
+    <t>GQBCKQ</t>
+  </si>
+  <si>
+    <t>BNPL1756485252683257</t>
+  </si>
+  <si>
+    <t>59999421044</t>
+  </si>
+  <si>
+    <t>TJLCEE</t>
+  </si>
+  <si>
+    <t>59999929159</t>
+  </si>
+  <si>
+    <t>JLMPRE</t>
+  </si>
+  <si>
+    <t>59999046049</t>
+  </si>
+  <si>
+    <t>DRJFDP</t>
+  </si>
+  <si>
+    <t>59999408419</t>
+  </si>
+  <si>
+    <t>LQMFDF</t>
+  </si>
+  <si>
+    <t>59999934560</t>
+  </si>
+  <si>
+    <t>BOJCGR</t>
+  </si>
+  <si>
+    <t>59999633854</t>
+  </si>
+  <si>
+    <t>QDKNUJ</t>
+  </si>
+  <si>
+    <t>59999959309</t>
+  </si>
+  <si>
+    <t>UJQQDR</t>
+  </si>
+  <si>
+    <t>59999326517</t>
+  </si>
+  <si>
+    <t>PMLMLA</t>
+  </si>
+  <si>
+    <t>59999513398</t>
+  </si>
+  <si>
+    <t>QRGEQQ</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1608,22 +1932,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1960,7 +2284,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -2057,16 +2381,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2169,7 +2493,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2181,7 +2505,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2190,7 +2514,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>158.0</v>
+        <v>196.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2282,13 +2606,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3493,7 +3817,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>386</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3505,7 +3829,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>315</v>
+        <v>388</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3514,7 +3838,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>158.0</v>
+        <v>196.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3641,10 +3965,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3656,7 +3980,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3665,10 +3989,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="M2" t="n">
-        <v>4225067.0</v>
+        <v>4225174.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -3728,7 +4052,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3745,7 +4069,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -3762,7 +4086,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -3779,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -3796,7 +4120,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -3948,7 +4272,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4192,7 +4516,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4407,7 +4731,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>390</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -4788,7 +5112,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4808,7 +5132,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4828,7 +5152,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4848,7 +5172,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4868,7 +5192,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4888,7 +5212,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4908,7 +5232,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4967,7 +5291,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -4981,7 +5305,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="567">
   <si>
     <t>TestCases</t>
   </si>
@@ -1317,6 +1317,435 @@
   </si>
   <si>
     <t>QRGEQQ</t>
+  </si>
+  <si>
+    <t>7419526394</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>NareshKari75883@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-28</t>
+  </si>
+  <si>
+    <t>707347731368867</t>
+  </si>
+  <si>
+    <t>7ed84b3dfe745c93</t>
+  </si>
+  <si>
+    <t>165516594878353</t>
+  </si>
+  <si>
+    <t>IDEP765168363693Y1IV</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>59999170346</t>
+  </si>
+  <si>
+    <t>RQPHFN</t>
+  </si>
+  <si>
+    <t>59999658378</t>
+  </si>
+  <si>
+    <t>NMHBDK</t>
+  </si>
+  <si>
+    <t>59999324531</t>
+  </si>
+  <si>
+    <t>NFHJOO</t>
+  </si>
+  <si>
+    <t>59999247125</t>
+  </si>
+  <si>
+    <t>OASHNE</t>
+  </si>
+  <si>
+    <t>59999079499</t>
+  </si>
+  <si>
+    <t>CSFIIN</t>
+  </si>
+  <si>
+    <t>59999721965</t>
+  </si>
+  <si>
+    <t>NRBCUK</t>
+  </si>
+  <si>
+    <t>59999259581</t>
+  </si>
+  <si>
+    <t>MUSHMP</t>
+  </si>
+  <si>
+    <t>59999690668</t>
+  </si>
+  <si>
+    <t>EHNJTB</t>
+  </si>
+  <si>
+    <t>59999295324</t>
+  </si>
+  <si>
+    <t>GHGGKJ</t>
+  </si>
+  <si>
+    <t>59999622279</t>
+  </si>
+  <si>
+    <t>KPLINF</t>
+  </si>
+  <si>
+    <t>6447460261</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>SumitAtwal66524@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-21</t>
+  </si>
+  <si>
+    <t>788300638821597</t>
+  </si>
+  <si>
+    <t>b62f20fc0c75c7c2</t>
+  </si>
+  <si>
+    <t>841166992972085</t>
+  </si>
+  <si>
+    <t>IDEP1576618885468U3D</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>59999731930</t>
+  </si>
+  <si>
+    <t>FOQMRR</t>
+  </si>
+  <si>
+    <t>BNPL1756628835853957</t>
+  </si>
+  <si>
+    <t>59999598575</t>
+  </si>
+  <si>
+    <t>SECHHK</t>
+  </si>
+  <si>
+    <t>59999310700</t>
+  </si>
+  <si>
+    <t>CORUOT</t>
+  </si>
+  <si>
+    <t>59999623650</t>
+  </si>
+  <si>
+    <t>ULHOKA</t>
+  </si>
+  <si>
+    <t>59999792852</t>
+  </si>
+  <si>
+    <t>GGEMFE</t>
+  </si>
+  <si>
+    <t>59999818837</t>
+  </si>
+  <si>
+    <t>OTASKI</t>
+  </si>
+  <si>
+    <t>59999262394</t>
+  </si>
+  <si>
+    <t>LCCNPR</t>
+  </si>
+  <si>
+    <t>59999279476</t>
+  </si>
+  <si>
+    <t>NNDCDB</t>
+  </si>
+  <si>
+    <t>59999311344</t>
+  </si>
+  <si>
+    <t>NDQEFB</t>
+  </si>
+  <si>
+    <t>59999156568</t>
+  </si>
+  <si>
+    <t>FPLSLI</t>
+  </si>
+  <si>
+    <t>335577016447460261</t>
+  </si>
+  <si>
+    <t>ICIC85215943497</t>
+  </si>
+  <si>
+    <t>ICIC88538008970</t>
+  </si>
+  <si>
+    <t>9306590162</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>JackMane55829@example.net</t>
+  </si>
+  <si>
+    <t>1972-01-20</t>
+  </si>
+  <si>
+    <t>415746472351482</t>
+  </si>
+  <si>
+    <t>ee8f94fd931ef51b</t>
+  </si>
+  <si>
+    <t>430754361782883</t>
+  </si>
+  <si>
+    <t>IDEP657162749812HTUI</t>
+  </si>
+  <si>
+    <t>9686727302</t>
+  </si>
+  <si>
+    <t>DaanishDate65755@example.net</t>
+  </si>
+  <si>
+    <t>1974-11-23</t>
+  </si>
+  <si>
+    <t>287231705874134</t>
+  </si>
+  <si>
+    <t>f066ec5d9001f503</t>
+  </si>
+  <si>
+    <t>385660042908356</t>
+  </si>
+  <si>
+    <t>IDEP715663888683GH6A</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>59999637203</t>
+  </si>
+  <si>
+    <t>FPSJFO</t>
+  </si>
+  <si>
+    <t>59999305587</t>
+  </si>
+  <si>
+    <t>GCSNDH</t>
+  </si>
+  <si>
+    <t>59999887470</t>
+  </si>
+  <si>
+    <t>GMUPUL</t>
+  </si>
+  <si>
+    <t>59999179843</t>
+  </si>
+  <si>
+    <t>KPPBCJ</t>
+  </si>
+  <si>
+    <t>59999550631</t>
+  </si>
+  <si>
+    <t>IJALTU</t>
+  </si>
+  <si>
+    <t>59999735709</t>
+  </si>
+  <si>
+    <t>RPHBFG</t>
+  </si>
+  <si>
+    <t>59999579274</t>
+  </si>
+  <si>
+    <t>IMCJJS</t>
+  </si>
+  <si>
+    <t>59999180473</t>
+  </si>
+  <si>
+    <t>ABDBTS</t>
+  </si>
+  <si>
+    <t>59999528993</t>
+  </si>
+  <si>
+    <t>NBUJBM</t>
+  </si>
+  <si>
+    <t>59999962357</t>
+  </si>
+  <si>
+    <t>BQMAPS</t>
+  </si>
+  <si>
+    <t>8650045494</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>AzharDoctor21001@example.net</t>
+  </si>
+  <si>
+    <t>1988-02-04</t>
+  </si>
+  <si>
+    <t>113962175333215</t>
+  </si>
+  <si>
+    <t>166439aa49707d48</t>
+  </si>
+  <si>
+    <t>266214112808866</t>
+  </si>
+  <si>
+    <t>IDEP1765642648841SFI</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>59999446818</t>
+  </si>
+  <si>
+    <t>IKOALK</t>
+  </si>
+  <si>
+    <t>BNPL6571644443367596</t>
+  </si>
+  <si>
+    <t>59999552371</t>
+  </si>
+  <si>
+    <t>OIESHP</t>
+  </si>
+  <si>
+    <t>59999308964</t>
+  </si>
+  <si>
+    <t>LJBRNO</t>
+  </si>
+  <si>
+    <t>59999303702</t>
+  </si>
+  <si>
+    <t>SLPFOC</t>
+  </si>
+  <si>
+    <t>59999646663</t>
+  </si>
+  <si>
+    <t>ISHOLC</t>
+  </si>
+  <si>
+    <t>59999950814</t>
+  </si>
+  <si>
+    <t>LGBRFP</t>
+  </si>
+  <si>
+    <t>59999145512</t>
+  </si>
+  <si>
+    <t>CTEHLS</t>
+  </si>
+  <si>
+    <t>59999583726</t>
+  </si>
+  <si>
+    <t>KIHUEB</t>
+  </si>
+  <si>
+    <t>59999744929</t>
+  </si>
+  <si>
+    <t>NDBREE</t>
+  </si>
+  <si>
+    <t>59999480482</t>
+  </si>
+  <si>
+    <t>BNGLST</t>
+  </si>
+  <si>
+    <t>335577018650045494</t>
+  </si>
+  <si>
+    <t>ICIC83025408840</t>
+  </si>
+  <si>
+    <t>ICIC95838232336</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1932,22 +2361,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>562</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>423</v>
+        <v>563</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2284,7 +2713,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>405</v>
+        <v>545</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
@@ -2381,16 +2810,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s">
-        <v>395</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2493,7 +2922,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>564</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2505,7 +2934,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>565</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2514,7 +2943,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>196.0</v>
+        <v>121.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2606,13 +3035,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>534</v>
       </c>
       <c r="F2" t="s">
-        <v>392</v>
+        <v>535</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -3817,7 +4246,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>386</v>
+        <v>564</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3829,7 +4258,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>388</v>
+        <v>566</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3838,7 +4267,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>196.0</v>
+        <v>121.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3965,10 +4394,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="E2" t="s">
-        <v>391</v>
+        <v>534</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -3980,7 +4409,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -3989,10 +4418,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="M2" t="n">
-        <v>4225174.0</v>
+        <v>4225416.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4052,7 +4481,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4069,7 +4498,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4086,7 +4515,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4103,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4120,7 +4549,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4272,7 +4701,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4516,7 +4945,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>536</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -4731,7 +5160,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>533</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5112,7 +5541,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5132,7 +5561,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5152,7 +5581,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5172,7 +5601,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5192,7 +5621,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5212,7 +5641,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5232,7 +5661,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>539</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5291,7 +5720,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5305,7 +5734,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="790">
   <si>
     <t>TestCases</t>
   </si>
@@ -1746,6 +1746,675 @@
   </si>
   <si>
     <t>ICIC95838232336</t>
+  </si>
+  <si>
+    <t>8641406570</t>
+  </si>
+  <si>
+    <t>Neela</t>
+  </si>
+  <si>
+    <t>SushantMall62529@example.net</t>
+  </si>
+  <si>
+    <t>1972-07-05</t>
+  </si>
+  <si>
+    <t>532813080156295</t>
+  </si>
+  <si>
+    <t>acc1f7d02b460df4</t>
+  </si>
+  <si>
+    <t>869221175985300</t>
+  </si>
+  <si>
+    <t>6812342903</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>AjayVyas55328@example.net</t>
+  </si>
+  <si>
+    <t>1995-11-09</t>
+  </si>
+  <si>
+    <t>925499137175549</t>
+  </si>
+  <si>
+    <t>e0982103a7a2fe5d</t>
+  </si>
+  <si>
+    <t>657090857954017</t>
+  </si>
+  <si>
+    <t>9930717548</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>KalpitMahabir80450@example.net</t>
+  </si>
+  <si>
+    <t>1983-05-20</t>
+  </si>
+  <si>
+    <t>054563468823515</t>
+  </si>
+  <si>
+    <t>87d38768edbc356e</t>
+  </si>
+  <si>
+    <t>171140496611010</t>
+  </si>
+  <si>
+    <t>8862797908</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>JavedBera72781@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-03</t>
+  </si>
+  <si>
+    <t>990842115228352</t>
+  </si>
+  <si>
+    <t>08e154a00ef2d5de</t>
+  </si>
+  <si>
+    <t>774599406372552</t>
+  </si>
+  <si>
+    <t>IDEP71655859816783BI</t>
+  </si>
+  <si>
+    <t>59999242005</t>
+  </si>
+  <si>
+    <t>HBNTTN</t>
+  </si>
+  <si>
+    <t>59999769143</t>
+  </si>
+  <si>
+    <t>BPBBTC</t>
+  </si>
+  <si>
+    <t>59999522782</t>
+  </si>
+  <si>
+    <t>IFBLJO</t>
+  </si>
+  <si>
+    <t>59999901416</t>
+  </si>
+  <si>
+    <t>KHJNDL</t>
+  </si>
+  <si>
+    <t>59999567895</t>
+  </si>
+  <si>
+    <t>EGGJRA</t>
+  </si>
+  <si>
+    <t>59999374239</t>
+  </si>
+  <si>
+    <t>JGGKST</t>
+  </si>
+  <si>
+    <t>59999088621</t>
+  </si>
+  <si>
+    <t>FCSBSI</t>
+  </si>
+  <si>
+    <t>59999212965</t>
+  </si>
+  <si>
+    <t>PUBMHR</t>
+  </si>
+  <si>
+    <t>59999344668</t>
+  </si>
+  <si>
+    <t>PUMCMI</t>
+  </si>
+  <si>
+    <t>59999040167</t>
+  </si>
+  <si>
+    <t>RMNKAH</t>
+  </si>
+  <si>
+    <t>6833154757</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>JagatDass88277@example.net</t>
+  </si>
+  <si>
+    <t>1995-11-21</t>
+  </si>
+  <si>
+    <t>389455676790550</t>
+  </si>
+  <si>
+    <t>13a3e5ebcaa634f9</t>
+  </si>
+  <si>
+    <t>573148475684928</t>
+  </si>
+  <si>
+    <t>IDEP5761518981691ISK</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>59999933990</t>
+  </si>
+  <si>
+    <t>FKKHJT</t>
+  </si>
+  <si>
+    <t>BNPL6715513558881539</t>
+  </si>
+  <si>
+    <t>59999227946</t>
+  </si>
+  <si>
+    <t>RBRBNT</t>
+  </si>
+  <si>
+    <t>59999639234</t>
+  </si>
+  <si>
+    <t>TIJHBU</t>
+  </si>
+  <si>
+    <t>59999144933</t>
+  </si>
+  <si>
+    <t>CHKORJ</t>
+  </si>
+  <si>
+    <t>59999502351</t>
+  </si>
+  <si>
+    <t>LMDRAF</t>
+  </si>
+  <si>
+    <t>59999667436</t>
+  </si>
+  <si>
+    <t>LCOQAQ</t>
+  </si>
+  <si>
+    <t>59999265220</t>
+  </si>
+  <si>
+    <t>AAOKRR</t>
+  </si>
+  <si>
+    <t>59999503141</t>
+  </si>
+  <si>
+    <t>KLUFTN</t>
+  </si>
+  <si>
+    <t>59999171905</t>
+  </si>
+  <si>
+    <t>NCAGRB</t>
+  </si>
+  <si>
+    <t>59999193158</t>
+  </si>
+  <si>
+    <t>ASKGGP</t>
+  </si>
+  <si>
+    <t>335577016833154757</t>
+  </si>
+  <si>
+    <t>ICIC97743310185</t>
+  </si>
+  <si>
+    <t>ICIC95223023012</t>
+  </si>
+  <si>
+    <t>9305359358</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>KrishnaSom33227@example.net</t>
+  </si>
+  <si>
+    <t>1978-05-07</t>
+  </si>
+  <si>
+    <t>256446850298056</t>
+  </si>
+  <si>
+    <t>9519e7ec73d605e4</t>
+  </si>
+  <si>
+    <t>238027320216838</t>
+  </si>
+  <si>
+    <t>IDEP5176517378585LPG</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999313297</t>
+  </si>
+  <si>
+    <t>LDIGII</t>
+  </si>
+  <si>
+    <t>BNPL7156528899718274</t>
+  </si>
+  <si>
+    <t>59999920927</t>
+  </si>
+  <si>
+    <t>KCLUKL</t>
+  </si>
+  <si>
+    <t>59999133470</t>
+  </si>
+  <si>
+    <t>CPGMHQ</t>
+  </si>
+  <si>
+    <t>59999864478</t>
+  </si>
+  <si>
+    <t>BASJJS</t>
+  </si>
+  <si>
+    <t>59999606291</t>
+  </si>
+  <si>
+    <t>EUMDLO</t>
+  </si>
+  <si>
+    <t>59999389022</t>
+  </si>
+  <si>
+    <t>ICJMBQ</t>
+  </si>
+  <si>
+    <t>59999044362</t>
+  </si>
+  <si>
+    <t>JKRHGO</t>
+  </si>
+  <si>
+    <t>59999327349</t>
+  </si>
+  <si>
+    <t>PECKIJ</t>
+  </si>
+  <si>
+    <t>59999705463</t>
+  </si>
+  <si>
+    <t>ICSMGH</t>
+  </si>
+  <si>
+    <t>59999046730</t>
+  </si>
+  <si>
+    <t>SLBTCP</t>
+  </si>
+  <si>
+    <t>335577019305359358</t>
+  </si>
+  <si>
+    <t>ICIC80657040433</t>
+  </si>
+  <si>
+    <t>ICIC96161727311</t>
+  </si>
+  <si>
+    <t>9536477662</t>
+  </si>
+  <si>
+    <t>Sunita</t>
+  </si>
+  <si>
+    <t>ZaadKorpal73583@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-21</t>
+  </si>
+  <si>
+    <t>169345226605992</t>
+  </si>
+  <si>
+    <t>880e18c21975ad4b</t>
+  </si>
+  <si>
+    <t>588975469800208</t>
+  </si>
+  <si>
+    <t>IDEP176516587564OABH</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>59999310552</t>
+  </si>
+  <si>
+    <t>QFPLGR</t>
+  </si>
+  <si>
+    <t>BNPL6751166868133945</t>
+  </si>
+  <si>
+    <t>59999647945</t>
+  </si>
+  <si>
+    <t>RDJPCF</t>
+  </si>
+  <si>
+    <t>59999560494</t>
+  </si>
+  <si>
+    <t>PMPJQC</t>
+  </si>
+  <si>
+    <t>59999282100</t>
+  </si>
+  <si>
+    <t>NCBCNC</t>
+  </si>
+  <si>
+    <t>59999059483</t>
+  </si>
+  <si>
+    <t>RLFEBR</t>
+  </si>
+  <si>
+    <t>59999052157</t>
+  </si>
+  <si>
+    <t>AAPHSI</t>
+  </si>
+  <si>
+    <t>59999296730</t>
+  </si>
+  <si>
+    <t>GJBPUS</t>
+  </si>
+  <si>
+    <t>59999494618</t>
+  </si>
+  <si>
+    <t>NDHTSK</t>
+  </si>
+  <si>
+    <t>59999331990</t>
+  </si>
+  <si>
+    <t>QURCKU</t>
+  </si>
+  <si>
+    <t>59999054781</t>
+  </si>
+  <si>
+    <t>TEEIHQ</t>
+  </si>
+  <si>
+    <t>335577019536477662</t>
+  </si>
+  <si>
+    <t>ICIC89087811052</t>
+  </si>
+  <si>
+    <t>ICIC86040736804</t>
+  </si>
+  <si>
+    <t>9052973049</t>
+  </si>
+  <si>
+    <t>Rosey</t>
+  </si>
+  <si>
+    <t>SomnathChand60292@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-04</t>
+  </si>
+  <si>
+    <t>085828323953002</t>
+  </si>
+  <si>
+    <t>046817d77222b0c6</t>
+  </si>
+  <si>
+    <t>508353916091572</t>
+  </si>
+  <si>
+    <t>IDEP175618847293EC93</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>59999853860</t>
+  </si>
+  <si>
+    <t>SQDOIU</t>
+  </si>
+  <si>
+    <t>BNPL6175182438228743</t>
+  </si>
+  <si>
+    <t>59999051672</t>
+  </si>
+  <si>
+    <t>AJSSAM</t>
+  </si>
+  <si>
+    <t>59999594776</t>
+  </si>
+  <si>
+    <t>FASJNO</t>
+  </si>
+  <si>
+    <t>59999750826</t>
+  </si>
+  <si>
+    <t>CRSHSN</t>
+  </si>
+  <si>
+    <t>59999191775</t>
+  </si>
+  <si>
+    <t>OMTAFL</t>
+  </si>
+  <si>
+    <t>59999332726</t>
+  </si>
+  <si>
+    <t>ICPHRN</t>
+  </si>
+  <si>
+    <t>59999350272</t>
+  </si>
+  <si>
+    <t>ANNDNU</t>
+  </si>
+  <si>
+    <t>59999968837</t>
+  </si>
+  <si>
+    <t>UMKGHT</t>
+  </si>
+  <si>
+    <t>59999584395</t>
+  </si>
+  <si>
+    <t>OAHAMC</t>
+  </si>
+  <si>
+    <t>59999341635</t>
+  </si>
+  <si>
+    <t>CBRUAF</t>
+  </si>
+  <si>
+    <t>335577019052973049</t>
+  </si>
+  <si>
+    <t>ICIC90657264405</t>
+  </si>
+  <si>
+    <t>ICIC90006520314</t>
+  </si>
+  <si>
+    <t>8502536560</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>QabeelKhanna61062@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-19</t>
+  </si>
+  <si>
+    <t>991091285639712</t>
+  </si>
+  <si>
+    <t>b2dab126274b5e9c</t>
+  </si>
+  <si>
+    <t>458317419668764</t>
+  </si>
+  <si>
+    <t>IDEP671519886531XWCQ</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>59999179538</t>
+  </si>
+  <si>
+    <t>NKDSGU</t>
+  </si>
+  <si>
+    <t>59999921074</t>
+  </si>
+  <si>
+    <t>HBQDTI</t>
+  </si>
+  <si>
+    <t>59999496537</t>
+  </si>
+  <si>
+    <t>SLULPN</t>
+  </si>
+  <si>
+    <t>59999315866</t>
+  </si>
+  <si>
+    <t>SDBIME</t>
+  </si>
+  <si>
+    <t>59999314337</t>
+  </si>
+  <si>
+    <t>IUTDKQ</t>
+  </si>
+  <si>
+    <t>59999924538</t>
+  </si>
+  <si>
+    <t>EJPASF</t>
+  </si>
+  <si>
+    <t>59999441373</t>
+  </si>
+  <si>
+    <t>EOIUUI</t>
+  </si>
+  <si>
+    <t>59999459659</t>
+  </si>
+  <si>
+    <t>FIHLPC</t>
+  </si>
+  <si>
+    <t>59999332750</t>
+  </si>
+  <si>
+    <t>SMQNRG</t>
+  </si>
+  <si>
+    <t>59999869786</t>
+  </si>
+  <si>
+    <t>CHOGDA</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2361,22 +3030,20 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>769</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>562</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>563</v>
+        <v>789</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2712,9 +3379,7 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>545</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -2810,16 +3475,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>764</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2922,7 +3587,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>755</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -2934,7 +3599,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>565</v>
+        <v>756</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2943,7 +3608,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>121.0</v>
+        <v>169.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3035,13 +3700,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>533</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>534</v>
+        <v>760</v>
       </c>
       <c r="F2" t="s">
-        <v>535</v>
+        <v>761</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4246,7 +4911,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>755</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4258,7 +4923,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>566</v>
+        <v>757</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4267,7 +4932,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>121.0</v>
+        <v>169.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4394,10 +5059,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="E2" t="s">
-        <v>534</v>
+        <v>760</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -4409,7 +5074,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -4418,10 +5083,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="M2" t="n">
-        <v>4225416.0</v>
+        <v>4233247.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -4481,7 +5146,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4498,7 +5163,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4515,7 +5180,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4532,7 +5197,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -4549,7 +5214,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -4701,7 +5366,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4945,7 +5610,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>536</v>
+        <v>762</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -5160,7 +5825,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>533</v>
+        <v>759</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -5541,7 +6206,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5561,7 +6226,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5581,7 +6246,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5601,7 +6266,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5621,7 +6286,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5641,7 +6306,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5661,7 +6326,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>539</v>
+        <v>765</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5720,7 +6385,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>401</v>
+        <v>769</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5734,7 +6399,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>401</v>
+        <v>769</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_S1_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3359" uniqueCount="1162">
   <si>
     <t>TestCases</t>
   </si>
@@ -2415,6 +2415,1122 @@
   </si>
   <si>
     <t>CHOGDA</t>
+  </si>
+  <si>
+    <t>6112998801</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>AbbasPau79077@example.net</t>
+  </si>
+  <si>
+    <t>1973-02-06</t>
+  </si>
+  <si>
+    <t>515389777381752</t>
+  </si>
+  <si>
+    <t>39310006da13f7e9</t>
+  </si>
+  <si>
+    <t>376350798040411</t>
+  </si>
+  <si>
+    <t>6640967654</t>
+  </si>
+  <si>
+    <t>Himani</t>
+  </si>
+  <si>
+    <t>MunafBahl33029@example.net</t>
+  </si>
+  <si>
+    <t>1995-12-19</t>
+  </si>
+  <si>
+    <t>108996497918219</t>
+  </si>
+  <si>
+    <t>d1eb08cbd3fb18a6</t>
+  </si>
+  <si>
+    <t>580513277182374</t>
+  </si>
+  <si>
+    <t>IDEP167583738786FDTY</t>
+  </si>
+  <si>
+    <t>7627960177</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>SatishwarDevi67318@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-24</t>
+  </si>
+  <si>
+    <t>729050589974208</t>
+  </si>
+  <si>
+    <t>eb7983839bdca9fa</t>
+  </si>
+  <si>
+    <t>277849160810830</t>
+  </si>
+  <si>
+    <t>IDEP571684814548PL6Q</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>59999328546</t>
+  </si>
+  <si>
+    <t>URSTNJ</t>
+  </si>
+  <si>
+    <t>59999153423</t>
+  </si>
+  <si>
+    <t>OBGPKB</t>
+  </si>
+  <si>
+    <t>59999873592</t>
+  </si>
+  <si>
+    <t>KOPJAU</t>
+  </si>
+  <si>
+    <t>59999426749</t>
+  </si>
+  <si>
+    <t>TGPPOG</t>
+  </si>
+  <si>
+    <t>59999530055</t>
+  </si>
+  <si>
+    <t>GDOEBI</t>
+  </si>
+  <si>
+    <t>59999756256</t>
+  </si>
+  <si>
+    <t>RFKUPD</t>
+  </si>
+  <si>
+    <t>59999908552</t>
+  </si>
+  <si>
+    <t>UMHEHA</t>
+  </si>
+  <si>
+    <t>59999951976</t>
+  </si>
+  <si>
+    <t>NBCORP</t>
+  </si>
+  <si>
+    <t>59999907739</t>
+  </si>
+  <si>
+    <t>GUQDNF</t>
+  </si>
+  <si>
+    <t>59999133977</t>
+  </si>
+  <si>
+    <t>GHFEPN</t>
+  </si>
+  <si>
+    <t>7131799969</t>
+  </si>
+  <si>
+    <t>Trishana</t>
+  </si>
+  <si>
+    <t>PeterBorah48063@example.net</t>
+  </si>
+  <si>
+    <t>1991-03-29</t>
+  </si>
+  <si>
+    <t>071843648637004</t>
+  </si>
+  <si>
+    <t>8240b9096205e07a</t>
+  </si>
+  <si>
+    <t>342847934429458</t>
+  </si>
+  <si>
+    <t>IDEP7516862983131VW3</t>
+  </si>
+  <si>
+    <t>59999353316</t>
+  </si>
+  <si>
+    <t>SNQKTT</t>
+  </si>
+  <si>
+    <t>BNPL1576864756718624</t>
+  </si>
+  <si>
+    <t>59999904208</t>
+  </si>
+  <si>
+    <t>ATTDIR</t>
+  </si>
+  <si>
+    <t>59999762857</t>
+  </si>
+  <si>
+    <t>TKCRDQ</t>
+  </si>
+  <si>
+    <t>59999534914</t>
+  </si>
+  <si>
+    <t>QNCDMT</t>
+  </si>
+  <si>
+    <t>59999768935</t>
+  </si>
+  <si>
+    <t>SHATGQ</t>
+  </si>
+  <si>
+    <t>59999532766</t>
+  </si>
+  <si>
+    <t>APHELK</t>
+  </si>
+  <si>
+    <t>59999291881</t>
+  </si>
+  <si>
+    <t>DHMSEO</t>
+  </si>
+  <si>
+    <t>59999190525</t>
+  </si>
+  <si>
+    <t>CANFRE</t>
+  </si>
+  <si>
+    <t>59999932335</t>
+  </si>
+  <si>
+    <t>AHMQQC</t>
+  </si>
+  <si>
+    <t>59999194003</t>
+  </si>
+  <si>
+    <t>NIPNSN</t>
+  </si>
+  <si>
+    <t>335577017131799969</t>
+  </si>
+  <si>
+    <t>ICIC90292594187</t>
+  </si>
+  <si>
+    <t>ICIC94161983688</t>
+  </si>
+  <si>
+    <t>6098593264</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>DhanushBakshi70243@example.net</t>
+  </si>
+  <si>
+    <t>1975-08-04</t>
+  </si>
+  <si>
+    <t>325895257166851</t>
+  </si>
+  <si>
+    <t>2788e6ce5877fa35</t>
+  </si>
+  <si>
+    <t>872201986287919</t>
+  </si>
+  <si>
+    <t>IDEP571687355891KNUG</t>
+  </si>
+  <si>
+    <t>7056652002</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>ZaadMannan61013@example.net</t>
+  </si>
+  <si>
+    <t>1971-04-29</t>
+  </si>
+  <si>
+    <t>287149197299992</t>
+  </si>
+  <si>
+    <t>a9318fb52ae3c097</t>
+  </si>
+  <si>
+    <t>500129729486573</t>
+  </si>
+  <si>
+    <t>IDEP567188459883ON12</t>
+  </si>
+  <si>
+    <t>6409025983</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>BishnuChoudhury66148@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-26</t>
+  </si>
+  <si>
+    <t>876386356268544</t>
+  </si>
+  <si>
+    <t>2919fdfdf93224ab</t>
+  </si>
+  <si>
+    <t>579095060133502</t>
+  </si>
+  <si>
+    <t>IDEP675189398162ZOL1</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>59999196418</t>
+  </si>
+  <si>
+    <t>SMDAMJ</t>
+  </si>
+  <si>
+    <t>BNPL7165895932453714</t>
+  </si>
+  <si>
+    <t>59999227200</t>
+  </si>
+  <si>
+    <t>JHCUCO</t>
+  </si>
+  <si>
+    <t>59999445111</t>
+  </si>
+  <si>
+    <t>BAGRIF</t>
+  </si>
+  <si>
+    <t>59999609329</t>
+  </si>
+  <si>
+    <t>PGTBMO</t>
+  </si>
+  <si>
+    <t>59999908895</t>
+  </si>
+  <si>
+    <t>OERIHJ</t>
+  </si>
+  <si>
+    <t>59999176609</t>
+  </si>
+  <si>
+    <t>AJCATE</t>
+  </si>
+  <si>
+    <t>59999300281</t>
+  </si>
+  <si>
+    <t>RCKCHK</t>
+  </si>
+  <si>
+    <t>59999841576</t>
+  </si>
+  <si>
+    <t>LUUHPH</t>
+  </si>
+  <si>
+    <t>59999655987</t>
+  </si>
+  <si>
+    <t>RJFDGS</t>
+  </si>
+  <si>
+    <t>59999591184</t>
+  </si>
+  <si>
+    <t>QJUDLJ</t>
+  </si>
+  <si>
+    <t>335577016409025983</t>
+  </si>
+  <si>
+    <t>ICIC98400854876</t>
+  </si>
+  <si>
+    <t>ICIC96712822980</t>
+  </si>
+  <si>
+    <t>6604123278</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>EhsaanRaju40106@example.net</t>
+  </si>
+  <si>
+    <t>1991-11-02</t>
+  </si>
+  <si>
+    <t>704477020942461</t>
+  </si>
+  <si>
+    <t>a76c7e89033daaf2</t>
+  </si>
+  <si>
+    <t>344877396281996</t>
+  </si>
+  <si>
+    <t>6375105405</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>SomnathBhalla30937@example.net</t>
+  </si>
+  <si>
+    <t>1977-01-08</t>
+  </si>
+  <si>
+    <t>609916266580085</t>
+  </si>
+  <si>
+    <t>8200852f5ecdc2da</t>
+  </si>
+  <si>
+    <t>426040666662871</t>
+  </si>
+  <si>
+    <t>8534051353</t>
+  </si>
+  <si>
+    <t>SirishRattan79272@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-15</t>
+  </si>
+  <si>
+    <t>724012882206535</t>
+  </si>
+  <si>
+    <t>e5766466a83c8a29</t>
+  </si>
+  <si>
+    <t>183702460597800</t>
+  </si>
+  <si>
+    <t>IDEP571616656913DWGF</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>bnpl59999096659</t>
+  </si>
+  <si>
+    <t>IQKMJC</t>
+  </si>
+  <si>
+    <t>bnpl59999439011</t>
+  </si>
+  <si>
+    <t>HMOASA</t>
+  </si>
+  <si>
+    <t>bnpl59999554556</t>
+  </si>
+  <si>
+    <t>BJEQNT</t>
+  </si>
+  <si>
+    <t>bnpl59999683000</t>
+  </si>
+  <si>
+    <t>PUNSOD</t>
+  </si>
+  <si>
+    <t>bnpl59999513745</t>
+  </si>
+  <si>
+    <t>NJLAES</t>
+  </si>
+  <si>
+    <t>bnpl59999041822</t>
+  </si>
+  <si>
+    <t>CTAFNU</t>
+  </si>
+  <si>
+    <t>bnpl59999335468</t>
+  </si>
+  <si>
+    <t>BDUKTK</t>
+  </si>
+  <si>
+    <t>bnpl59999814639</t>
+  </si>
+  <si>
+    <t>FNDAJT</t>
+  </si>
+  <si>
+    <t>bnpl59999079250</t>
+  </si>
+  <si>
+    <t>GMESMH</t>
+  </si>
+  <si>
+    <t>bnpl59999253980</t>
+  </si>
+  <si>
+    <t>URTSOC</t>
+  </si>
+  <si>
+    <t>8878734044</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>RajuBoase20882@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-09</t>
+  </si>
+  <si>
+    <t>629543440987246</t>
+  </si>
+  <si>
+    <t>6289fc940852bbe3</t>
+  </si>
+  <si>
+    <t>946507008528532</t>
+  </si>
+  <si>
+    <t>IDEP716516949785U6TI</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>bnpl59999490110</t>
+  </si>
+  <si>
+    <t>MFFNOS</t>
+  </si>
+  <si>
+    <t>bnpl59999604364</t>
+  </si>
+  <si>
+    <t>QNOINK</t>
+  </si>
+  <si>
+    <t>bnpl59999377201</t>
+  </si>
+  <si>
+    <t>ITBGEG</t>
+  </si>
+  <si>
+    <t>bnpl59999532416</t>
+  </si>
+  <si>
+    <t>OLMHSE</t>
+  </si>
+  <si>
+    <t>bnpl59999484408</t>
+  </si>
+  <si>
+    <t>JMMDUE</t>
+  </si>
+  <si>
+    <t>bnpl59999787309</t>
+  </si>
+  <si>
+    <t>PHPACM</t>
+  </si>
+  <si>
+    <t>bnpl59999488008</t>
+  </si>
+  <si>
+    <t>MHEMIO</t>
+  </si>
+  <si>
+    <t>bnpl59999894220</t>
+  </si>
+  <si>
+    <t>JUDAQO</t>
+  </si>
+  <si>
+    <t>bnpl59999090588</t>
+  </si>
+  <si>
+    <t>SQMPND</t>
+  </si>
+  <si>
+    <t>bnpl59999055608</t>
+  </si>
+  <si>
+    <t>TEIGBL</t>
+  </si>
+  <si>
+    <t>7387280503</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>VikrantNayar20500@example.net</t>
+  </si>
+  <si>
+    <t>1989-03-09</t>
+  </si>
+  <si>
+    <t>866016397025080</t>
+  </si>
+  <si>
+    <t>2e38d0e3160a69fd</t>
+  </si>
+  <si>
+    <t>094676865877116</t>
+  </si>
+  <si>
+    <t>IDEP1567178851691VZS</t>
+  </si>
+  <si>
+    <t>bnpl59999040987</t>
+  </si>
+  <si>
+    <t>TJSMOL</t>
+  </si>
+  <si>
+    <t>BNPL1756188827213142</t>
+  </si>
+  <si>
+    <t>bnpl59999111178</t>
+  </si>
+  <si>
+    <t>KAIOGC</t>
+  </si>
+  <si>
+    <t>bnpl59999079199</t>
+  </si>
+  <si>
+    <t>DOKDGB</t>
+  </si>
+  <si>
+    <t>bnpl59999329898</t>
+  </si>
+  <si>
+    <t>AMMHHG</t>
+  </si>
+  <si>
+    <t>bnpl59999969636</t>
+  </si>
+  <si>
+    <t>CPHLDG</t>
+  </si>
+  <si>
+    <t>bnpl59999335045</t>
+  </si>
+  <si>
+    <t>FTRGUN</t>
+  </si>
+  <si>
+    <t>bnpl59999609993</t>
+  </si>
+  <si>
+    <t>TDLKIK</t>
+  </si>
+  <si>
+    <t>bnpl59999203194</t>
+  </si>
+  <si>
+    <t>JQTCOE</t>
+  </si>
+  <si>
+    <t>bnpl59999983470</t>
+  </si>
+  <si>
+    <t>ABAROT</t>
+  </si>
+  <si>
+    <t>bnpl59999190536</t>
+  </si>
+  <si>
+    <t>LIIBHH</t>
+  </si>
+  <si>
+    <t>335577017387280503</t>
+  </si>
+  <si>
+    <t>ICIC94886098170</t>
+  </si>
+  <si>
+    <t>ICIC98404423669</t>
+  </si>
+  <si>
+    <t>6042750471</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>MohanlalWason56973@example.net</t>
+  </si>
+  <si>
+    <t>1986-11-23</t>
+  </si>
+  <si>
+    <t>900216365659518</t>
+  </si>
+  <si>
+    <t>a9ab79f389e71649</t>
+  </si>
+  <si>
+    <t>993253982738738</t>
+  </si>
+  <si>
+    <t>IDEP756118984464J4XC</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>bnpl59999292247</t>
+  </si>
+  <si>
+    <t>PGOHHC</t>
+  </si>
+  <si>
+    <t>BNPL1765191885767523</t>
+  </si>
+  <si>
+    <t>bnpl59999766492</t>
+  </si>
+  <si>
+    <t>EKGLUK</t>
+  </si>
+  <si>
+    <t>bnpl59999840748</t>
+  </si>
+  <si>
+    <t>IILHFF</t>
+  </si>
+  <si>
+    <t>bnpl59999492574</t>
+  </si>
+  <si>
+    <t>FMMKQM</t>
+  </si>
+  <si>
+    <t>bnpl59999001432</t>
+  </si>
+  <si>
+    <t>EDSGQD</t>
+  </si>
+  <si>
+    <t>bnpl59999163185</t>
+  </si>
+  <si>
+    <t>SCEDRJ</t>
+  </si>
+  <si>
+    <t>bnpl59999325111</t>
+  </si>
+  <si>
+    <t>SURTMJ</t>
+  </si>
+  <si>
+    <t>bnpl59999581270</t>
+  </si>
+  <si>
+    <t>MHDQMD</t>
+  </si>
+  <si>
+    <t>bnpl59999651612</t>
+  </si>
+  <si>
+    <t>IIEENS</t>
+  </si>
+  <si>
+    <t>bnpl59999531348</t>
+  </si>
+  <si>
+    <t>SMGPOK</t>
+  </si>
+  <si>
+    <t>335577016042750471</t>
+  </si>
+  <si>
+    <t>ICIC95760400879</t>
+  </si>
+  <si>
+    <t>ICIC92366134276</t>
+  </si>
+  <si>
+    <t>6902174994</t>
+  </si>
+  <si>
+    <t>Sweta</t>
+  </si>
+  <si>
+    <t>AkshayAurora33757@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-06</t>
+  </si>
+  <si>
+    <t>445001610900681</t>
+  </si>
+  <si>
+    <t>ac829d996f46d8c8</t>
+  </si>
+  <si>
+    <t>931843590054224</t>
+  </si>
+  <si>
+    <t>IDEP7516285229166QDX</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>bnpl59999752308</t>
+  </si>
+  <si>
+    <t>BCEJLP</t>
+  </si>
+  <si>
+    <t>BNPL6517287218184695</t>
+  </si>
+  <si>
+    <t>bnpl59999893422</t>
+  </si>
+  <si>
+    <t>CKOCHQ</t>
+  </si>
+  <si>
+    <t>bnpl59999858556</t>
+  </si>
+  <si>
+    <t>SDSKNT</t>
+  </si>
+  <si>
+    <t>bnpl59999728505</t>
+  </si>
+  <si>
+    <t>CKMMAG</t>
+  </si>
+  <si>
+    <t>bnpl59999502004</t>
+  </si>
+  <si>
+    <t>CEJPSP</t>
+  </si>
+  <si>
+    <t>bnpl59999312336</t>
+  </si>
+  <si>
+    <t>KKKQAJ</t>
+  </si>
+  <si>
+    <t>bnpl59999225537</t>
+  </si>
+  <si>
+    <t>CGJSID</t>
+  </si>
+  <si>
+    <t>bnpl59999819598</t>
+  </si>
+  <si>
+    <t>NRKBPS</t>
+  </si>
+  <si>
+    <t>bnpl59999870365</t>
+  </si>
+  <si>
+    <t>ESFKGO</t>
+  </si>
+  <si>
+    <t>bnpl59999238589</t>
+  </si>
+  <si>
+    <t>JKHCQJ</t>
+  </si>
+  <si>
+    <t>335577016902174994</t>
+  </si>
+  <si>
+    <t>ICIC84779064963</t>
+  </si>
+  <si>
+    <t>ICIC93092884177</t>
+  </si>
+  <si>
+    <t>9277821712</t>
+  </si>
+  <si>
+    <t>FarazNarang14255@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-25</t>
+  </si>
+  <si>
+    <t>467969937353250</t>
+  </si>
+  <si>
+    <t>59c1562db901aa21</t>
+  </si>
+  <si>
+    <t>811562555945607</t>
+  </si>
+  <si>
+    <t>IDEP516721535349Y5QI</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>bnpl59999924194</t>
+  </si>
+  <si>
+    <t>RHISUB</t>
+  </si>
+  <si>
+    <t>BNPL5761217413744387</t>
+  </si>
+  <si>
+    <t>bnpl59999107260</t>
+  </si>
+  <si>
+    <t>SIMTMJ</t>
+  </si>
+  <si>
+    <t>bnpl59999305787</t>
+  </si>
+  <si>
+    <t>TQUTCD</t>
+  </si>
+  <si>
+    <t>bnpl59999599100</t>
+  </si>
+  <si>
+    <t>QMOKDO</t>
+  </si>
+  <si>
+    <t>bnpl59999271039</t>
+  </si>
+  <si>
+    <t>NUJJLJ</t>
+  </si>
+  <si>
+    <t>bnpl59999010721</t>
+  </si>
+  <si>
+    <t>QMBMTB</t>
+  </si>
+  <si>
+    <t>bnpl59999378593</t>
+  </si>
+  <si>
+    <t>UGERIO</t>
+  </si>
+  <si>
+    <t>bnpl59999311933</t>
+  </si>
+  <si>
+    <t>NSMHBT</t>
+  </si>
+  <si>
+    <t>bnpl59999163416</t>
+  </si>
+  <si>
+    <t>TNGMDK</t>
+  </si>
+  <si>
+    <t>bnpl59999514143</t>
+  </si>
+  <si>
+    <t>IUODRP</t>
+  </si>
+  <si>
+    <t>335577019277821712</t>
+  </si>
+  <si>
+    <t>ICIC89470619682</t>
+  </si>
+  <si>
+    <t>ICIC80322056637</t>
+  </si>
+  <si>
+    <t>9507651847</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>OwaisKapoor44648@example.net</t>
+  </si>
+  <si>
+    <t>1973-01-20</t>
+  </si>
+  <si>
+    <t>200266732128579</t>
+  </si>
+  <si>
+    <t>59579fcabc07e614</t>
+  </si>
+  <si>
+    <t>375139104149235</t>
+  </si>
+  <si>
+    <t>IDEP156722557496L62C</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>bnpl59999584241</t>
+  </si>
+  <si>
+    <t>LKOKSM</t>
+  </si>
+  <si>
+    <t>BNPL6517227513383451</t>
+  </si>
+  <si>
+    <t>bnpl59999031042</t>
+  </si>
+  <si>
+    <t>KTTMAE</t>
+  </si>
+  <si>
+    <t>bnpl59999368892</t>
+  </si>
+  <si>
+    <t>QLANNR</t>
+  </si>
+  <si>
+    <t>bnpl59999693235</t>
+  </si>
+  <si>
+    <t>HFLJSU</t>
+  </si>
+  <si>
+    <t>bnpl59999438176</t>
+  </si>
+  <si>
+    <t>BUBNCF</t>
+  </si>
+  <si>
+    <t>bnpl59999384036</t>
+  </si>
+  <si>
+    <t>KAEDHU</t>
+  </si>
+  <si>
+    <t>bnpl59999446437</t>
+  </si>
+  <si>
+    <t>QNUJBP</t>
+  </si>
+  <si>
+    <t>bnpl59999296262</t>
+  </si>
+  <si>
+    <t>GELKPM</t>
+  </si>
+  <si>
+    <t>bnpl59999253278</t>
+  </si>
+  <si>
+    <t>CMFAES</t>
+  </si>
+  <si>
+    <t>bnpl59999553328</t>
+  </si>
+  <si>
+    <t>AEEFRE</t>
+  </si>
+  <si>
+    <t>335577019507651847</t>
+  </si>
+  <si>
+    <t>ICIC80530801954</t>
+  </si>
+  <si>
+    <t>ICIC91843783528</t>
   </si>
 </sst>
 </file>
@@ -2910,7 +4026,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3030,20 +4146,22 @@
         <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C2" t="s">
-        <v>769</v>
+        <v>1137</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F2"/>
+        <v>1157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
       <c r="G2" t="s">
-        <v>789</v>
+        <v>1158</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3379,7 +4497,9 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1140</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>154</v>
       </c>
@@ -3475,16 +4595,16 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>1132</v>
       </c>
       <c r="C2" t="s">
-        <v>764</v>
+        <v>1133</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>762</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3587,7 +4707,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>1159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -3599,7 +4719,7 @@
         <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>756</v>
+        <v>1160</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3608,7 +4728,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>159.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3700,13 +4820,13 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>759</v>
+        <v>1128</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>1129</v>
       </c>
       <c r="F2" t="s">
-        <v>761</v>
+        <v>1130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>218</v>
@@ -4911,7 +6031,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>1159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>172</v>
@@ -4923,7 +6043,7 @@
         <v>180</v>
       </c>
       <c r="G2" t="s">
-        <v>757</v>
+        <v>1161</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4932,7 +6052,7 @@
         <v>174</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0</v>
+        <v>159.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5059,10 +6179,10 @@
         <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>1129</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>62</v>
@@ -5074,7 +6194,7 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>762</v>
+        <v>1131</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>65</v>
@@ -5083,10 +6203,10 @@
         <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="M2" t="n">
-        <v>4233247.0</v>
+        <v>4234173.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>67</v>
@@ -5146,7 +6266,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5163,7 +6283,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -5180,7 +6300,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -5197,7 +6317,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5214,7 +6334,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>1127</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -5366,7 +6486,7 @@
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>762</v>
+        <v>1131</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5610,7 +6730,7 @@
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>762</v>
+        <v>1131</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>65</v>
@@ -5825,7 +6945,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>1128</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>102</v>
@@ -6206,7 +7326,7 @@
         <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6226,7 +7346,7 @@
         <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6246,7 +7366,7 @@
         <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6266,7 +7386,7 @@
         <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6286,7 +7406,7 @@
         <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6306,7 +7426,7 @@
         <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6326,7 +7446,7 @@
         <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>1134</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6385,7 +7505,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>769</v>
+        <v>1137</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -6399,7 +7519,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>1137</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>
